--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95EB125E-51B6-4A4B-BECF-98C7D1BC3BDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D09BB-EC7A-4B96-BF79-BF47EDCED950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="754" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="337">
   <si>
     <t>name</t>
   </si>
@@ -1399,6 +1399,21 @@
   </si>
   <si>
     <t>description_de</t>
+  </si>
+  <si>
+    <t>SMP</t>
+  </si>
+  <si>
+    <t>Short Musical Preferences Questionnaire</t>
+  </si>
+  <si>
+    <t>Klingender Test zu musikalischen Präferenzen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is a questionnaire test that captures musical preferences for each of the five factor of the MUSIC model (Rentfrow, Goldberg, &amp; Levitin, 2011). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dies ist ein Fragebogen, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst. </t>
   </si>
 </sst>
 </file>
@@ -1851,11 +1866,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D64" sqref="D64"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="P61" sqref="P61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4450,8 +4465,8 @@
       <c r="B60" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="5" t="s">
-        <v>325</v>
+      <c r="C60" s="13" t="s">
+        <v>334</v>
       </c>
       <c r="D60" s="12" t="s">
         <v>219</v>
@@ -4493,65 +4508,61 @@
     </row>
     <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A61" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>68</v>
+        <v>332</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>333</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="E61" s="12" t="s">
-        <v>259</v>
+      <c r="E61" s="5" t="s">
+        <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>255</v>
+        <v>335</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>251</v>
+        <v>336</v>
       </c>
       <c r="H61" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I61" s="5">
-        <v>15</v>
-      </c>
-      <c r="J61" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K61" s="5">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="N61" s="5" t="s">
-        <v>286</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N61" s="5"/>
       <c r="O61" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="P61" s="7" t="s">
-        <v>140</v>
+        <v>260</v>
+      </c>
+      <c r="P61" s="4" t="s">
+        <v>90</v>
       </c>
       <c r="Q61" s="5"/>
-      <c r="R61" s="5" t="s">
-        <v>184</v>
-      </c>
+      <c r="R61" s="5"/>
     </row>
     <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D62" s="12" t="s">
         <v>219</v>
@@ -4560,48 +4571,50 @@
         <v>259</v>
       </c>
       <c r="F62" t="s">
-        <v>179</v>
-      </c>
-      <c r="G62" s="12" t="s">
-        <v>252</v>
+        <v>255</v>
+      </c>
+      <c r="G62" s="13" t="s">
+        <v>251</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I62" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J62" s="12" t="s">
         <v>216</v>
       </c>
       <c r="K62" s="5">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="3" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="P62" s="2" t="s">
-        <v>185</v>
+        <v>269</v>
+      </c>
+      <c r="P62" s="7" t="s">
+        <v>140</v>
       </c>
       <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
+      <c r="R62" s="5" t="s">
+        <v>184</v>
+      </c>
     </row>
     <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>328</v>
+        <v>70</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>327</v>
       </c>
       <c r="D63" s="12" t="s">
         <v>219</v>
@@ -4610,48 +4623,48 @@
         <v>259</v>
       </c>
       <c r="F63" t="s">
-        <v>72</v>
+        <v>179</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H63" s="5" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I63" s="5">
-        <v>16</v>
-      </c>
-      <c r="J63" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K63" s="5" t="s">
-        <v>183</v>
+        <v>8</v>
+      </c>
+      <c r="J63" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K63" s="5">
+        <v>8</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="N63" s="5"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q63" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="R63" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="N63" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="O63" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q63" s="5"/>
+      <c r="R63" s="5"/>
     </row>
     <row r="64" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C64" s="5" t="s">
-        <v>329</v>
+        <v>71</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>328</v>
       </c>
       <c r="D64" s="12" t="s">
         <v>219</v>
@@ -4660,50 +4673,48 @@
         <v>259</v>
       </c>
       <c r="F64" t="s">
-        <v>180</v>
-      </c>
-      <c r="G64" s="13" t="s">
-        <v>304</v>
+        <v>72</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>253</v>
       </c>
       <c r="H64" s="5" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I64" s="5">
-        <v>15</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K64" s="5">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>183</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N64" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="O64" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="P64" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q64" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="N64" s="5"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q64" s="7" t="s">
+        <v>142</v>
+      </c>
       <c r="R64" s="5" t="s">
-        <v>76</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D65" s="12" t="s">
         <v>219</v>
@@ -4712,37 +4723,86 @@
         <v>259</v>
       </c>
       <c r="F65" t="s">
-        <v>181</v>
-      </c>
-      <c r="G65" s="12" t="s">
-        <v>254</v>
+        <v>180</v>
+      </c>
+      <c r="G65" s="13" t="s">
+        <v>304</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>32</v>
       </c>
       <c r="I65" s="5">
+        <v>15</v>
+      </c>
+      <c r="J65" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K65" s="5">
+        <v>15</v>
+      </c>
+      <c r="L65" s="5"/>
+      <c r="M65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N65" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="O65" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="P65" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="F66" t="s">
+        <v>181</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I66" s="5">
         <v>12</v>
       </c>
-      <c r="J65" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K65" s="5" t="s">
-        <v>183</v>
-      </c>
-      <c r="L65" s="5"/>
-      <c r="M65" s="5"/>
-      <c r="N65" s="5" t="s">
+      <c r="J66" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="L66" s="5"/>
+      <c r="M66" s="5"/>
+      <c r="N66" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="O65" s="9" t="s">
+      <c r="O66" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="P65" s="5"/>
-      <c r="Q65" s="5"/>
-      <c r="R65" s="5"/>
-    </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G66" s="12"/>
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5"/>
+      <c r="R66" s="5"/>
     </row>
     <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G67" s="12"/>
@@ -4762,17 +4822,17 @@
     <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="G72" s="12"/>
     </row>
-    <row r="86" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G86" s="12"/>
-    </row>
-    <row r="94" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G94" s="12"/>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="G73" s="12"/>
+    </row>
+    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G87" s="12"/>
     </row>
     <row r="95" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G95" s="12"/>
     </row>
-    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G102" s="12"/>
+    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G96" s="12"/>
     </row>
     <row r="103" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G103" s="12"/>
@@ -4780,8 +4840,8 @@
     <row r="104" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G104" s="12"/>
     </row>
-    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G109" s="12"/>
+    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G105" s="12"/>
     </row>
     <row r="110" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G110" s="12"/>
@@ -4807,8 +4867,8 @@
     <row r="117" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G117" s="12"/>
     </row>
-    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
-      <c r="G121" s="12"/>
+    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G118" s="12"/>
     </row>
     <row r="122" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G122" s="12"/>
@@ -4863,6 +4923,9 @@
     </row>
     <row r="139" spans="7:7" x14ac:dyDescent="0.25">
       <c r="G139" s="12"/>
+    </row>
+    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G140" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="11" type="noConversion"/>
@@ -4890,16 +4953,17 @@
     <hyperlink ref="O49" r:id="rId21" xr:uid="{EC443C3A-7836-4460-83D0-5C73F759181A}"/>
     <hyperlink ref="O55" r:id="rId22" xr:uid="{AA15EF38-43FE-4806-AD37-C00D4F12DA14}"/>
     <hyperlink ref="O58" r:id="rId23" xr:uid="{70FB95CD-A9C5-4BE0-AEE3-E3338FA20098}"/>
-    <hyperlink ref="O61" r:id="rId24" xr:uid="{177009B3-D672-4BC0-8A69-947FBF783793}"/>
-    <hyperlink ref="O64" r:id="rId25" xr:uid="{117C7FE1-97AB-4954-AE8D-1AD48BD864F8}"/>
+    <hyperlink ref="O62" r:id="rId24" xr:uid="{177009B3-D672-4BC0-8A69-947FBF783793}"/>
+    <hyperlink ref="O65" r:id="rId25" xr:uid="{117C7FE1-97AB-4954-AE8D-1AD48BD864F8}"/>
     <hyperlink ref="O56" r:id="rId26" xr:uid="{FBEBC241-67BD-40C0-8CA9-ABBB5A964CDF}"/>
     <hyperlink ref="O57" r:id="rId27" xr:uid="{E3AFAD2B-9AE4-4D18-8B98-449BA7D471F3}"/>
     <hyperlink ref="O59" r:id="rId28" xr:uid="{4AB2DAB5-6B75-435A-9541-C298B0E18588}"/>
-    <hyperlink ref="O62" r:id="rId29" xr:uid="{FE3E304A-8501-47E8-BCC9-30FD14B226DF}"/>
-    <hyperlink ref="O65" r:id="rId30" xr:uid="{D6486464-2243-4229-B25B-05676D833C2D}"/>
+    <hyperlink ref="O63" r:id="rId29" xr:uid="{FE3E304A-8501-47E8-BCC9-30FD14B226DF}"/>
+    <hyperlink ref="O66" r:id="rId30" xr:uid="{D6486464-2243-4229-B25B-05676D833C2D}"/>
     <hyperlink ref="O60" r:id="rId31" xr:uid="{601B5599-7C00-4021-ABB4-2A5CB3D4982A}"/>
+    <hyperlink ref="O61" r:id="rId32" xr:uid="{82C7F15A-0905-474E-B047-A7BB4379FCA8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId32"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F87D09BB-EC7A-4B96-BF79-BF47EDCED950}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0ABF3-A0C3-44ED-B854-B42D2B8755E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="346">
   <si>
     <t>name</t>
   </si>
@@ -1415,14 +1415,48 @@
   <si>
     <t xml:space="preserve">Dies ist ein Fragebogen, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst. </t>
   </si>
+  <si>
+    <t>HALT</t>
+  </si>
+  <si>
+    <t>Headphone and Loudspeaker Test</t>
+  </si>
+  <si>
+    <t>Kopfhörer und Lautsprecher test</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>Diese Testprozedur verwendet drei Gruppen von Höraufgaben um anhand der Antwortmuster in fünf bis zehn Minuten zuverlässig zu bestimmen, welches Abhörgerät (z. B. Kopfhörer oder Lautsprecher) von Proband*innen in Internet-Experimenten verwendet wurde. Damit wird eine hohe Zuverlässigkeit in der Diagnostik jenseits von Selbstauskünften ermöglicht</t>
+  </si>
+  <si>
+    <t>This test procedure uses three groups of listening tasks to reliably determine which listening device (i.e. headphones or loudspeakers) is used by a subject in an online experiments in five to ten minutes. This enables a high level of reliability in diagnostics beyond self-reporting.</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/HALT</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/HALT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1508,6 +1542,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1528,29 +1567,33 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1869,11 +1912,11 @@
   <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P61" sqref="P61"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="13.625" customWidth="1"/>
     <col min="2" max="3" width="31.5" customWidth="1"/>
@@ -1891,7 +1934,7 @@
     <col min="17" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="21">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1947,7 +1990,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="21">
       <c r="A2" s="1" t="s">
         <v>188</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="21">
       <c r="A3" s="1" t="s">
         <v>189</v>
       </c>
@@ -2049,7 +2092,7 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="21">
       <c r="A4" s="1" t="s">
         <v>190</v>
       </c>
@@ -2097,7 +2140,7 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="21">
       <c r="A5" s="1" t="s">
         <v>191</v>
       </c>
@@ -2149,7 +2192,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="21">
       <c r="A6" s="1" t="s">
         <v>191</v>
       </c>
@@ -2189,7 +2232,7 @@
       <c r="O6" s="1"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" ht="21">
       <c r="A7" s="1" t="s">
         <v>191</v>
       </c>
@@ -2233,7 +2276,7 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" ht="21">
       <c r="A8" s="1" t="s">
         <v>191</v>
       </c>
@@ -2272,7 +2315,7 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" ht="21">
       <c r="A9" s="1" t="s">
         <v>191</v>
       </c>
@@ -2311,7 +2354,7 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" ht="21">
       <c r="A10" s="1" t="s">
         <v>191</v>
       </c>
@@ -2350,7 +2393,7 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" ht="21">
       <c r="A11" s="1" t="s">
         <v>191</v>
       </c>
@@ -2389,7 +2432,7 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" ht="21">
       <c r="A12" s="1" t="s">
         <v>192</v>
       </c>
@@ -2435,7 +2478,7 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" ht="21">
       <c r="A13" s="1" t="s">
         <v>193</v>
       </c>
@@ -2487,7 +2530,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" ht="21">
       <c r="A14" s="1" t="s">
         <v>194</v>
       </c>
@@ -2541,7 +2584,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" ht="21">
       <c r="A15" s="1" t="s">
         <v>195</v>
       </c>
@@ -2593,7 +2636,7 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" ht="21">
       <c r="A16" s="1" t="s">
         <v>196</v>
       </c>
@@ -2643,7 +2686,7 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:18" ht="21">
       <c r="A17" s="1" t="s">
         <v>197</v>
       </c>
@@ -2695,7 +2738,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:18" ht="21">
       <c r="A18" s="1" t="s">
         <v>197</v>
       </c>
@@ -2739,7 +2782,7 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:18" ht="21">
       <c r="A19" s="1" t="s">
         <v>197</v>
       </c>
@@ -2783,7 +2826,7 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:18" ht="21">
       <c r="A20" s="1" t="s">
         <v>197</v>
       </c>
@@ -2827,7 +2870,7 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:18" ht="21">
       <c r="A21" s="1" t="s">
         <v>197</v>
       </c>
@@ -2871,7 +2914,7 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:18" ht="21">
       <c r="A22" s="1" t="s">
         <v>197</v>
       </c>
@@ -2915,7 +2958,7 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:18" ht="21">
       <c r="A23" s="1" t="s">
         <v>198</v>
       </c>
@@ -2967,7 +3010,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:18" ht="21">
       <c r="A24" s="1" t="s">
         <v>198</v>
       </c>
@@ -3011,7 +3054,7 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:18" ht="21">
       <c r="A25" s="1" t="s">
         <v>198</v>
       </c>
@@ -3055,7 +3098,7 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:18" ht="21">
       <c r="A26" s="1" t="s">
         <v>198</v>
       </c>
@@ -3099,7 +3142,7 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:18" ht="21">
       <c r="A27" s="1" t="s">
         <v>198</v>
       </c>
@@ -3138,7 +3181,7 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:18" ht="21">
       <c r="A28" s="1" t="s">
         <v>198</v>
       </c>
@@ -3177,7 +3220,7 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:18" ht="21">
       <c r="A29" s="1" t="s">
         <v>198</v>
       </c>
@@ -3216,7 +3259,7 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:18" ht="21">
       <c r="A30" s="1" t="s">
         <v>198</v>
       </c>
@@ -3255,7 +3298,7 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:18" ht="21">
       <c r="A31" s="1" t="s">
         <v>198</v>
       </c>
@@ -3294,7 +3337,7 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:18" ht="21">
       <c r="A32" s="1" t="s">
         <v>198</v>
       </c>
@@ -3333,7 +3376,7 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:18" ht="21">
       <c r="A33" s="1" t="s">
         <v>199</v>
       </c>
@@ -3387,7 +3430,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:18" ht="21">
       <c r="A34" s="1" t="s">
         <v>199</v>
       </c>
@@ -3429,7 +3472,7 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:18" ht="21">
       <c r="A35" s="1" t="s">
         <v>199</v>
       </c>
@@ -3471,7 +3514,7 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:18" ht="21">
       <c r="A36" s="1" t="s">
         <v>200</v>
       </c>
@@ -3523,7 +3566,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:18" ht="21">
       <c r="A37" s="1" t="s">
         <v>200</v>
       </c>
@@ -3567,7 +3610,7 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:18" ht="21">
       <c r="A38" s="1" t="s">
         <v>200</v>
       </c>
@@ -3611,7 +3654,7 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:18" ht="21">
       <c r="A39" s="1" t="s">
         <v>201</v>
       </c>
@@ -3661,7 +3704,7 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:18" ht="21">
       <c r="A40" s="1" t="s">
         <v>201</v>
       </c>
@@ -3693,7 +3736,7 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:18" ht="21">
       <c r="A41" s="1" t="s">
         <v>201</v>
       </c>
@@ -3725,7 +3768,7 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:18" ht="21">
       <c r="A42" s="1" t="s">
         <v>202</v>
       </c>
@@ -3781,7 +3824,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:18" ht="21">
       <c r="A43" s="1" t="s">
         <v>202</v>
       </c>
@@ -3815,7 +3858,7 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:18" ht="21">
       <c r="A44" s="1" t="s">
         <v>202</v>
       </c>
@@ -3849,7 +3892,7 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:18" ht="21">
       <c r="A45" s="1" t="s">
         <v>202</v>
       </c>
@@ -3883,7 +3926,7 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:18" ht="21">
       <c r="A46" s="1" t="s">
         <v>202</v>
       </c>
@@ -3917,7 +3960,7 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:18" ht="21">
       <c r="A47" s="1" t="s">
         <v>202</v>
       </c>
@@ -3952,7 +3995,7 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:18" ht="21">
       <c r="A48" s="1" t="s">
         <v>202</v>
       </c>
@@ -3987,7 +4030,7 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:18" ht="21">
       <c r="A49" s="1" t="s">
         <v>203</v>
       </c>
@@ -4039,7 +4082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:18" ht="21">
       <c r="A50" s="1" t="s">
         <v>203</v>
       </c>
@@ -4072,7 +4115,7 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:18" ht="21">
       <c r="A51" s="1" t="s">
         <v>203</v>
       </c>
@@ -4105,7 +4148,7 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="11"/>
     </row>
-    <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:18" ht="21">
       <c r="A52" s="1" t="s">
         <v>203</v>
       </c>
@@ -4138,7 +4181,7 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:18" ht="21">
       <c r="A53" s="1" t="s">
         <v>203</v>
       </c>
@@ -4171,7 +4214,7 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:18" ht="21">
       <c r="A54" s="1" t="s">
         <v>203</v>
       </c>
@@ -4204,7 +4247,7 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="11"/>
     </row>
-    <row r="55" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:18" ht="21">
       <c r="A55" s="1" t="s">
         <v>204</v>
       </c>
@@ -4256,7 +4299,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:18" ht="21">
       <c r="A56" s="1" t="s">
         <v>205</v>
       </c>
@@ -4308,7 +4351,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:18" ht="21">
       <c r="A57" s="1" t="s">
         <v>206</v>
       </c>
@@ -4358,7 +4401,7 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:18" ht="21">
       <c r="A58" s="1" t="s">
         <v>207</v>
       </c>
@@ -4410,7 +4453,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:18" ht="21">
       <c r="A59" s="1" t="s">
         <v>208</v>
       </c>
@@ -4458,7 +4501,7 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:18" ht="21">
       <c r="A60" s="1" t="s">
         <v>209</v>
       </c>
@@ -4506,7 +4549,7 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:18" ht="21">
       <c r="A61" s="1" t="s">
         <v>332</v>
       </c>
@@ -4554,7 +4597,7 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:18" ht="21">
       <c r="A62" s="1" t="s">
         <v>210</v>
       </c>
@@ -4606,7 +4649,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:18" ht="21">
       <c r="A63" s="1" t="s">
         <v>211</v>
       </c>
@@ -4656,7 +4699,7 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:18" ht="21">
       <c r="A64" s="1" t="s">
         <v>212</v>
       </c>
@@ -4706,7 +4749,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:18" ht="21">
       <c r="A65" s="1" t="s">
         <v>213</v>
       </c>
@@ -4758,7 +4801,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:18" ht="21">
       <c r="A66" s="1" t="s">
         <v>214</v>
       </c>
@@ -4804,131 +4847,166 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G67" s="12"/>
-    </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:18" ht="21">
+      <c r="A67" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>338</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>339</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="E67" s="14" t="s">
+        <v>340</v>
+      </c>
+      <c r="F67" t="s">
+        <v>342</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>341</v>
+      </c>
+      <c r="J67" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K67" t="s">
+        <v>183</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="N67" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="O67" s="9" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
       <c r="G68" s="12"/>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:18">
       <c r="G69" s="12"/>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:18">
       <c r="G70" s="12"/>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:18">
       <c r="G71" s="12"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:18">
       <c r="G72" s="12"/>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:18">
       <c r="G73" s="12"/>
     </row>
-    <row r="87" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="7:7">
       <c r="G87" s="12"/>
     </row>
-    <row r="95" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:7">
       <c r="G95" s="12"/>
     </row>
-    <row r="96" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="7:7">
       <c r="G96" s="12"/>
     </row>
-    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="7:7">
       <c r="G103" s="12"/>
     </row>
-    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="7:7">
       <c r="G104" s="12"/>
     </row>
-    <row r="105" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="7:7">
       <c r="G105" s="12"/>
     </row>
-    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="7:7">
       <c r="G110" s="12"/>
     </row>
-    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="7:7">
       <c r="G111" s="12"/>
     </row>
-    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="7:7">
       <c r="G112" s="12"/>
     </row>
-    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="7:7">
       <c r="G113" s="12"/>
     </row>
-    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="7:7">
       <c r="G114" s="12"/>
     </row>
-    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="7:7">
       <c r="G115" s="12"/>
     </row>
-    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="7:7">
       <c r="G116" s="12"/>
     </row>
-    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="7:7">
       <c r="G117" s="12"/>
     </row>
-    <row r="118" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="7:7">
       <c r="G118" s="12"/>
     </row>
-    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="7:7">
       <c r="G122" s="12"/>
     </row>
-    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="7:7">
       <c r="G123" s="12"/>
     </row>
-    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="7:7">
       <c r="G124" s="12"/>
     </row>
-    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="7:7">
       <c r="G125" s="12"/>
     </row>
-    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="7:7">
       <c r="G126" s="12"/>
     </row>
-    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="7:7">
       <c r="G127" s="12"/>
     </row>
-    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="7:7">
       <c r="G128" s="12"/>
     </row>
-    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="7:7">
       <c r="G129" s="12"/>
     </row>
-    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="7:7">
       <c r="G130" s="12"/>
     </row>
-    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="7:7">
       <c r="G131" s="12"/>
     </row>
-    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="7:7">
       <c r="G132" s="12"/>
     </row>
-    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="7:7">
       <c r="G133" s="12"/>
     </row>
-    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="7:7">
       <c r="G134" s="12"/>
     </row>
-    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="7:7">
       <c r="G135" s="12"/>
     </row>
-    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="7:7">
       <c r="G136" s="12"/>
     </row>
-    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="7:7">
       <c r="G137" s="12"/>
     </row>
-    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="7:7">
       <c r="G138" s="12"/>
     </row>
-    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="7:7">
       <c r="G139" s="12"/>
     </row>
-    <row r="140" spans="7:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="7:7">
       <c r="G140" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>
@@ -4962,8 +5040,10 @@
     <hyperlink ref="O66" r:id="rId30" xr:uid="{D6486464-2243-4229-B25B-05676D833C2D}"/>
     <hyperlink ref="O60" r:id="rId31" xr:uid="{601B5599-7C00-4021-ABB4-2A5CB3D4982A}"/>
     <hyperlink ref="O61" r:id="rId32" xr:uid="{82C7F15A-0905-474E-B047-A7BB4379FCA8}"/>
+    <hyperlink ref="N67" r:id="rId33" xr:uid="{BF935FA2-E37D-4CA8-8536-DD8CA66BE7FD}"/>
+    <hyperlink ref="O67" r:id="rId34" xr:uid="{B6A64B24-F697-4591-8B4B-26653811AD6E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId33"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD0ABF3-A0C3-44ED-B854-B42D2B8755E5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4491B-28D6-4203-9EFF-6460D16FEFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -910,9 +910,6 @@
   </si>
   <si>
     <t>The rhythm test measures the ability to process and remember short musical rhythms with 4, 8 or 16 events. Participants listen to the rhythm and then have to select the one of four graphical representations that corresponds to the structure of the rhythm.</t>
-  </si>
-  <si>
-    <t>The ability to silently hear music in the mind has been argued to be fundamental to musicality. Objective measurements of this subjective imagery experience are needed if this link between imagery ability and musicality is to be investigated. However, previous tests of musical imagery either rely on self-report, rely on melodic memory, or do not cater in range of abilities. The Pitch Imagery Arrow Task (PIAT) was designed to address these shortcomings.</t>
   </si>
   <si>
     <t>BDS tasks represent a classic measure of WM (Case &amp; Globerson, 1974), requiring participants to remember a sequence of digits, mentally reverse the sequence, and enter the reversed sequence. Because this BDS task required responding by clicking the numbers on a keypad, it had a particular visuospatial quality to it compared to other BDS tasks.</t>
@@ -1317,18 +1314,12 @@
     <t>Der MIQ bewertet die fluide Intelligenz, das nonverbale Denken und die abstrakten Problemlösungsfähigkeiten. Die Schüler sehen ein visuelles Puzzle und müssen das fehlende Puzzlestück ergänzen. Sie müssen innerhalb von 120 Sekunden ihre Antwort aus 8 vorgegebenen Antwortmöglichkeiten auswählen</t>
   </si>
   <si>
-    <t>Die Fähigkeit, Musik im Stillen im Kopf zu hören, wird als grundlegend für Musikalität angesehen. Objektive Messungen dieses subjektiven Vorstellungserlebnisses werden benötigt, wenn dieser Zusammenhang zwischen Vorstellungsfähigkeit und Musikalität untersucht werden soll. Bisherige Tests der musikalischen Vorstellungskraft beruhen jedoch entweder auf Selbstauskünften, stützen sich auf das melodische Gedächtnis oder decken nicht den Bereich der Fähigkeiten ab. Die Pitch Imagery Arrow Task (PIAT) wurde entwickelt, um diese Unzulänglichkeiten zu beheben.</t>
-  </si>
-  <si>
     <t>Soziale Erwünschtheits-Skala (Lie)</t>
   </si>
   <si>
     <t>Fragebogen zur aktuellen musikalische Aktivititäten</t>
   </si>
   <si>
-    <t>Fragebogen zum häuslischen musikalischen Umfeld </t>
-  </si>
-  <si>
     <t>Fragebogen zu Theateraktivitäten </t>
   </si>
   <si>
@@ -1441,15 +1432,31 @@
   </si>
   <si>
     <t>https://github.com/klausfrieler/HALT</t>
+  </si>
+  <si>
+    <t>Fragebogen zum häuslichen musikalischen Umfeld </t>
+  </si>
+  <si>
+    <t>The Pitch Imagery Arrow Task (PIAT) was designed to measure the ability to silently imagine pitch heights.</t>
+  </si>
+  <si>
+    <t>Der Pitch Imagery Arrow Task (PIAT) wurde entwickelt, um die Vorstellungskraft für Tonhöhen zu messen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1567,33 +1574,34 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1911,9 +1919,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A67" sqref="A67"/>
+      <selection pane="topRight" activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -1939,34 +1947,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C1" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>221</v>
-      </c>
       <c r="D1" s="8" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>31</v>
@@ -1978,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>4</v>
@@ -1992,16 +2000,16 @@
     </row>
     <row r="2" spans="1:18" ht="21">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>8</v>
@@ -2010,7 +2018,7 @@
         <v>144</v>
       </c>
       <c r="G2" s="13" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -2022,17 +2030,17 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="3" t="s">
         <v>73</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P2" s="2" t="s">
         <v>137</v>
@@ -2044,16 +2052,16 @@
     </row>
     <row r="3" spans="1:18" ht="21">
       <c r="A3" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>8</v>
@@ -2062,7 +2070,7 @@
         <v>145</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -2074,17 +2082,17 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>14</v>
@@ -2094,16 +2102,16 @@
     </row>
     <row r="4" spans="1:18" ht="21">
       <c r="A4" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
@@ -2112,7 +2120,7 @@
         <v>146</v>
       </c>
       <c r="G4" s="13" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -2124,17 +2132,17 @@
         <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -2142,7 +2150,7 @@
     </row>
     <row r="5" spans="1:18" ht="21">
       <c r="A5" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>17</v>
@@ -2151,7 +2159,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>8</v>
@@ -2160,7 +2168,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="13" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -2172,17 +2180,17 @@
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P5" s="2" t="s">
         <v>138</v>
@@ -2194,7 +2202,7 @@
     </row>
     <row r="6" spans="1:18" ht="21">
       <c r="A6" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>133</v>
@@ -2203,7 +2211,7 @@
         <v>133</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E6" t="s">
         <v>93</v>
@@ -2212,7 +2220,7 @@
         <v>134</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
@@ -2224,7 +2232,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>19</v>
@@ -2234,7 +2242,7 @@
     </row>
     <row r="7" spans="1:18" ht="21">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>97</v>
@@ -2243,7 +2251,7 @@
         <v>97</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>93</v>
@@ -2252,7 +2260,7 @@
         <v>147</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
@@ -2264,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="3" t="s">
@@ -2278,7 +2286,7 @@
     </row>
     <row r="8" spans="1:18" ht="21">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>94</v>
@@ -2287,7 +2295,7 @@
         <v>94</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E8" t="s">
         <v>93</v>
@@ -2296,7 +2304,7 @@
         <v>148</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -2308,7 +2316,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>19</v>
@@ -2317,7 +2325,7 @@
     </row>
     <row r="9" spans="1:18" ht="21">
       <c r="A9" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>95</v>
@@ -2326,7 +2334,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>93</v>
@@ -2335,7 +2343,7 @@
         <v>149</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -2347,7 +2355,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>19</v>
@@ -2356,7 +2364,7 @@
     </row>
     <row r="10" spans="1:18" ht="21">
       <c r="A10" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>96</v>
@@ -2365,7 +2373,7 @@
         <v>96</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>93</v>
@@ -2374,7 +2382,7 @@
         <v>150</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -2386,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>19</v>
@@ -2395,7 +2403,7 @@
     </row>
     <row r="11" spans="1:18" ht="21">
       <c r="A11" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B11" s="5" t="s">
         <v>98</v>
@@ -2404,7 +2412,7 @@
         <v>98</v>
       </c>
       <c r="D11" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>93</v>
@@ -2413,7 +2421,7 @@
         <v>151</v>
       </c>
       <c r="G11" s="12" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -2425,7 +2433,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>19</v>
@@ -2434,16 +2442,16 @@
     </row>
     <row r="12" spans="1:18" ht="21">
       <c r="A12" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D12" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>8</v>
@@ -2452,7 +2460,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="12" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -2464,7 +2472,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="3" t="s">
@@ -2480,16 +2488,16 @@
     </row>
     <row r="13" spans="1:18" ht="21">
       <c r="A13" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="13" t="s">
-        <v>307</v>
+      <c r="C13" s="16" t="s">
+        <v>343</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>8</v>
@@ -2498,7 +2506,7 @@
         <v>152</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -2510,17 +2518,17 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P13" s="4" t="s">
         <v>137</v>
@@ -2532,16 +2540,16 @@
     </row>
     <row r="14" spans="1:18" ht="21">
       <c r="A14" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
@@ -2550,7 +2558,7 @@
         <v>153</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
@@ -2562,17 +2570,17 @@
         <v>10</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P14" s="2" t="s">
         <v>78</v>
@@ -2586,16 +2594,16 @@
     </row>
     <row r="15" spans="1:18" ht="21">
       <c r="A15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>8</v>
@@ -2604,7 +2612,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
@@ -2616,7 +2624,7 @@
         <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L15" s="5">
         <v>3</v>
@@ -2628,7 +2636,7 @@
         <v>34</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P15" s="2" t="s">
         <v>80</v>
@@ -2638,16 +2646,16 @@
     </row>
     <row r="16" spans="1:18" ht="21">
       <c r="A16" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>8</v>
@@ -2656,7 +2664,7 @@
         <v>154</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
@@ -2668,7 +2676,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="3" t="s">
@@ -2678,7 +2686,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>37</v>
@@ -2688,16 +2696,16 @@
     </row>
     <row r="17" spans="1:18" ht="21">
       <c r="A17" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>38</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>8</v>
@@ -2706,7 +2714,7 @@
         <v>155</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
@@ -2718,17 +2726,17 @@
         <v>10</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>81</v>
@@ -2740,7 +2748,7 @@
     </row>
     <row r="18" spans="1:18" ht="21">
       <c r="A18" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>101</v>
@@ -2749,7 +2757,7 @@
         <v>101</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>93</v>
@@ -2758,7 +2766,7 @@
         <v>156</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
@@ -2770,7 +2778,7 @@
         <v>10</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="3" t="s">
@@ -2784,7 +2792,7 @@
     </row>
     <row r="19" spans="1:18" ht="21">
       <c r="A19" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>102</v>
@@ -2793,7 +2801,7 @@
         <v>102</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>93</v>
@@ -2802,7 +2810,7 @@
         <v>157</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
@@ -2814,7 +2822,7 @@
         <v>10</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="3" t="s">
@@ -2828,7 +2836,7 @@
     </row>
     <row r="20" spans="1:18" ht="21">
       <c r="A20" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>103</v>
@@ -2837,7 +2845,7 @@
         <v>103</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>93</v>
@@ -2846,7 +2854,7 @@
         <v>158</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
@@ -2858,7 +2866,7 @@
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="3" t="s">
@@ -2872,7 +2880,7 @@
     </row>
     <row r="21" spans="1:18" ht="21">
       <c r="A21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>104</v>
@@ -2881,7 +2889,7 @@
         <v>104</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>93</v>
@@ -2890,7 +2898,7 @@
         <v>159</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
@@ -2902,7 +2910,7 @@
         <v>10</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="3" t="s">
@@ -2916,7 +2924,7 @@
     </row>
     <row r="22" spans="1:18" ht="21">
       <c r="A22" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>105</v>
@@ -2925,7 +2933,7 @@
         <v>105</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>93</v>
@@ -2934,7 +2942,7 @@
         <v>160</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
@@ -2946,7 +2954,7 @@
         <v>10</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="3" t="s">
@@ -2960,16 +2968,16 @@
     </row>
     <row r="23" spans="1:18" ht="21">
       <c r="A23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>40</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>8</v>
@@ -2978,7 +2986,7 @@
         <v>106</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
@@ -2990,17 +2998,17 @@
         <v>10</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P23" s="2" t="s">
         <v>82</v>
@@ -3012,7 +3020,7 @@
     </row>
     <row r="24" spans="1:18" ht="21">
       <c r="A24" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>107</v>
@@ -3021,7 +3029,7 @@
         <v>107</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>93</v>
@@ -3030,7 +3038,7 @@
         <v>116</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
@@ -3042,7 +3050,7 @@
         <v>10</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="3" t="s">
@@ -3056,7 +3064,7 @@
     </row>
     <row r="25" spans="1:18" ht="21">
       <c r="A25" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>108</v>
@@ -3065,7 +3073,7 @@
         <v>108</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>93</v>
@@ -3074,7 +3082,7 @@
         <v>161</v>
       </c>
       <c r="G25" s="13" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
@@ -3086,7 +3094,7 @@
         <v>10</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="3" t="s">
@@ -3100,7 +3108,7 @@
     </row>
     <row r="26" spans="1:18" ht="21">
       <c r="A26" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>109</v>
@@ -3109,7 +3117,7 @@
         <v>109</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>93</v>
@@ -3118,7 +3126,7 @@
         <v>162</v>
       </c>
       <c r="G26" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>10</v>
@@ -3130,7 +3138,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="3" t="s">
@@ -3144,7 +3152,7 @@
     </row>
     <row r="27" spans="1:18" ht="21">
       <c r="A27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>110</v>
@@ -3153,7 +3161,7 @@
         <v>110</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>93</v>
@@ -3162,7 +3170,7 @@
         <v>163</v>
       </c>
       <c r="G27" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>10</v>
@@ -3174,7 +3182,7 @@
         <v>10</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>13</v>
@@ -3183,7 +3191,7 @@
     </row>
     <row r="28" spans="1:18" ht="21">
       <c r="A28" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>112</v>
@@ -3192,7 +3200,7 @@
         <v>112</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>93</v>
@@ -3201,7 +3209,7 @@
         <v>164</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
@@ -3213,7 +3221,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>13</v>
@@ -3222,7 +3230,7 @@
     </row>
     <row r="29" spans="1:18" ht="21">
       <c r="A29" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>113</v>
@@ -3231,7 +3239,7 @@
         <v>113</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>93</v>
@@ -3240,7 +3248,7 @@
         <v>165</v>
       </c>
       <c r="G29" s="13" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>10</v>
@@ -3252,7 +3260,7 @@
         <v>10</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>13</v>
@@ -3261,7 +3269,7 @@
     </row>
     <row r="30" spans="1:18" ht="21">
       <c r="A30" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>111</v>
@@ -3270,7 +3278,7 @@
         <v>111</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>93</v>
@@ -3279,7 +3287,7 @@
         <v>166</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -3291,7 +3299,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>13</v>
@@ -3300,7 +3308,7 @@
     </row>
     <row r="31" spans="1:18" ht="21">
       <c r="A31" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>114</v>
@@ -3309,7 +3317,7 @@
         <v>114</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>93</v>
@@ -3318,7 +3326,7 @@
         <v>167</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>10</v>
@@ -3330,7 +3338,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>13</v>
@@ -3339,7 +3347,7 @@
     </row>
     <row r="32" spans="1:18" ht="21">
       <c r="A32" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>115</v>
@@ -3348,7 +3356,7 @@
         <v>115</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>93</v>
@@ -3357,7 +3365,7 @@
         <v>168</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>10</v>
@@ -3369,7 +3377,7 @@
         <v>10</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>13</v>
@@ -3378,16 +3386,16 @@
     </row>
     <row r="33" spans="1:18" ht="21">
       <c r="A33" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>42</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>8</v>
@@ -3396,7 +3404,7 @@
         <v>43</v>
       </c>
       <c r="G33" s="13" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>10</v>
@@ -3408,17 +3416,17 @@
         <v>10</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N33" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="O33" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P33" s="2" t="s">
         <v>83</v>
@@ -3432,16 +3440,16 @@
     </row>
     <row r="34" spans="1:18" ht="21">
       <c r="A34" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>93</v>
@@ -3450,7 +3458,7 @@
         <v>169</v>
       </c>
       <c r="G34" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
@@ -3462,7 +3470,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="3"/>
@@ -3474,16 +3482,16 @@
     </row>
     <row r="35" spans="1:18" ht="21">
       <c r="A35" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D35" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>93</v>
@@ -3492,7 +3500,7 @@
         <v>132</v>
       </c>
       <c r="G35" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>10</v>
@@ -3504,7 +3512,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
@@ -3516,16 +3524,16 @@
     </row>
     <row r="36" spans="1:18" ht="21">
       <c r="A36" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>46</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D36" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
@@ -3534,7 +3542,7 @@
         <v>47</v>
       </c>
       <c r="G36" s="13" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>10</v>
@@ -3546,7 +3554,7 @@
         <v>10</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="3" t="s">
@@ -3556,7 +3564,7 @@
         <v>48</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P36" s="2" t="s">
         <v>85</v>
@@ -3568,7 +3576,7 @@
     </row>
     <row r="37" spans="1:18" ht="21">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>117</v>
@@ -3577,7 +3585,7 @@
         <v>117</v>
       </c>
       <c r="D37" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>93</v>
@@ -3586,7 +3594,7 @@
         <v>170</v>
       </c>
       <c r="G37" s="13" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>10</v>
@@ -3598,7 +3606,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="3" t="s">
@@ -3612,7 +3620,7 @@
     </row>
     <row r="38" spans="1:18" ht="21">
       <c r="A38" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>118</v>
@@ -3621,7 +3629,7 @@
         <v>118</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>93</v>
@@ -3630,7 +3638,7 @@
         <v>171</v>
       </c>
       <c r="G38" s="13" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>10</v>
@@ -3642,7 +3650,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="3" t="s">
@@ -3656,16 +3664,16 @@
     </row>
     <row r="39" spans="1:18" ht="21">
       <c r="A39" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>50</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>8</v>
@@ -3674,7 +3682,7 @@
         <v>172</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>10</v>
@@ -3686,17 +3694,17 @@
         <v>10</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P39" s="2" t="s">
         <v>86</v>
@@ -3706,7 +3714,7 @@
     </row>
     <row r="40" spans="1:18" ht="21">
       <c r="A40" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>125</v>
@@ -3715,7 +3723,7 @@
         <v>125</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>93</v>
@@ -3726,7 +3734,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="3"/>
@@ -3738,7 +3746,7 @@
     </row>
     <row r="41" spans="1:18" ht="21">
       <c r="A41" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B41" s="5" t="s">
         <v>126</v>
@@ -3747,7 +3755,7 @@
         <v>126</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>93</v>
@@ -3758,7 +3766,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="3"/>
@@ -3770,16 +3778,16 @@
     </row>
     <row r="42" spans="1:18" ht="21">
       <c r="A42" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>52</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>8</v>
@@ -3788,7 +3796,7 @@
         <v>119</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>10</v>
@@ -3800,7 +3808,7 @@
         <v>32</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L42" s="5">
         <v>7</v>
@@ -3809,10 +3817,10 @@
         <v>51</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P42" s="2" t="s">
         <v>137</v>
@@ -3826,7 +3834,7 @@
     </row>
     <row r="43" spans="1:18" ht="21">
       <c r="A43" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B43" s="5" t="s">
         <v>127</v>
@@ -3835,7 +3843,7 @@
         <v>127</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>93</v>
@@ -3848,7 +3856,7 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="3"/>
@@ -3860,7 +3868,7 @@
     </row>
     <row r="44" spans="1:18" ht="21">
       <c r="A44" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B44" s="5" t="s">
         <v>128</v>
@@ -3869,7 +3877,7 @@
         <v>128</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>93</v>
@@ -3882,7 +3890,7 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="3"/>
@@ -3894,7 +3902,7 @@
     </row>
     <row r="45" spans="1:18" ht="21">
       <c r="A45" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B45" s="5" t="s">
         <v>129</v>
@@ -3903,7 +3911,7 @@
         <v>129</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>93</v>
@@ -3916,7 +3924,7 @@
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="3"/>
@@ -3928,7 +3936,7 @@
     </row>
     <row r="46" spans="1:18" ht="21">
       <c r="A46" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>130</v>
@@ -3937,7 +3945,7 @@
         <v>130</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>93</v>
@@ -3950,7 +3958,7 @@
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="3"/>
@@ -3962,7 +3970,7 @@
     </row>
     <row r="47" spans="1:18" ht="21">
       <c r="A47" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B47" s="5" t="s">
         <v>131</v>
@@ -3971,7 +3979,7 @@
         <v>131</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>93</v>
@@ -3985,7 +3993,7 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="3"/>
@@ -3997,7 +4005,7 @@
     </row>
     <row r="48" spans="1:18" ht="21">
       <c r="A48" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B48" s="5" t="s">
         <v>135</v>
@@ -4006,7 +4014,7 @@
         <v>135</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>93</v>
@@ -4020,7 +4028,7 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="3"/>
@@ -4032,16 +4040,16 @@
     </row>
     <row r="49" spans="1:18" ht="21">
       <c r="A49" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B49" s="5" t="s">
         <v>53</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>8</v>
@@ -4050,7 +4058,7 @@
         <v>173</v>
       </c>
       <c r="G49" s="13" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>10</v>
@@ -4062,17 +4070,17 @@
         <v>10</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P49" s="2" t="s">
         <v>88</v>
@@ -4084,7 +4092,7 @@
     </row>
     <row r="50" spans="1:18" ht="21">
       <c r="A50" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B50" s="5" t="s">
         <v>120</v>
@@ -4093,7 +4101,7 @@
         <v>120</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>93</v>
@@ -4105,7 +4113,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="3"/>
@@ -4117,7 +4125,7 @@
     </row>
     <row r="51" spans="1:18" ht="21">
       <c r="A51" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B51" s="5" t="s">
         <v>121</v>
@@ -4126,7 +4134,7 @@
         <v>121</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>93</v>
@@ -4138,7 +4146,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="3"/>
@@ -4150,7 +4158,7 @@
     </row>
     <row r="52" spans="1:18" ht="21">
       <c r="A52" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B52" s="5" t="s">
         <v>122</v>
@@ -4159,7 +4167,7 @@
         <v>122</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>93</v>
@@ -4171,7 +4179,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="3"/>
@@ -4183,7 +4191,7 @@
     </row>
     <row r="53" spans="1:18" ht="21">
       <c r="A53" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B53" s="5" t="s">
         <v>123</v>
@@ -4192,7 +4200,7 @@
         <v>123</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>93</v>
@@ -4204,7 +4212,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="3"/>
@@ -4216,7 +4224,7 @@
     </row>
     <row r="54" spans="1:18" ht="21">
       <c r="A54" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B54" s="5" t="s">
         <v>124</v>
@@ -4225,7 +4233,7 @@
         <v>124</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>93</v>
@@ -4237,7 +4245,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="3"/>
@@ -4249,25 +4257,25 @@
     </row>
     <row r="55" spans="1:18" ht="21">
       <c r="A55" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B55" s="5" t="s">
         <v>55</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E55" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F55" t="s">
         <v>174</v>
       </c>
       <c r="G55" s="13" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>32</v>
@@ -4276,50 +4284,50 @@
         <v>25</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="21">
       <c r="A56" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B56" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F56" t="s">
         <v>175</v>
       </c>
       <c r="G56" s="12" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>32</v>
@@ -4328,7 +4336,7 @@
         <v>15</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K56" s="5">
         <v>15</v>
@@ -4338,10 +4346,10 @@
         <v>56</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="P56" s="6" t="s">
         <v>91</v>
@@ -4353,25 +4361,25 @@
     </row>
     <row r="57" spans="1:18" ht="21">
       <c r="A57" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B57" s="5" t="s">
         <v>59</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E57" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F57" t="s">
         <v>176</v>
       </c>
       <c r="G57" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>32</v>
@@ -4380,20 +4388,20 @@
         <v>14</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>89</v>
@@ -4403,25 +4411,25 @@
     </row>
     <row r="58" spans="1:18" ht="21">
       <c r="A58" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B58" s="5" t="s">
         <v>136</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D58" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E58" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F58" t="s">
         <v>177</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>32</v>
@@ -4430,7 +4438,7 @@
         <v>12</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K58" s="5">
         <v>12</v>
@@ -4440,10 +4448,10 @@
         <v>61</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="P58" s="2" t="s">
         <v>139</v>
@@ -4455,25 +4463,25 @@
     </row>
     <row r="59" spans="1:18" ht="21">
       <c r="A59" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B59" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D59" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E59" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F59" t="s">
         <v>178</v>
       </c>
       <c r="G59" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>32</v>
@@ -4490,10 +4498,10 @@
         <v>64</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="P59" s="2" t="s">
         <v>65</v>
@@ -4503,16 +4511,16 @@
     </row>
     <row r="60" spans="1:18" ht="21">
       <c r="A60" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B60" s="5" t="s">
         <v>66</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>8</v>
@@ -4521,7 +4529,7 @@
         <v>67</v>
       </c>
       <c r="G60" s="13" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>10</v>
@@ -4533,7 +4541,7 @@
         <v>10</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="3" t="s">
@@ -4541,7 +4549,7 @@
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P60" s="4" t="s">
         <v>90</v>
@@ -4551,25 +4559,25 @@
     </row>
     <row r="61" spans="1:18" ht="21">
       <c r="A61" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B61" s="13" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F61" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>10</v>
@@ -4581,7 +4589,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="3" t="s">
@@ -4589,7 +4597,7 @@
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="P61" s="4" t="s">
         <v>90</v>
@@ -4599,25 +4607,25 @@
     </row>
     <row r="62" spans="1:18" ht="21">
       <c r="A62" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B62" s="5" t="s">
         <v>68</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E62" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F62" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G62" s="13" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>32</v>
@@ -4626,7 +4634,7 @@
         <v>15</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K62" s="5">
         <v>15</v>
@@ -4636,40 +4644,40 @@
         <v>56</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="P62" s="7" t="s">
         <v>140</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="21">
       <c r="A63" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B63" s="5" t="s">
         <v>70</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E63" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F63" t="s">
         <v>179</v>
       </c>
       <c r="G63" s="12" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>32</v>
@@ -4678,7 +4686,7 @@
         <v>8</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K63" s="5">
         <v>8</v>
@@ -4688,38 +4696,38 @@
         <v>69</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="1:18" ht="21">
       <c r="A64" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B64" s="5" t="s">
         <v>71</v>
       </c>
       <c r="C64" s="13" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D64" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E64" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F64" t="s">
         <v>72</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>10</v>
@@ -4731,7 +4739,7 @@
         <v>10</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="3" t="s">
@@ -4751,25 +4759,25 @@
     </row>
     <row r="65" spans="1:18" ht="21">
       <c r="A65" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B65" s="5" t="s">
         <v>75</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E65" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F65" t="s">
-        <v>180</v>
-      </c>
-      <c r="G65" s="13" t="s">
-        <v>304</v>
+        <v>344</v>
+      </c>
+      <c r="G65" s="16" t="s">
+        <v>345</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>32</v>
@@ -4778,7 +4786,7 @@
         <v>15</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K65" s="5">
         <v>15</v>
@@ -4788,10 +4796,10 @@
         <v>23</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="P65" s="7" t="s">
         <v>143</v>
@@ -4803,25 +4811,25 @@
     </row>
     <row r="66" spans="1:18" ht="21">
       <c r="A66" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B66" s="5" t="s">
         <v>77</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D66" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E66" s="12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F66" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G66" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>32</v>
@@ -4833,15 +4841,15 @@
         <v>10</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -4849,40 +4857,40 @@
     </row>
     <row r="67" spans="1:18" ht="21">
       <c r="A67" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>336</v>
+      </c>
+      <c r="D67" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="14" t="s">
         <v>337</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="F67" t="s">
+        <v>339</v>
+      </c>
+      <c r="G67" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="C67" s="14" t="s">
-        <v>339</v>
-      </c>
-      <c r="D67" s="14" t="s">
-        <v>219</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="J67" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K67" t="s">
+        <v>182</v>
+      </c>
+      <c r="M67" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F67" t="s">
+      <c r="N67" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="O67" s="9" t="s">
         <v>342</v>
-      </c>
-      <c r="G67" s="15" t="s">
-        <v>341</v>
-      </c>
-      <c r="J67" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K67" t="s">
-        <v>183</v>
-      </c>
-      <c r="M67" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="N67" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="68" spans="1:18">
@@ -5006,7 +5014,7 @@
       <c r="G140" s="12"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>

--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F4491B-28D6-4203-9EFF-6460D16FEFEB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799A7C7-EF99-4D6A-8025-E26ED6D0D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="438">
   <si>
     <t>name</t>
   </si>
@@ -1442,14 +1442,297 @@
   <si>
     <t>Der Pitch Imagery Arrow Task (PIAT) wurde entwickelt, um die Vorstellungskraft für Tonhöhen zu messen.</t>
   </si>
+  <si>
+    <t>SMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seashore Measures of Musical Talents </t>
+  </si>
+  <si>
+    <t>Seashore-Test für musikalische Begabung</t>
+  </si>
+  <si>
+    <t>historic</t>
+  </si>
+  <si>
+    <t>This is an implementation of the classical Seashore test in ist 1966 revised version.</t>
+  </si>
+  <si>
+    <t>Dies ist eine Re-implementations des kalssischen Seashore-Test in der revidierten Fassung von 1966</t>
+  </si>
+  <si>
+    <t>HPT</t>
+  </si>
+  <si>
+    <t>Harmonic Progressions Test</t>
+  </si>
+  <si>
+    <t>Deriklangsfolgen-Test</t>
+  </si>
+  <si>
+    <t>This test measure the ability to identify odd-one out chords in  sequences of four triads.</t>
+  </si>
+  <si>
+    <t>Dieser Test miss die Fähigkeit Unterschiede in Dreiklangsfolgen zu erkennen.</t>
+  </si>
+  <si>
+    <t>SRS</t>
+  </si>
+  <si>
+    <t>Salzburger Lese-Screening</t>
+  </si>
+  <si>
+    <t>Salzburg Reading Screening</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>This test measure the ability to read and process German sentences</t>
+  </si>
+  <si>
+    <t>Dieser Test misst die Lesefähigkeit im Deutschen.</t>
+  </si>
+  <si>
+    <t>SLS</t>
+  </si>
+  <si>
+    <t>Speech Rhythm Sensitivy Test</t>
+  </si>
+  <si>
+    <t>Test zur Rhythmuswahrnehmung in Sprache</t>
+  </si>
+  <si>
+    <t>This test measures the ability to process meter in German language</t>
+  </si>
+  <si>
+    <t>Dieser Test misst die Sensitivität für Rhythmen in der deutschen Sprache</t>
+  </si>
+  <si>
+    <t>ARA</t>
+  </si>
+  <si>
+    <t>Aesthetic Responsiveness Assessment</t>
+  </si>
+  <si>
+    <t>Ästhetische Wertschätzung</t>
+  </si>
+  <si>
+    <t>Dieser Frage erhebt die Wertschätzung für ästhetische Erfahrungen (über alle Domänen).</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>Artist Recognition Test</t>
+  </si>
+  <si>
+    <t>Literatenquiz</t>
+  </si>
+  <si>
+    <t>This questionnaire assesses your knowledge of German literates</t>
+  </si>
+  <si>
+    <t>This questionnaire assesses the responsiveness for aesthetic experiences (cross-domain).</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen erhebt die Kenntnisse deutscher Literaten.</t>
+  </si>
+  <si>
+    <t>JIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragebogen zur Kompetenz in Jazzimprovisation </t>
+  </si>
+  <si>
+    <t>Assessment of skills and competences in jazz improvisation</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen misst die Kompetent in der Jazzimproviation</t>
+  </si>
+  <si>
+    <t>JIW</t>
+  </si>
+  <si>
+    <t>FSS</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>GDS</t>
+  </si>
+  <si>
+    <t>Goldsmiths Dance Sophistication Index</t>
+  </si>
+  <si>
+    <t>Flow State Scale</t>
+  </si>
+  <si>
+    <t>Flow Short Scale</t>
+  </si>
+  <si>
+    <t>Fragebogen zum Flowzustand</t>
+  </si>
+  <si>
+    <t>Kurzfragebogen zum Flow</t>
+  </si>
+  <si>
+    <t>Jazz Improvisation Self-Assessment</t>
+  </si>
+  <si>
+    <t>Selbsteinschätzung der Jazz-Improviationsfähigkeiten</t>
+  </si>
+  <si>
+    <t>Jazz Improvisation Self-Efficacy</t>
+  </si>
+  <si>
+    <t>This questionnaires is an implementation of Rheinberg et al.'s Flow Short Scale</t>
+  </si>
+  <si>
+    <t>This questionnaires measures flow states.</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen misst Flowerleben.</t>
+  </si>
+  <si>
+    <t>Are you a John Travolta?</t>
+  </si>
+  <si>
+    <t>Sind Sie ein Travolta?</t>
+  </si>
+  <si>
+    <t>BFI</t>
+  </si>
+  <si>
+    <t>15-item Personality Inventary</t>
+  </si>
+  <si>
+    <t>15-Item Persönlichkeits-Inventar</t>
+  </si>
+  <si>
+    <t>Dies ist eine Kurzversion des BFIs</t>
+  </si>
+  <si>
+    <t>This is a short version of the BFI</t>
+  </si>
+  <si>
+    <t>BFA</t>
+  </si>
+  <si>
+    <t>Aspects of Openness Inventary</t>
+  </si>
+  <si>
+    <t>Aspekte der Offenheite</t>
+  </si>
+  <si>
+    <t>This short questionnaires measure aspects of openness</t>
+  </si>
+  <si>
+    <t>This short questionnaires measures aspects of openness</t>
+  </si>
+  <si>
+    <t>EWE</t>
+  </si>
+  <si>
+    <t>Earworm Experience Scale</t>
+  </si>
+  <si>
+    <t>Fragebogen zum Ohrwurmerleben</t>
+  </si>
+  <si>
+    <t>This questionnaires asks for aspects of the latest earworm and some general aspects (after Halpern et al.)</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen erhebt Aspekte des letzten Ohrwurmerlebens und einige allg. Fragen zu Ohrwürmers (nach Halpern et al).</t>
+  </si>
+  <si>
+    <t>IMI</t>
+  </si>
+  <si>
+    <t>Involuntary Musical Imagery Scale (IMIS)</t>
+  </si>
+  <si>
+    <t>This questionnaires is all about earworms, this nasty little beasts.</t>
+  </si>
+  <si>
+    <t>(Fast) alles was man zu Ohrwürmer so fragen kann.</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/seashore</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=HPT</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=IMI</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=EWE</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=BFA</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=BFI</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=GDS</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=FSR</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=FSS</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=JIW</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=JIC</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=ART</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=ARA</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=SRS</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=SLS</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/SMT</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/HPT</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/mpipoet</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/psyquest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ist eine implementation der Flow Short Scale von Rheinberg et al. </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1550,9 +1833,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="18"/>
       <color theme="1"/>
-      <name val="Arial Unicode MS"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1574,34 +1859,59 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -1917,20 +2227,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="134" zoomScaleNormal="134" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G66" sqref="G66"/>
+      <selection pane="topRight" activeCell="F77" sqref="F77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.625" customWidth="1"/>
-    <col min="2" max="3" width="31.5" customWidth="1"/>
-    <col min="4" max="5" width="13.875" customWidth="1"/>
-    <col min="6" max="6" width="34.625" customWidth="1"/>
-    <col min="7" max="7" width="23" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="15" customWidth="1"/>
+    <col min="2" max="3" width="31.5" style="15" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="15" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="23" style="15" customWidth="1"/>
     <col min="8" max="8" width="13.5" customWidth="1"/>
     <col min="9" max="10" width="20.5" customWidth="1"/>
     <col min="11" max="11" width="14.625" customWidth="1"/>
@@ -1942,26 +2252,26 @@
     <col min="17" max="18" width="18.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="1" customFormat="1" ht="21">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:18" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="16" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="16" t="s">
         <v>217</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="16" t="s">
         <v>221</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="16" t="s">
         <v>328</v>
       </c>
       <c r="H1" s="8" t="s">
@@ -1998,26 +2308,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="18" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="D2" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="18" t="s">
         <v>222</v>
       </c>
       <c r="H2" s="2" t="s">
@@ -2050,26 +2360,26 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:18" ht="21">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>305</v>
       </c>
-      <c r="D3" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="19" t="s">
         <v>223</v>
       </c>
       <c r="H3" s="2" t="s">
@@ -2100,26 +2410,26 @@
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" ht="21">
-      <c r="A4" s="1" t="s">
+    <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="18" t="s">
         <v>306</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="18" t="s">
         <v>224</v>
       </c>
       <c r="H4" s="2" t="s">
@@ -2148,26 +2458,26 @@
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
     </row>
-    <row r="5" spans="1:18" ht="21">
-      <c r="A5" s="1" t="s">
+    <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="18" t="s">
         <v>225</v>
       </c>
       <c r="H5" s="2" t="s">
@@ -2200,26 +2510,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:18" ht="21">
-      <c r="A6" s="1" t="s">
+    <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A6" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>133</v>
       </c>
-      <c r="D6" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="D6" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>290</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2240,26 +2550,26 @@
       <c r="O6" s="1"/>
       <c r="Q6" s="5"/>
     </row>
-    <row r="7" spans="1:18" ht="21">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A7" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="D7" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F7" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="18" t="s">
         <v>291</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2284,26 +2594,26 @@
       <c r="Q7" s="5"/>
       <c r="R7" s="2"/>
     </row>
-    <row r="8" spans="1:18" ht="21">
-      <c r="A8" s="1" t="s">
+    <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A8" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="G8" s="13" t="s">
+      <c r="G8" s="18" t="s">
         <v>226</v>
       </c>
       <c r="H8" s="2" t="s">
@@ -2323,26 +2633,26 @@
       </c>
       <c r="O8" s="1"/>
     </row>
-    <row r="9" spans="1:18" ht="21">
-      <c r="A9" s="1" t="s">
+    <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A9" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="D9" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="D9" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="18" t="s">
         <v>227</v>
       </c>
       <c r="H9" s="2" t="s">
@@ -2362,26 +2672,26 @@
       </c>
       <c r="O9" s="1"/>
     </row>
-    <row r="10" spans="1:18" ht="21">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A10" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="D10" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="18" t="s">
         <v>228</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -2401,26 +2711,26 @@
       </c>
       <c r="O10" s="1"/>
     </row>
-    <row r="11" spans="1:18" ht="21">
-      <c r="A11" s="1" t="s">
+    <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="D11" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="19" t="s">
         <v>229</v>
       </c>
       <c r="H11" s="2" t="s">
@@ -2440,26 +2750,26 @@
       </c>
       <c r="O11" s="1"/>
     </row>
-    <row r="12" spans="1:18" ht="21">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A12" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="13" t="s">
+      <c r="C12" s="18" t="s">
         <v>303</v>
       </c>
-      <c r="D12" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="19" t="s">
         <v>230</v>
       </c>
       <c r="H12" s="2" t="s">
@@ -2486,26 +2796,26 @@
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
     </row>
-    <row r="13" spans="1:18" ht="21">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="20" t="s">
         <v>343</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="15" t="s">
         <v>152</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="19" t="s">
         <v>231</v>
       </c>
       <c r="H13" s="2" t="s">
@@ -2538,26 +2848,26 @@
         <v>99</v>
       </c>
     </row>
-    <row r="14" spans="1:18" ht="21">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="18" t="s">
         <v>307</v>
       </c>
-      <c r="D14" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="D14" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="18" t="s">
         <v>232</v>
       </c>
       <c r="H14" s="2" t="s">
@@ -2592,26 +2902,26 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:18" ht="21">
-      <c r="A15" s="1" t="s">
+    <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="18" t="s">
         <v>308</v>
       </c>
-      <c r="D15" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="D15" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="19" t="s">
         <v>233</v>
       </c>
       <c r="H15" s="2" t="s">
@@ -2644,26 +2954,26 @@
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
-    <row r="16" spans="1:18" ht="21">
-      <c r="A16" s="1" t="s">
+    <row r="16" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="18" t="s">
         <v>309</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="D16" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F16" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="19" t="s">
         <v>234</v>
       </c>
       <c r="H16" s="2" t="s">
@@ -2694,26 +3004,26 @@
       <c r="Q16" s="5"/>
       <c r="R16" s="5"/>
     </row>
-    <row r="17" spans="1:18" ht="21">
-      <c r="A17" s="1" t="s">
+    <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F17" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="G17" s="13" t="s">
+      <c r="G17" s="18" t="s">
         <v>235</v>
       </c>
       <c r="H17" s="2" t="s">
@@ -2746,26 +3056,26 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="21">
-      <c r="A18" s="1" t="s">
+    <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A18" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="D18" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E18" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F18" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H18" s="2" t="s">
@@ -2790,26 +3100,26 @@
       <c r="Q18" s="5"/>
       <c r="R18" s="11"/>
     </row>
-    <row r="19" spans="1:18" ht="21">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="D19" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E19" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F19" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H19" s="2" t="s">
@@ -2834,26 +3144,26 @@
       <c r="Q19" s="5"/>
       <c r="R19" s="11"/>
     </row>
-    <row r="20" spans="1:18" ht="21">
-      <c r="A20" s="1" t="s">
+    <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A20" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E20" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="15" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -2878,26 +3188,26 @@
       <c r="Q20" s="5"/>
       <c r="R20" s="11"/>
     </row>
-    <row r="21" spans="1:18" ht="21">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A21" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="D21" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E21" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F21" s="15" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H21" s="2" t="s">
@@ -2922,26 +3232,26 @@
       <c r="Q21" s="5"/>
       <c r="R21" s="11"/>
     </row>
-    <row r="22" spans="1:18" ht="21">
-      <c r="A22" s="1" t="s">
+    <row r="22" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A22" s="17" t="s">
         <v>196</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="D22" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E22" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F22" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="19" t="s">
         <v>255</v>
       </c>
       <c r="H22" s="2" t="s">
@@ -2966,26 +3276,26 @@
       <c r="Q22" s="5"/>
       <c r="R22" s="11"/>
     </row>
-    <row r="23" spans="1:18" ht="21">
-      <c r="A23" s="1" t="s">
+    <row r="23" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="18" t="s">
         <v>311</v>
       </c>
-      <c r="D23" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="D23" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" s="18" t="s">
         <v>292</v>
       </c>
       <c r="H23" s="2" t="s">
@@ -3018,26 +3328,26 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:18" ht="21">
-      <c r="A24" s="1" t="s">
+    <row r="24" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="D24" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="D24" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="19" t="s">
         <v>236</v>
       </c>
       <c r="H24" s="2" t="s">
@@ -3062,26 +3372,26 @@
       <c r="Q24" s="5"/>
       <c r="R24" s="11"/>
     </row>
-    <row r="25" spans="1:18" ht="21">
-      <c r="A25" s="1" t="s">
+    <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="D25" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D25" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E25" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F25" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="G25" s="13" t="s">
+      <c r="G25" s="18" t="s">
         <v>293</v>
       </c>
       <c r="H25" s="2" t="s">
@@ -3106,26 +3416,26 @@
       <c r="Q25" s="5"/>
       <c r="R25" s="11"/>
     </row>
-    <row r="26" spans="1:18" ht="21">
-      <c r="A26" s="1" t="s">
+    <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A26" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="D26" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="D26" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F26" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="G26" s="13" t="s">
+      <c r="G26" s="18" t="s">
         <v>237</v>
       </c>
       <c r="H26" s="2" t="s">
@@ -3150,26 +3460,26 @@
       <c r="Q26" s="5"/>
       <c r="R26" s="11"/>
     </row>
-    <row r="27" spans="1:18" ht="21">
-      <c r="A27" s="1" t="s">
+    <row r="27" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A27" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="D27" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="D27" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F27" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="G27" s="13" t="s">
+      <c r="G27" s="18" t="s">
         <v>294</v>
       </c>
       <c r="H27" s="2" t="s">
@@ -3189,26 +3499,26 @@
       </c>
       <c r="O27" s="1"/>
     </row>
-    <row r="28" spans="1:18" ht="21">
-      <c r="A28" s="1" t="s">
+    <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A28" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="D28" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E28" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="G28" s="13" t="s">
+      <c r="G28" s="18" t="s">
         <v>295</v>
       </c>
       <c r="H28" s="2" t="s">
@@ -3228,26 +3538,26 @@
       </c>
       <c r="O28" s="1"/>
     </row>
-    <row r="29" spans="1:18" ht="21">
-      <c r="A29" s="1" t="s">
+    <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="D29" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E29" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="G29" s="13" t="s">
+      <c r="G29" s="18" t="s">
         <v>296</v>
       </c>
       <c r="H29" s="2" t="s">
@@ -3267,26 +3577,26 @@
       </c>
       <c r="O29" s="1"/>
     </row>
-    <row r="30" spans="1:18" ht="21">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A30" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="D30" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E30" s="5" t="s">
+      <c r="D30" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E30" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F30" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G30" s="18" t="s">
         <v>238</v>
       </c>
       <c r="H30" s="2" t="s">
@@ -3306,26 +3616,26 @@
       </c>
       <c r="O30" s="1"/>
     </row>
-    <row r="31" spans="1:18" ht="21">
-      <c r="A31" s="1" t="s">
+    <row r="31" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A31" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E31" s="5" t="s">
+      <c r="D31" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E31" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F31" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="G31" s="13" t="s">
+      <c r="G31" s="18" t="s">
         <v>297</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -3345,26 +3655,26 @@
       </c>
       <c r="O31" s="1"/>
     </row>
-    <row r="32" spans="1:18" ht="21">
-      <c r="A32" s="1" t="s">
+    <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A32" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="D32" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E32" s="5" t="s">
+      <c r="D32" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E32" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F32" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G32" s="13" t="s">
+      <c r="G32" s="18" t="s">
         <v>298</v>
       </c>
       <c r="H32" s="2" t="s">
@@ -3384,26 +3694,26 @@
       </c>
       <c r="O32" s="1"/>
     </row>
-    <row r="33" spans="1:18" ht="21">
-      <c r="A33" s="1" t="s">
+    <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="4" t="s">
         <v>312</v>
       </c>
-      <c r="D33" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E33" s="5" t="s">
+      <c r="D33" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F33" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="G33" s="13" t="s">
+      <c r="G33" s="18" t="s">
         <v>239</v>
       </c>
       <c r="H33" s="2" t="s">
@@ -3438,26 +3748,26 @@
         <v>45</v>
       </c>
     </row>
-    <row r="34" spans="1:18" ht="21">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="B34" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="C34" s="12" t="s">
+      <c r="C34" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="D34" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E34" s="5" t="s">
+      <c r="D34" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E34" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F34" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="19" t="s">
         <v>240</v>
       </c>
       <c r="H34" s="2" t="s">
@@ -3480,26 +3790,26 @@
       <c r="Q34" s="2"/>
       <c r="R34" s="11"/>
     </row>
-    <row r="35" spans="1:18" ht="21">
-      <c r="A35" s="1" t="s">
+    <row r="35" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A35" s="17" t="s">
         <v>198</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="D35" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E35" s="5" t="s">
+      <c r="D35" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E35" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F35" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G35" s="15" t="s">
         <v>241</v>
       </c>
       <c r="H35" s="2" t="s">
@@ -3522,26 +3832,26 @@
       <c r="Q35" s="2"/>
       <c r="R35" s="11"/>
     </row>
-    <row r="36" spans="1:18" ht="21">
-      <c r="A36" s="1" t="s">
+    <row r="36" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C36" s="18" t="s">
         <v>313</v>
       </c>
-      <c r="D36" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E36" s="5" t="s">
+      <c r="D36" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G36" s="13" t="s">
+      <c r="G36" s="18" t="s">
         <v>299</v>
       </c>
       <c r="H36" s="2" t="s">
@@ -3574,26 +3884,26 @@
         <v>49</v>
       </c>
     </row>
-    <row r="37" spans="1:18" ht="21">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A37" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="D37" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E37" s="5" t="s">
+      <c r="D37" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E37" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F37" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="13" t="s">
+      <c r="G37" s="18" t="s">
         <v>242</v>
       </c>
       <c r="H37" s="2" t="s">
@@ -3618,26 +3928,26 @@
       <c r="Q37" s="5"/>
       <c r="R37" s="9"/>
     </row>
-    <row r="38" spans="1:18" ht="21">
-      <c r="A38" s="1" t="s">
+    <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A38" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="D38" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E38" s="5" t="s">
+      <c r="D38" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E38" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="G38" s="13" t="s">
+      <c r="G38" s="18" t="s">
         <v>243</v>
       </c>
       <c r="H38" s="2" t="s">
@@ -3662,26 +3972,26 @@
       <c r="Q38" s="5"/>
       <c r="R38" s="9"/>
     </row>
-    <row r="39" spans="1:18" ht="21">
-      <c r="A39" s="1" t="s">
+    <row r="39" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>314</v>
       </c>
-      <c r="D39" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E39" s="5" t="s">
+      <c r="D39" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="G39" s="13" t="s">
+      <c r="G39" s="18" t="s">
         <v>244</v>
       </c>
       <c r="H39" s="2" t="s">
@@ -3712,20 +4022,20 @@
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
-    <row r="40" spans="1:18" ht="21">
-      <c r="A40" s="1" t="s">
+    <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A40" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="D40" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E40" s="5" t="s">
+      <c r="D40" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H40" s="2" t="s">
@@ -3744,20 +4054,20 @@
       <c r="Q40" s="5"/>
       <c r="R40" s="5"/>
     </row>
-    <row r="41" spans="1:18" ht="21">
-      <c r="A41" s="1" t="s">
+    <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A41" s="17" t="s">
         <v>200</v>
       </c>
-      <c r="B41" s="5" t="s">
+      <c r="B41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>126</v>
       </c>
-      <c r="D41" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E41" s="5" t="s">
+      <c r="D41" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E41" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H41" s="2" t="s">
@@ -3776,26 +4086,26 @@
       <c r="Q41" s="5"/>
       <c r="R41" s="5"/>
     </row>
-    <row r="42" spans="1:18" ht="21">
-      <c r="A42" s="1" t="s">
+    <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>315</v>
       </c>
-      <c r="D42" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E42" s="5" t="s">
+      <c r="D42" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="G42" s="13" t="s">
+      <c r="G42" s="18" t="s">
         <v>300</v>
       </c>
       <c r="H42" s="2" t="s">
@@ -3832,20 +4142,20 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:18" ht="21">
-      <c r="A43" s="1" t="s">
+    <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A43" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>127</v>
       </c>
-      <c r="D43" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="D43" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E43" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H43" s="2" t="s">
@@ -3866,20 +4176,20 @@
       <c r="Q43" s="2"/>
       <c r="R43" s="11"/>
     </row>
-    <row r="44" spans="1:18" ht="21">
-      <c r="A44" s="1" t="s">
+    <row r="44" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A44" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B44" s="5" t="s">
+      <c r="B44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="C44" s="5" t="s">
+      <c r="C44" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="D44" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="D44" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E44" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H44" s="2" t="s">
@@ -3900,20 +4210,20 @@
       <c r="Q44" s="2"/>
       <c r="R44" s="11"/>
     </row>
-    <row r="45" spans="1:18" ht="21">
-      <c r="A45" s="1" t="s">
+    <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A45" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="B45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="C45" s="5" t="s">
+      <c r="C45" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="D45" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E45" s="5" t="s">
+      <c r="D45" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E45" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H45" s="2" t="s">
@@ -3934,20 +4244,20 @@
       <c r="Q45" s="2"/>
       <c r="R45" s="11"/>
     </row>
-    <row r="46" spans="1:18" ht="21">
-      <c r="A46" s="1" t="s">
+    <row r="46" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A46" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="4" t="s">
         <v>130</v>
       </c>
-      <c r="D46" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E46" s="5" t="s">
+      <c r="D46" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E46" s="4" t="s">
         <v>93</v>
       </c>
       <c r="H46" s="2" t="s">
@@ -3968,23 +4278,23 @@
       <c r="Q46" s="2"/>
       <c r="R46" s="11"/>
     </row>
-    <row r="47" spans="1:18" ht="21">
-      <c r="A47" s="1" t="s">
+    <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A47" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B47" s="5" t="s">
+      <c r="B47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="D47" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="D47" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G47" s="12"/>
+      <c r="G47" s="19"/>
       <c r="H47" s="2" t="s">
         <v>10</v>
       </c>
@@ -4003,23 +4313,23 @@
       <c r="Q47" s="2"/>
       <c r="R47" s="11"/>
     </row>
-    <row r="48" spans="1:18" ht="21">
-      <c r="A48" s="1" t="s">
+    <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A48" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="B48" s="5" t="s">
+      <c r="B48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="D48" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="D48" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E48" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G48" s="12"/>
+      <c r="G48" s="19"/>
       <c r="H48" s="2" t="s">
         <v>10</v>
       </c>
@@ -4038,26 +4348,26 @@
       <c r="Q48" s="2"/>
       <c r="R48" s="11"/>
     </row>
-    <row r="49" spans="1:18" ht="21">
-      <c r="A49" s="1" t="s">
+    <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="5" t="s">
+      <c r="B49" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="D49" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="D49" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F49" s="15" t="s">
         <v>173</v>
       </c>
-      <c r="G49" s="13" t="s">
+      <c r="G49" s="18" t="s">
         <v>245</v>
       </c>
       <c r="H49" s="2" t="s">
@@ -4090,23 +4400,23 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:18" ht="21">
-      <c r="A50" s="1" t="s">
+    <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A50" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D50" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="D50" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E50" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G50" s="12"/>
+      <c r="G50" s="19"/>
       <c r="H50" s="2" t="s">
         <v>10</v>
       </c>
@@ -4123,23 +4433,23 @@
       <c r="Q50" s="5"/>
       <c r="R50" s="11"/>
     </row>
-    <row r="51" spans="1:18" ht="21">
-      <c r="A51" s="1" t="s">
+    <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A51" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B51" s="5" t="s">
+      <c r="B51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D51" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="D51" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E51" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G51" s="12"/>
+      <c r="G51" s="19"/>
       <c r="H51" s="2" t="s">
         <v>10</v>
       </c>
@@ -4156,23 +4466,23 @@
       <c r="Q51" s="5"/>
       <c r="R51" s="11"/>
     </row>
-    <row r="52" spans="1:18" ht="21">
-      <c r="A52" s="1" t="s">
+    <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A52" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B52" s="5" t="s">
+      <c r="B52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="D52" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E52" s="5" t="s">
+      <c r="D52" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E52" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G52" s="12"/>
+      <c r="G52" s="19"/>
       <c r="H52" s="2" t="s">
         <v>10</v>
       </c>
@@ -4189,23 +4499,23 @@
       <c r="Q52" s="5"/>
       <c r="R52" s="11"/>
     </row>
-    <row r="53" spans="1:18" ht="21">
-      <c r="A53" s="1" t="s">
+    <row r="53" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A53" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="D53" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E53" s="5" t="s">
+      <c r="D53" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E53" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G53" s="12"/>
+      <c r="G53" s="19"/>
       <c r="H53" s="2" t="s">
         <v>10</v>
       </c>
@@ -4222,23 +4532,23 @@
       <c r="Q53" s="5"/>
       <c r="R53" s="11"/>
     </row>
-    <row r="54" spans="1:18" ht="21">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A54" s="17" t="s">
         <v>202</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D54" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E54" s="5" t="s">
+      <c r="D54" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E54" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="G54" s="12"/>
+      <c r="G54" s="19"/>
       <c r="H54" s="2" t="s">
         <v>10</v>
       </c>
@@ -4255,26 +4565,26 @@
       <c r="Q54" s="5"/>
       <c r="R54" s="11"/>
     </row>
-    <row r="55" spans="1:18" ht="21">
-      <c r="A55" s="1" t="s">
+    <row r="55" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="D55" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E55" s="12" t="s">
+      <c r="D55" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E55" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F55" s="15" t="s">
         <v>174</v>
       </c>
-      <c r="G55" s="13" t="s">
+      <c r="G55" s="18" t="s">
         <v>246</v>
       </c>
       <c r="H55" s="5" t="s">
@@ -4307,26 +4617,26 @@
         <v>186</v>
       </c>
     </row>
-    <row r="56" spans="1:18" ht="21">
-      <c r="A56" s="1" t="s">
+    <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
         <v>204</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D56" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E56" s="12" t="s">
+      <c r="D56" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E56" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F56" s="15" t="s">
         <v>175</v>
       </c>
-      <c r="G56" s="12" t="s">
+      <c r="G56" s="19" t="s">
         <v>247</v>
       </c>
       <c r="H56" s="5" t="s">
@@ -4359,26 +4669,26 @@
         <v>58</v>
       </c>
     </row>
-    <row r="57" spans="1:18" ht="21">
-      <c r="A57" s="1" t="s">
+    <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="17" t="s">
         <v>205</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="D57" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E57" s="12" t="s">
+      <c r="D57" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E57" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="15" t="s">
         <v>176</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="15" t="s">
         <v>301</v>
       </c>
       <c r="H57" s="5" t="s">
@@ -4409,26 +4719,26 @@
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
-    <row r="58" spans="1:18" ht="21">
-      <c r="A58" s="1" t="s">
+    <row r="58" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="D58" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E58" s="12" t="s">
+      <c r="D58" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E58" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="G58" s="13" t="s">
+      <c r="G58" s="18" t="s">
         <v>248</v>
       </c>
       <c r="H58" s="5" t="s">
@@ -4461,26 +4771,26 @@
         <v>62</v>
       </c>
     </row>
-    <row r="59" spans="1:18" ht="21">
-      <c r="A59" s="1" t="s">
+    <row r="59" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
         <v>207</v>
       </c>
-      <c r="B59" s="5" t="s">
+      <c r="B59" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="C59" s="13" t="s">
+      <c r="C59" s="18" t="s">
         <v>321</v>
       </c>
-      <c r="D59" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E59" s="12" t="s">
+      <c r="D59" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E59" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="15" t="s">
         <v>178</v>
       </c>
-      <c r="G59" s="13" t="s">
+      <c r="G59" s="18" t="s">
         <v>302</v>
       </c>
       <c r="H59" s="5" t="s">
@@ -4509,26 +4819,26 @@
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
-    <row r="60" spans="1:18" ht="21">
-      <c r="A60" s="1" t="s">
+    <row r="60" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="17" t="s">
         <v>208</v>
       </c>
-      <c r="B60" s="5" t="s">
+      <c r="B60" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="13" t="s">
+      <c r="C60" s="18" t="s">
         <v>331</v>
       </c>
-      <c r="D60" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E60" s="5" t="s">
+      <c r="D60" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G60" s="13" t="s">
+      <c r="G60" s="18" t="s">
         <v>249</v>
       </c>
       <c r="H60" s="5" t="s">
@@ -4557,26 +4867,26 @@
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
-    <row r="61" spans="1:18" ht="21">
-      <c r="A61" s="1" t="s">
+    <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="17" t="s">
         <v>329</v>
       </c>
-      <c r="B61" s="13" t="s">
+      <c r="B61" s="18" t="s">
         <v>330</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="4" t="s">
         <v>322</v>
       </c>
-      <c r="D61" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E61" s="5" t="s">
+      <c r="D61" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F61" s="15" t="s">
         <v>332</v>
       </c>
-      <c r="G61" s="13" t="s">
+      <c r="G61" s="18" t="s">
         <v>333</v>
       </c>
       <c r="H61" s="5" t="s">
@@ -4605,26 +4915,26 @@
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
-    <row r="62" spans="1:18" ht="21">
-      <c r="A62" s="1" t="s">
+    <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
         <v>209</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="D62" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E62" s="12" t="s">
+      <c r="D62" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E62" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F62" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="G62" s="13" t="s">
+      <c r="G62" s="18" t="s">
         <v>250</v>
       </c>
       <c r="H62" s="5" t="s">
@@ -4657,26 +4967,26 @@
         <v>183</v>
       </c>
     </row>
-    <row r="63" spans="1:18" ht="21">
-      <c r="A63" s="1" t="s">
+    <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="17" t="s">
         <v>210</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="D63" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E63" s="12" t="s">
+      <c r="D63" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E63" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F63" s="15" t="s">
         <v>179</v>
       </c>
-      <c r="G63" s="12" t="s">
+      <c r="G63" s="19" t="s">
         <v>251</v>
       </c>
       <c r="H63" s="5" t="s">
@@ -4707,26 +5017,26 @@
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
-    <row r="64" spans="1:18" ht="21">
-      <c r="A64" s="1" t="s">
+    <row r="64" spans="1:18" ht="21" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
         <v>211</v>
       </c>
-      <c r="B64" s="5" t="s">
+      <c r="B64" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="C64" s="13" t="s">
+      <c r="C64" s="18" t="s">
         <v>325</v>
       </c>
-      <c r="D64" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E64" s="12" t="s">
+      <c r="D64" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E64" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F64" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="19" t="s">
         <v>252</v>
       </c>
       <c r="H64" s="5" t="s">
@@ -4757,26 +5067,26 @@
         <v>92</v>
       </c>
     </row>
-    <row r="65" spans="1:18" ht="21">
-      <c r="A65" s="1" t="s">
+    <row r="65" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
         <v>212</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="4" t="s">
         <v>326</v>
       </c>
-      <c r="D65" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E65" s="12" t="s">
+      <c r="D65" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E65" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F65" s="15" t="s">
         <v>344</v>
       </c>
-      <c r="G65" s="16" t="s">
+      <c r="G65" s="20" t="s">
         <v>345</v>
       </c>
       <c r="H65" s="5" t="s">
@@ -4809,26 +5119,26 @@
         <v>76</v>
       </c>
     </row>
-    <row r="66" spans="1:18" ht="21">
-      <c r="A66" s="1" t="s">
+    <row r="66" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="B66" s="5" t="s">
+      <c r="B66" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="D66" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="E66" s="12" t="s">
+      <c r="D66" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E66" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F66" s="15" t="s">
         <v>180</v>
       </c>
-      <c r="G66" s="12" t="s">
+      <c r="G66" s="19" t="s">
         <v>253</v>
       </c>
       <c r="H66" s="5" t="s">
@@ -4855,27 +5165,30 @@
       <c r="Q66" s="5"/>
       <c r="R66" s="5"/>
     </row>
-    <row r="67" spans="1:18" ht="21">
-      <c r="A67" s="1" t="s">
+    <row r="67" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="17" t="s">
         <v>334</v>
       </c>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="21" t="s">
         <v>335</v>
       </c>
-      <c r="C67" s="14" t="s">
+      <c r="C67" s="21" t="s">
         <v>336</v>
       </c>
-      <c r="D67" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="E67" s="14" t="s">
+      <c r="D67" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E67" s="21" t="s">
         <v>337</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F67" s="15" t="s">
         <v>339</v>
       </c>
-      <c r="G67" s="15" t="s">
+      <c r="G67" s="14" t="s">
         <v>338</v>
+      </c>
+      <c r="H67" s="13" t="s">
+        <v>10</v>
       </c>
       <c r="J67" s="12" t="s">
         <v>215</v>
@@ -4893,128 +5206,687 @@
         <v>342</v>
       </c>
     </row>
-    <row r="68" spans="1:18">
-      <c r="G68" s="12"/>
-    </row>
-    <row r="69" spans="1:18">
-      <c r="G69" s="12"/>
-    </row>
-    <row r="70" spans="1:18">
-      <c r="G70" s="12"/>
-    </row>
-    <row r="71" spans="1:18">
-      <c r="G71" s="12"/>
-    </row>
-    <row r="72" spans="1:18">
-      <c r="G72" s="12"/>
-    </row>
-    <row r="73" spans="1:18">
-      <c r="G73" s="12"/>
-    </row>
-    <row r="87" spans="7:7">
-      <c r="G87" s="12"/>
-    </row>
-    <row r="95" spans="7:7">
-      <c r="G95" s="12"/>
-    </row>
-    <row r="96" spans="7:7">
-      <c r="G96" s="12"/>
-    </row>
-    <row r="103" spans="7:7">
-      <c r="G103" s="12"/>
-    </row>
-    <row r="104" spans="7:7">
-      <c r="G104" s="12"/>
-    </row>
-    <row r="105" spans="7:7">
-      <c r="G105" s="12"/>
-    </row>
-    <row r="110" spans="7:7">
-      <c r="G110" s="12"/>
-    </row>
-    <row r="111" spans="7:7">
-      <c r="G111" s="12"/>
-    </row>
-    <row r="112" spans="7:7">
-      <c r="G112" s="12"/>
-    </row>
-    <row r="113" spans="7:7">
-      <c r="G113" s="12"/>
-    </row>
-    <row r="114" spans="7:7">
-      <c r="G114" s="12"/>
-    </row>
-    <row r="115" spans="7:7">
-      <c r="G115" s="12"/>
-    </row>
-    <row r="116" spans="7:7">
-      <c r="G116" s="12"/>
-    </row>
-    <row r="117" spans="7:7">
-      <c r="G117" s="12"/>
-    </row>
-    <row r="118" spans="7:7">
-      <c r="G118" s="12"/>
-    </row>
-    <row r="122" spans="7:7">
-      <c r="G122" s="12"/>
-    </row>
-    <row r="123" spans="7:7">
-      <c r="G123" s="12"/>
-    </row>
-    <row r="124" spans="7:7">
-      <c r="G124" s="12"/>
-    </row>
-    <row r="125" spans="7:7">
-      <c r="G125" s="12"/>
-    </row>
-    <row r="126" spans="7:7">
-      <c r="G126" s="12"/>
-    </row>
-    <row r="127" spans="7:7">
-      <c r="G127" s="12"/>
-    </row>
-    <row r="128" spans="7:7">
-      <c r="G128" s="12"/>
-    </row>
-    <row r="129" spans="7:7">
-      <c r="G129" s="12"/>
-    </row>
-    <row r="130" spans="7:7">
-      <c r="G130" s="12"/>
-    </row>
-    <row r="131" spans="7:7">
-      <c r="G131" s="12"/>
-    </row>
-    <row r="132" spans="7:7">
-      <c r="G132" s="12"/>
-    </row>
-    <row r="133" spans="7:7">
-      <c r="G133" s="12"/>
-    </row>
-    <row r="134" spans="7:7">
-      <c r="G134" s="12"/>
-    </row>
-    <row r="135" spans="7:7">
-      <c r="G135" s="12"/>
-    </row>
-    <row r="136" spans="7:7">
-      <c r="G136" s="12"/>
-    </row>
-    <row r="137" spans="7:7">
-      <c r="G137" s="12"/>
-    </row>
-    <row r="138" spans="7:7">
-      <c r="G138" s="12"/>
-    </row>
-    <row r="139" spans="7:7">
-      <c r="G139" s="12"/>
-    </row>
-    <row r="140" spans="7:7">
-      <c r="G140" s="12"/>
+    <row r="68" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="B68" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="22" t="s">
+        <v>349</v>
+      </c>
+      <c r="F68" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="G68" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="H68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N68" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="O68" s="9" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>352</v>
+      </c>
+      <c r="B69" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>354</v>
+      </c>
+      <c r="D69" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E69" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F69" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="G69" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="H69" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="O69" s="9" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B70" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D70" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E70" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F70" s="22" t="s">
+        <v>361</v>
+      </c>
+      <c r="G70" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="H70" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="O70" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>357</v>
+      </c>
+      <c r="B71" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D71" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E71" s="22" t="s">
+        <v>258</v>
+      </c>
+      <c r="F71" s="22" t="s">
+        <v>366</v>
+      </c>
+      <c r="G71" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="H71" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" s="9" t="s">
+        <v>431</v>
+      </c>
+      <c r="O71" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="17" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D72" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E72" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="G72" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="H72" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N72" s="9" t="s">
+        <v>430</v>
+      </c>
+      <c r="O72" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="17" t="s">
+        <v>372</v>
+      </c>
+      <c r="B73" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="D73" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E73" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G73" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="9" t="s">
+        <v>429</v>
+      </c>
+      <c r="O73" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B74" s="22" t="s">
+        <v>393</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="D74" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G74" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H74" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="O74" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="17" t="s">
+        <v>382</v>
+      </c>
+      <c r="B75" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="G75" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="H75" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="9" t="s">
+        <v>427</v>
+      </c>
+      <c r="O75" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="17" t="s">
+        <v>383</v>
+      </c>
+      <c r="B76" s="15" t="s">
+        <v>387</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F76" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="G76" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="H76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N76" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="O76" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="17" t="s">
+        <v>384</v>
+      </c>
+      <c r="B77" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E77" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N77" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="O77" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="17" t="s">
+        <v>385</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>386</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>398</v>
+      </c>
+      <c r="H78" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N78" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="O78" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A79" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B79" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E79" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>402</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="O79" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A80" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C83" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D83" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D84" s="19" t="s">
+        <v>218</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="H84" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="23" t="s">
+        <v>404</v>
+      </c>
+      <c r="B85" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>406</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E85" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="H85" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N85" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="O85" s="9" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="17" t="s">
+        <v>409</v>
+      </c>
+      <c r="B86" s="15" t="s">
+        <v>410</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>411</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E86" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="G86" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="H86" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86" s="9" t="s">
+        <v>421</v>
+      </c>
+      <c r="O86" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="B87" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>218</v>
+      </c>
+      <c r="E87" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="H87" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="O87" s="9" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G94" s="19"/>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G95" s="19"/>
+    </row>
+    <row r="102" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G103" s="19"/>
+    </row>
+    <row r="104" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G104" s="19"/>
+    </row>
+    <row r="109" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G111" s="19"/>
+    </row>
+    <row r="112" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G113" s="19"/>
+    </row>
+    <row r="114" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G114" s="19"/>
+    </row>
+    <row r="115" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G115" s="19"/>
+    </row>
+    <row r="116" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G116" s="19"/>
+    </row>
+    <row r="117" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G117" s="19"/>
+    </row>
+    <row r="121" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G123" s="19"/>
+    </row>
+    <row r="124" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G124" s="19"/>
+    </row>
+    <row r="125" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G125" s="19"/>
+    </row>
+    <row r="126" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G126" s="19"/>
+    </row>
+    <row r="127" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G127" s="19"/>
+    </row>
+    <row r="128" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G128" s="19"/>
+    </row>
+    <row r="129" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G129" s="19"/>
+    </row>
+    <row r="130" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="19"/>
+    </row>
+    <row r="131" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G133" s="19"/>
+    </row>
+    <row r="134" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G134" s="19"/>
+    </row>
+    <row r="135" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G135" s="19"/>
+    </row>
+    <row r="136" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G136" s="19"/>
+    </row>
+    <row r="137" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G137" s="19"/>
+    </row>
+    <row r="138" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G138" s="19"/>
+    </row>
+    <row r="139" spans="7:7" x14ac:dyDescent="0.25">
+      <c r="G139" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>
@@ -5050,8 +5922,38 @@
     <hyperlink ref="O61" r:id="rId32" xr:uid="{82C7F15A-0905-474E-B047-A7BB4379FCA8}"/>
     <hyperlink ref="N67" r:id="rId33" xr:uid="{BF935FA2-E37D-4CA8-8536-DD8CA66BE7FD}"/>
     <hyperlink ref="O67" r:id="rId34" xr:uid="{B6A64B24-F697-4591-8B4B-26653811AD6E}"/>
+    <hyperlink ref="N68" r:id="rId35" xr:uid="{7AA65321-1918-4211-99D0-DDDD2957D86A}"/>
+    <hyperlink ref="N69" r:id="rId36" xr:uid="{1CF38881-58BD-4F74-9AF9-0748346A41AB}"/>
+    <hyperlink ref="N70" r:id="rId37" xr:uid="{73252989-590E-46C6-A34D-FFBEE619DE18}"/>
+    <hyperlink ref="N71" r:id="rId38" xr:uid="{7785D349-BF49-4491-8D31-044A9762A2E5}"/>
+    <hyperlink ref="N72" r:id="rId39" xr:uid="{7C1629DE-0279-4F05-BBF3-048BAF41A4BC}"/>
+    <hyperlink ref="N73" r:id="rId40" xr:uid="{F1CD9645-60C6-4569-9CB5-EEDE71AE2A83}"/>
+    <hyperlink ref="N74" r:id="rId41" xr:uid="{85CFDEAB-3345-4554-9E19-D2435FE6B424}"/>
+    <hyperlink ref="N75" r:id="rId42" xr:uid="{9A265FA2-F389-4520-A5F4-DA4BAE1B5417}"/>
+    <hyperlink ref="N76" r:id="rId43" xr:uid="{085DF4E6-0857-4F52-B888-AB2AA65C8E11}"/>
+    <hyperlink ref="N77" r:id="rId44" xr:uid="{C2D445B9-1683-436A-AA87-7CE4E2D2B129}"/>
+    <hyperlink ref="N78" r:id="rId45" xr:uid="{5D55D737-5EEE-4A44-9266-74EFB0F6A55B}"/>
+    <hyperlink ref="N79" r:id="rId46" xr:uid="{719C0F73-D177-4FC7-A032-E81D845F0146}"/>
+    <hyperlink ref="N85" r:id="rId47" xr:uid="{2D5B57D7-4E19-402F-A3D1-0190D1D111E9}"/>
+    <hyperlink ref="N86" r:id="rId48" xr:uid="{2A8A5E7D-6F75-435C-8798-DADA79207756}"/>
+    <hyperlink ref="N87" r:id="rId49" xr:uid="{046E1E83-08DD-4ABD-BE67-51826BD94B40}"/>
+    <hyperlink ref="O68" r:id="rId50" xr:uid="{14DAF574-A575-4913-97D6-38E4F9A36D4C}"/>
+    <hyperlink ref="O69" r:id="rId51" xr:uid="{26C01D2D-D88D-4CED-8216-CFA5AB9F6B5C}"/>
+    <hyperlink ref="O70" r:id="rId52" xr:uid="{F233D98D-6C14-4E46-8903-114F3B2E7739}"/>
+    <hyperlink ref="O71" r:id="rId53" xr:uid="{EC310FAA-84BF-4E0E-92E5-EE244577AF79}"/>
+    <hyperlink ref="O72" r:id="rId54" xr:uid="{1E2C866D-C13F-4B54-A20B-D5E421419C19}"/>
+    <hyperlink ref="O73" r:id="rId55" xr:uid="{447A9882-6201-4486-83F3-EF15DC5A23B5}"/>
+    <hyperlink ref="O79" r:id="rId56" xr:uid="{257548C8-8554-4760-850B-FC1770457B9B}"/>
+    <hyperlink ref="O85" r:id="rId57" xr:uid="{9400E53B-43FA-4DE0-A03E-E5942B254DA7}"/>
+    <hyperlink ref="O74" r:id="rId58" xr:uid="{D0C3DB44-1D89-43D7-925A-2A8213C2FC99}"/>
+    <hyperlink ref="O75" r:id="rId59" xr:uid="{9060BDD3-10ED-486F-919B-7C46AB43CE72}"/>
+    <hyperlink ref="O76" r:id="rId60" xr:uid="{57D64F97-E371-41B8-8C86-1DD27711CEED}"/>
+    <hyperlink ref="O77" r:id="rId61" xr:uid="{BE31E0FB-6FDD-4A16-B1A6-D967EBBA604D}"/>
+    <hyperlink ref="O78" r:id="rId62" xr:uid="{932F5256-5AF7-47C3-93E7-D4FFD6CEE619}"/>
+    <hyperlink ref="O86" r:id="rId63" xr:uid="{4B94D87A-2556-4E8B-BFF8-B4465BDF0633}"/>
+    <hyperlink ref="O87" r:id="rId64" xr:uid="{82BCE4C9-D795-4AB2-9202-309AD9F062A0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId35"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3799A7C7-EF99-4D6A-8025-E26ED6D0D552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F7379-9238-4DA8-86E4-3AB33B4865FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="439">
   <si>
     <t>name</t>
   </si>
@@ -1419,9 +1419,6 @@
     <t>auxiliary</t>
   </si>
   <si>
-    <t>Diese Testprozedur verwendet drei Gruppen von Höraufgaben um anhand der Antwortmuster in fünf bis zehn Minuten zuverlässig zu bestimmen, welches Abhörgerät (z. B. Kopfhörer oder Lautsprecher) von Proband*innen in Internet-Experimenten verwendet wurde. Damit wird eine hohe Zuverlässigkeit in der Diagnostik jenseits von Selbstauskünften ermöglicht</t>
-  </si>
-  <si>
     <t>This test procedure uses three groups of listening tasks to reliably determine which listening device (i.e. headphones or loudspeakers) is used by a subject in an online experiments in five to ten minutes. This enables a high level of reliability in diagnostics beyond self-reporting.</t>
   </si>
   <si>
@@ -1473,9 +1470,6 @@
     <t>This test measure the ability to identify odd-one out chords in  sequences of four triads.</t>
   </si>
   <si>
-    <t>Dieser Test miss die Fähigkeit Unterschiede in Dreiklangsfolgen zu erkennen.</t>
-  </si>
-  <si>
     <t>SRS</t>
   </si>
   <si>
@@ -1488,9 +1482,6 @@
     <t>de</t>
   </si>
   <si>
-    <t>This test measure the ability to read and process German sentences</t>
-  </si>
-  <si>
     <t>Dieser Test misst die Lesefähigkeit im Deutschen.</t>
   </si>
   <si>
@@ -1503,12 +1494,6 @@
     <t>Test zur Rhythmuswahrnehmung in Sprache</t>
   </si>
   <si>
-    <t>This test measures the ability to process meter in German language</t>
-  </si>
-  <si>
-    <t>Dieser Test misst die Sensitivität für Rhythmen in der deutschen Sprache</t>
-  </si>
-  <si>
     <t>ARA</t>
   </si>
   <si>
@@ -1545,12 +1530,6 @@
     <t xml:space="preserve">Fragebogen zur Kompetenz in Jazzimprovisation </t>
   </si>
   <si>
-    <t>Assessment of skills and competences in jazz improvisation</t>
-  </si>
-  <si>
-    <t>Dieser Fragebogen misst die Kompetent in der Jazzimproviation</t>
-  </si>
-  <si>
     <t>JIW</t>
   </si>
   <si>
@@ -1587,9 +1566,6 @@
     <t>Jazz Improvisation Self-Efficacy</t>
   </si>
   <si>
-    <t>This questionnaires is an implementation of Rheinberg et al.'s Flow Short Scale</t>
-  </si>
-  <si>
     <t>This questionnaires measures flow states.</t>
   </si>
   <si>
@@ -1611,12 +1587,6 @@
     <t>15-Item Persönlichkeits-Inventar</t>
   </si>
   <si>
-    <t>Dies ist eine Kurzversion des BFIs</t>
-  </si>
-  <si>
-    <t>This is a short version of the BFI</t>
-  </si>
-  <si>
     <t>BFA</t>
   </si>
   <si>
@@ -1629,9 +1599,6 @@
     <t>This short questionnaires measure aspects of openness</t>
   </si>
   <si>
-    <t>This short questionnaires measures aspects of openness</t>
-  </si>
-  <si>
     <t>EWE</t>
   </si>
   <si>
@@ -1717,15 +1684,58 @@
   </si>
   <si>
     <t xml:space="preserve">Die ist eine implementation der Flow Short Scale von Rheinberg et al. </t>
+  </si>
+  <si>
+    <t>Dieser kurze Fragebogen fragt nach Aspekte der Offenheit,</t>
+  </si>
+  <si>
+    <t>Assessment of skills and competences in jazz improvisation.</t>
+  </si>
+  <si>
+    <t>This questionnaires is an implementation of Rheinberg et al.'s Flow Short Scale.</t>
+  </si>
+  <si>
+    <t>This is a short version of the BFI.</t>
+  </si>
+  <si>
+    <t>Dies ist eine Kurzversion des BFIs.</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen misst die Kompetent in der Jazzimprovisation.</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen misst die Kompetenz in der Jazzimprovisation.</t>
+  </si>
+  <si>
+    <t>Dieser Test miss die Fähigkeit, Unterschiede in Dreiklangsfolgen zu erkennen.</t>
+  </si>
+  <si>
+    <t>Dieser Test misst die Sensitivität für Rhythmen in der deutschen Sprache.</t>
+  </si>
+  <si>
+    <t>This test measures the ability to process meter in German language.</t>
+  </si>
+  <si>
+    <t>This test measure the ability to read and process German sentences.</t>
+  </si>
+  <si>
+    <t>Diese Testprozedur verwendet drei Gruppen von Höraufgaben um anhand der Antwortmuster in fünf bis zehn Minuten zuverlässig zu bestimmen, welches Abhörgerät (z. B. Kopfhörer oder Lautsprecher) von Proband*innen in Internet-Experimenten verwendet wurde. Damit wird eine hohe Zuverlässigkeit in der Diagnostik jenseits von Selbstauskünften ermöglicht.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1859,57 +1869,60 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2229,9 +2242,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F77" sqref="F77"/>
+      <selection pane="topRight" activeCell="G62" sqref="G62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2804,7 +2817,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D13" s="19" t="s">
         <v>218</v>
@@ -5084,10 +5097,10 @@
         <v>258</v>
       </c>
       <c r="F65" s="15" t="s">
+        <v>343</v>
+      </c>
+      <c r="G65" s="20" t="s">
         <v>344</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>345</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>32</v>
@@ -5182,10 +5195,10 @@
         <v>337</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>338</v>
+        <v>438</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>10</v>
@@ -5197,56 +5210,56 @@
         <v>182</v>
       </c>
       <c r="M67" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="N67" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="N67" s="9" t="s">
+      <c r="O67" s="9" t="s">
         <v>341</v>
-      </c>
-      <c r="O67" s="9" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="B68" s="22" t="s">
         <v>346</v>
       </c>
-      <c r="B68" s="22" t="s">
+      <c r="C68" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="C68" s="15" t="s">
+      <c r="D68" s="21" t="s">
+        <v>218</v>
+      </c>
+      <c r="E68" s="22" t="s">
         <v>348</v>
       </c>
-      <c r="D68" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="E68" s="22" t="s">
+      <c r="F68" s="22" t="s">
         <v>349</v>
       </c>
-      <c r="F68" s="22" t="s">
+      <c r="G68" s="22" t="s">
         <v>350</v>
       </c>
-      <c r="G68" s="22" t="s">
-        <v>351</v>
-      </c>
       <c r="H68" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
+        <v>351</v>
+      </c>
+      <c r="B69" s="22" t="s">
         <v>352</v>
       </c>
-      <c r="B69" s="22" t="s">
+      <c r="C69" s="22" t="s">
         <v>353</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>354</v>
       </c>
       <c r="D69" s="22" t="s">
         <v>218</v>
@@ -5255,94 +5268,94 @@
         <v>258</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>355</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>356</v>
+        <v>354</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>434</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C70" s="22" t="s">
+        <v>356</v>
+      </c>
+      <c r="D70" s="22" t="s">
         <v>358</v>
-      </c>
-      <c r="D70" s="22" t="s">
-        <v>360</v>
       </c>
       <c r="E70" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F70" s="22" t="s">
-        <v>361</v>
+      <c r="F70" s="24" t="s">
+        <v>437</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E71" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="F71" s="22" t="s">
-        <v>366</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>367</v>
+      <c r="F71" s="24" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" s="24" t="s">
+        <v>435</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="C72" s="22" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="D72" s="22" t="s">
         <v>218</v>
@@ -5351,62 +5364,62 @@
         <v>8</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="G72" s="22" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>372</v>
+        <v>367</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="G73" s="22" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="H73" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N73" s="9" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="O73" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D74" s="22" t="s">
         <v>218</v>
@@ -5414,31 +5427,31 @@
       <c r="E74" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>381</v>
+      <c r="F74" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>432</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
       <c r="D75" s="15" t="s">
         <v>218</v>
@@ -5446,31 +5459,31 @@
       <c r="E75" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="22" t="s">
-        <v>380</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>381</v>
+      <c r="F75" s="24" t="s">
+        <v>428</v>
+      </c>
+      <c r="G75" s="24" t="s">
+        <v>433</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
       <c r="D76" s="15" t="s">
         <v>218</v>
@@ -5479,30 +5492,30 @@
         <v>8</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="D77" s="15" t="s">
         <v>218</v>
@@ -5511,30 +5524,30 @@
         <v>8</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>394</v>
+        <v>429</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>437</v>
+        <v>426</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N77" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="O77" s="9" t="s">
         <v>425</v>
-      </c>
-      <c r="O77" s="9" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="D78" s="15" t="s">
         <v>218</v>
@@ -5543,30 +5556,30 @@
         <v>8</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>424</v>
+        <v>413</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="D79" s="15" t="s">
         <v>218</v>
@@ -5575,24 +5588,24 @@
         <v>8</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>403</v>
+        <v>430</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>402</v>
+        <v>431</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>423</v>
+        <v>412</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B80" s="4" t="s">
         <v>120</v>
@@ -5612,7 +5625,7 @@
     </row>
     <row r="81" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A81" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B81" s="4" t="s">
         <v>121</v>
@@ -5632,7 +5645,7 @@
     </row>
     <row r="82" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A82" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>122</v>
@@ -5652,7 +5665,7 @@
     </row>
     <row r="83" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A83" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>123</v>
@@ -5672,7 +5685,7 @@
     </row>
     <row r="84" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A84" s="23" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>124</v>
@@ -5692,13 +5705,13 @@
     </row>
     <row r="85" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D85" s="15" t="s">
         <v>218</v>
@@ -5707,30 +5720,30 @@
         <v>8</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>408</v>
+        <v>427</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="86" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>409</v>
+        <v>398</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>410</v>
+        <v>399</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>411</v>
+        <v>400</v>
       </c>
       <c r="D86" s="15" t="s">
         <v>218</v>
@@ -5739,30 +5752,30 @@
         <v>8</v>
       </c>
       <c r="F86" s="15" t="s">
-        <v>412</v>
+        <v>401</v>
       </c>
       <c r="G86" s="22" t="s">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="H86" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>414</v>
+        <v>403</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>415</v>
+        <v>404</v>
       </c>
       <c r="D87" s="15" t="s">
         <v>218</v>
@@ -5771,19 +5784,19 @@
         <v>8</v>
       </c>
       <c r="F87" s="15" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>417</v>
+        <v>406</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>420</v>
+        <v>409</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>436</v>
+        <v>425</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.25">
@@ -5886,7 +5899,7 @@
       <c r="G139" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>

--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11F7379-9238-4DA8-86E4-3AB33B4865FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58925C89-B347-4CF7-919F-EAAA1733CD07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="959" uniqueCount="437">
   <si>
     <t>name</t>
   </si>
@@ -164,9 +164,6 @@
     <t>Bracken, B. A. (1992). Multidimensional Self Concept Scale. Austin, TX: Pro-ed.</t>
   </si>
   <si>
-    <t>Strengths and Difficulties Questionnaire</t>
-  </si>
-  <si>
     <t>https://link.springer.com/content/pdf/10.1007%2Fs007870050057.pdf bzw. http://econtent.hogrefe.com/doi/pdf/10.1026/0012-1924.53.4.175</t>
   </si>
   <si>
@@ -200,13 +197,7 @@
     <t>https://www.researchgate.net/publication/238741273_The_Student_Opinion_Scale_SOS</t>
   </si>
   <si>
-    <t>Theory of Intelligence</t>
-  </si>
-  <si>
     <t>1 binary item and 6 items with a 6-point rating scale</t>
-  </si>
-  <si>
-    <t>Theory of Musicality</t>
   </si>
   <si>
     <t>Ten Item Personality Inventory</t>
@@ -838,21 +829,6 @@
   </si>
   <si>
     <t>The SDQ is a short questionnaire about behavioural difficulties and strengths in children and adolescents. Versions for parents and teachers as well as self-report are available - we use the self-report version. Specific care was taken to achieve a balance of positive and negative behavioural aspects across the 25 SDQ items. The 25 items form 5 scales (conduct problems, hyperactivity, emotional symptoms, peer-related problems and prosocial behaviour) with 5 items each. The scores for hyperactivity, emotional symptoms, conduct problems and peer problems can be summed to generate a total difficulties score ranging from 0 to 40; the prosocial score is not incorporated in the reverse direction into ttotal difficulties score since the absence of prosocial behaviours is conceptually different.</t>
-  </si>
-  <si>
-    <t>I am restless, I cannot stay still for long'; 'I am constantly fidgeting or squirming'; 'I am easily distracted, I find it difficult to concentrate'; 'I think before I do things'; and 'I finish the work I'm doing. My attention is good'.</t>
-  </si>
-  <si>
-    <t>I get a lot of headaches, stomach-aches or sickness'; 'I worry a lot'; 'I am often unhappy, down-hearted or tearful'; 'I am nervous in new situations. I easily lose confidence'; and 'I have many fears. I am easily scared'.</t>
-  </si>
-  <si>
-    <t>I get very angry and often lose my temper'; 'I usually do as I am told'; 'I fight a lot. I can make other people do what I want'; 'I am often accused of lying or cheating'; and 'I take things that are not mine from home, school or elsewhere'.</t>
-  </si>
-  <si>
-    <t>I am usually on my own. I generally play alone or keep to myself'; 'I have one good friend or more'; 'Other people my age generally like me'; 'Other children or young people pick on me or bully me'; and 'I get on better with adults than with people my own age'.</t>
-  </si>
-  <si>
-    <t>I try to be nice to other people. I care about their feelings'; 'I usually share with others (food, games, pens, etc.)'; 'I am helpful if someone is hurt, upset or feeling ill'; 'I am kind to younger children'; and 'I often volunteer to help others (parents, teachers, children)'.</t>
   </si>
   <si>
     <t>The three-item subscale Attentiveness measures the extent to which students report being distracted in classes and have trouble getting schoolwork done. A sample item is 'How often do you have trouble paying attention in classes?'</t>
@@ -1071,15 +1047,9 @@
     <t>description_en</t>
   </si>
   <si>
-    <t>Dieser Selbstauskunftsfragebogen fragt nach den aktuellen musikalischen Aktivitäten der Schüler. 8 binäre Items bewerten verschiedene musikalische Aktivitäten (z. B. Spielen eines Instruments oder Musizieren in einem Ensemble). Zusätzlich bewerten zwei 7-Punkte-Ratingskala-Items die Intensität der aktuellen musikalischen Aktivitäten.</t>
-  </si>
-  <si>
     <t>Dieser Fragebogen untersucht quantitativ die Theateraktivitäten der Schüler (Theater, Improvisation, Rollenspiel) innerhalb der letzten drei Monate.</t>
   </si>
   <si>
-    <t>Die demografischen Fragen erfassen Alter, Geschlecht, Nationalität, Herkunftsland, Muttersprache und weitere in der Familie gesprochene Sprachen. Außerdem wird in einer Frage nach Hörbeeinträchtigungen gefragt.</t>
-  </si>
-  <si>
     <t>Der Gold-MSI ist ein Fragebogen zur Erfassung musikalischer Fertigkeiten. Er besteht aus 39 Selbstbericht-Items zu musikalischen Fähigkeiten, Fertigkeiten und musikbezogenem Verhalten. Er hat eine hierarchische Skalenstruktur und umfasst einen allgemeinen Faktor und fünf Gruppenfaktoren: Aktive musikalische Auseinandersetzung, Wahrnehmungsfähigkeiten, musikalisches Training, Gesangsfähigkeiten und Umgang mit musikalischen Emotionen.</t>
   </si>
   <si>
@@ -1101,18 +1071,12 @@
     <t>Dieser Fragebogen erfasst den Grad der musikalischen Aktivitäten im häuslichen Umfeld der Schüler sowie die elterliche Unterstützung für musikalische und schulische Aktivitäten.</t>
   </si>
   <si>
-    <t>Der PAQ-C erhebt den Umfang der sportlichen und körperlichen Aktivitäten anhand von 5 Items. Er erfasst quantitative Daten (Häufigkeit statt Intensität der Aktivitäten) über die letzten 3 Monate. Wir verwenden die Version für Kinder (ca. 14-20 Jahre).</t>
-  </si>
-  <si>
     <t>Der SCA-Fragebogen erfasst die individuellen Einstellungen zum Lernen im Allgemeinen sowie die Einstellungen und Einschätzungen zum eigenen Schul- und Klassenkontext. Er besteht aus 25 Items. Eine Kurzversion des SCA, die nur 3 Items umfasst, wurde ebenfalls entwickelt.</t>
   </si>
   <si>
     <t>Die Selbstkonzept-Skala von Bracken (1992) wurde für Kinder und Jugendliche (9-19 Jahre alt) entwickelt. Sie besteht aus 25 Items und bittet die Heranwachsenden um eine Einschätzung der eigenen Verhaltensweisen, der Persönlichkeitsmerkmale und der sozialen Integration z. B. innerhalb der Peergruppe.</t>
   </si>
   <si>
-    <t>Der SDQ ist ein kurzer Fragebogen zu Verhaltensschwierigkeiten und Stärken bei Kindern und Jugendlichen. Es gibt sowohl Versionen für Eltern und Lehrer als auch für den Selbstbericht - wir verwenden die Selbstbericht-Version. Es wurde besonders darauf geachtet, dass die 25 Items des SDQ ein ausgewogenes Verhältnis von positiven und negativen Verhaltensaspekten aufweisen. Die 25 Items bilden 5 Skalen (Verhaltensprobleme, Hyperaktivität, emotionale Symptome, peerbezogene Probleme und prosoziales Verhalten) mit jeweils 5 Items. Die Scores für Hyperaktivität, emotionale Symptome, Verhaltensprobleme und Peer-Probleme können summiert werden, um einen Gesamtschwierigkeitsscore von 0 bis 40 zu generieren; der prosoziale Score geht nicht in umgekehrter Richtung in den Gesamtschwierigkeitsscore ein, da das Fehlen prosozialer Verhaltensweisen konzeptionell anders ist.</t>
-  </si>
-  <si>
     <t>Das Konstrukt des verhaltensbezogenen Engagements wurde durch zwei Gruppen von Faktoren gemessen: Items aus der Subskala Aufmerksamkeit und Items aus der Subskala Schulkonformität.</t>
   </si>
   <si>
@@ -1122,9 +1086,6 @@
     <t>Zwei Faktoren wurden aufgenommen, um das Konstrukt des kognitiven Engagements zu repräsentieren: die Skala "Selbstreguliertes Lernen" und die Skala "Verwendung kognitiver Strategien".</t>
   </si>
   <si>
-    <t>Der sozioökonomische Status der Schüler wird mit 6 Items erfasst. Der Fragebogen fragt nach dem Bildungsniveau der Eltern und der Berufstätigkeit des Haupteinkommensbeziehers (höchster Lohn).</t>
-  </si>
-  <si>
     <t>Diese Subskala fragt nach den beruflichen Aktivitäten der Eltern.</t>
   </si>
   <si>
@@ -1140,27 +1101,15 @@
     <t>Der TOI-Fragebogen mit sieben Items fragt nach den Einstellungen der Personen zur Intelligenz. Die zentrale Frage ist, ob die Schüler Intelligenz als etwas Statisches und Unveränderliches (entity view) oder als etwas Fließendes und Veränderliches (incremental view) betrachten.</t>
   </si>
   <si>
-    <t>Der TIPI misst die Persönlichkeit auf den Big-Five-Persönlichkeitsdimensionen (Offenheit, Verträglichkeit, Extraversion, Gewissenhaftigkeit und Neurotizismus) mit 2 Items für jede Dimension.</t>
-  </si>
-  <si>
     <t>Das Beatwahrnehmungs-Test erfasst die Fähigkeit der Schüler, einen Beat innerhalb eines kurzen Musikausschnitts zu erkennen und zu bewerten. Jeder Musikausschnitt (Jazz, Rock oder orchestraler Pop) wird zweimal mit hinzugefügten Pieptönen abgespielt. Die Schüler müssen entscheiden, in welcher Version des Ausschnitts die Pieptöne außerhalb des Beats der Musik liegen.</t>
   </si>
   <si>
-    <t>Der Emotion Discrimination Test misst die Fähigkeit, in Musik ausgedrückte Emotionen zu unterscheiden. Die Teilnehmer hören zwei Versionen der gleichen kurzen Melodie und müssen entscheiden, welche eine bestimmte emotionale Qualität besser ausdrückt.</t>
-  </si>
-  <si>
     <t>Dieser Melodieunterscheidungstest misst die Fähigkeit, ähnliche, aber leicht veränderte Melodien voneinander zu unterscheiden. Jedes Item besteht aus drei Versionen der gleichen Melodie. Die drei Versionen liegen in unterschiedlichen Tonarten vor und zusätzlich sind in einer der Versionen einige Noten verändert worden. Die Aufgabe besteht darin, die Version mit den geänderten Noten zu benennen.</t>
   </si>
   <si>
-    <t>Dies ist ein Hörtest, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst. Ein 15s langer Ausschnitt aus jedem der 25 unveröffentlichten Tracks (5 für jeden Faktor) wird auf einer 5-Punkte-Ratingskala bewertet, die nach dem Gefallen des Tracks fragt.</t>
-  </si>
-  <si>
     <t>Der Verstimmungstest misst die Fähigkeit zu erkennen, ob die Tonhöhe der Singstimme im Verhältnis zur Hintergrundmusik richtig oder falsch klingt. Jeder Musikausschnitt wird zweimal abgespielt und in einem der Beispiele ist die Tonhöhe der Gesangsstimme nach oben oder unten verschoben. Die Aufgabe besteht darin, diese falsch klingende Version zu identifizieren.</t>
   </si>
   <si>
-    <t>Der Rhythmustest misst die Fähigkeit, kurze musikalische Rhythmen mit 4, 8 oder 16 Ereignissen zu verarbeiten und zu erinnern. Die Teilnehmer hören den Rhythmus und müssen dann die eine von vier grafischen Darstellungen auswählen, die der Struktur des Rhythmus entspricht.</t>
-  </si>
-  <si>
     <t>Der Klangähnlichkeitstest bewertet die Fähigkeit, vergleichende Urteile über sehr kurze (800 ms) Musikausschnitte abzugeben. Der Test verlangt von den Teilnehmern, 16 kurze Clips entsprechend ihrer wahrgenommenen Ähnlichkeit in 4 Gruppen zu sortieren.</t>
   </si>
   <si>
@@ -1281,9 +1230,6 @@
     <t>Aktives Engagement umfasst eine Reihe von Verhaltensweisen zur aktiven Beschäftigung mit Musik (z. B. "Ich verfolge neue Musik, auf die ich stoße", "Ich lese oft oder suche im Internet nach Dingen, die mit Musik zu tun haben") sowie die gezielte Aufwendung von Zeit und Geld für musikalische Aktivitäten (z. B. "Ich gebe nicht viel von meinem verfügbaren Einkommen für Musik aus", "Ich höre _ Stunden pro Tag aufmerksam Musik").</t>
   </si>
   <si>
-    <t>Dieser Fragebogen bewertet das Engagement und die Einstellung von Schülern gegenüber ihrer Schule. Die Skala besteht aus 23 Items und beinhaltet Fragen zu Verhalten, Emotion und Kognition. Das Instrument hat eine hierarchische Subskalenstruktur und umfasst 3 Subskalen mit zwei korrespondierenden Subskalen: Behaviorales Engagement: Aufmerksamkeit, Schulkonformität; Emotionales Engagement: Schulzugehörigkeit, Wertschätzung der Schulbildung; Kognitives Engagement: Selbstreguliertes Lernen, Kognitive Strategieverwendung.</t>
-  </si>
-  <si>
     <t>Die Subskala "Aufmerksamkeit" mit drei Items misst das Ausmaß, in dem die Schüler angeben, im Unterricht abgelenkt zu sein und Schwierigkeiten zu haben, Schularbeiten zu erledigen. Ein Beispiel-Item ist "Wie oft hast du Probleme, im Unterricht aufzupassen?"</t>
   </si>
   <si>
@@ -1305,39 +1251,21 @@
     <t>Die "Student Opinion Scale" ist ein Mittel zur Messung und Kontrolle der Motivation der Teilnehmer bei der Beantwortung von Fragebögen und Tests. Es handelt sich um einen validierten Selbstauskunftsfragebogen.</t>
   </si>
   <si>
-    <t>Der TOM-Fragebogen besteht aus 12 Items. Er fragt nach Einstellungen zu musikalischen Fähigkeiten (erworben oder angeboren), ist aber dem "Conception of the Nature of Athletic Ability Questionnaire - Version 2 (CNAAQ-2)" von Biddle et al. (2003) nachempfunden und hat eine hierarchische Skalenstruktur: Begabung, Verbesserung, Lernen, Stabilität, Inkrementell, Entität.</t>
-  </si>
-  <si>
-    <t>Dieser Test misst die Kapazität des visuell-räumlichen Arbeitsgedächtnisses mittels eines Dual-Task-Paradigmas. Die Schüler müssen für jedes Item wählen, ob zwei Zeichentrickfiguren blaue Bälle in den gleichen oder unterschiedlichen Händen halten und sich außerdem die Positionen der Bälle merken. Nach jedem Satz von Bildern fordert der Test auf, die Positionen der Bälle in der richtigen Reihenfolge abzurufen.</t>
-  </si>
-  <si>
     <t>Der MIQ bewertet die fluide Intelligenz, das nonverbale Denken und die abstrakten Problemlösungsfähigkeiten. Die Schüler sehen ein visuelles Puzzle und müssen das fehlende Puzzlestück ergänzen. Sie müssen innerhalb von 120 Sekunden ihre Antwort aus 8 vorgegebenen Antwortmöglichkeiten auswählen</t>
   </si>
   <si>
     <t>Soziale Erwünschtheits-Skala (Lie)</t>
   </si>
   <si>
-    <t>Fragebogen zur aktuellen musikalische Aktivititäten</t>
-  </si>
-  <si>
     <t>Fragebogen zu Theateraktivitäten </t>
   </si>
   <si>
-    <t>Basisdemographische Angaben</t>
-  </si>
-  <si>
-    <t>Fragebogen zu sportlichen Aktivitäten [</t>
-  </si>
-  <si>
     <t>Fragebogen zum Bildungsselbstkonzept</t>
   </si>
   <si>
     <t>Fragebogen zum sozialen Selbstkonzept</t>
   </si>
   <si>
-    <t>Fragebogen zu Stärken und Schwächen</t>
-  </si>
-  <si>
     <t>Fragebogen zum Schulengagement </t>
   </si>
   <si>
@@ -1347,12 +1275,6 @@
     <t>Fragebogen zur Testeinstellung</t>
   </si>
   <si>
-    <t>Fragebogen zur Theorie der Intelligenz </t>
-  </si>
-  <si>
-    <t>Fragebogen zur Theorie der Musikalität </t>
-  </si>
-  <si>
     <t>10-Item Persönlichkeitsinventar</t>
   </si>
   <si>
@@ -1362,33 +1284,15 @@
     <t>Emotionenunterscheidungs-Test </t>
   </si>
   <si>
-    <t>Jack &amp; Jill Arbeitsgedächtnis-Test</t>
-  </si>
-  <si>
     <t>Melodieunterscheidungs-Test</t>
   </si>
   <si>
     <t>Matrix IQ Test</t>
   </si>
   <si>
-    <t>Kurzer Test zu musikalischen Präferenzen </t>
-  </si>
-  <si>
-    <t>Verstimmungswahrnehmungs-Test </t>
-  </si>
-  <si>
-    <t>Rhythmusfähigkeits-Test</t>
-  </si>
-  <si>
     <t>Klangähnlichkeits-Sortier-Test</t>
   </si>
   <si>
-    <t>Tonvorstellungs-Test</t>
-  </si>
-  <si>
-    <t>Backward Digit Span Arbeitsgedächtnis-Test </t>
-  </si>
-  <si>
     <t>description_de</t>
   </si>
   <si>
@@ -1398,15 +1302,9 @@
     <t>Short Musical Preferences Questionnaire</t>
   </si>
   <si>
-    <t>Klingender Test zu musikalischen Präferenzen </t>
-  </si>
-  <si>
     <t xml:space="preserve">This is a questionnaire test that captures musical preferences for each of the five factor of the MUSIC model (Rentfrow, Goldberg, &amp; Levitin, 2011). </t>
   </si>
   <si>
-    <t xml:space="preserve">Dies ist ein Fragebogen, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst. </t>
-  </si>
-  <si>
     <t>HALT</t>
   </si>
   <si>
@@ -1455,18 +1353,12 @@
     <t>This is an implementation of the classical Seashore test in ist 1966 revised version.</t>
   </si>
   <si>
-    <t>Dies ist eine Re-implementations des kalssischen Seashore-Test in der revidierten Fassung von 1966</t>
-  </si>
-  <si>
     <t>HPT</t>
   </si>
   <si>
     <t>Harmonic Progressions Test</t>
   </si>
   <si>
-    <t>Deriklangsfolgen-Test</t>
-  </si>
-  <si>
     <t>This test measure the ability to identify odd-one out chords in  sequences of four triads.</t>
   </si>
   <si>
@@ -1491,9 +1383,6 @@
     <t>Speech Rhythm Sensitivy Test</t>
   </si>
   <si>
-    <t>Test zur Rhythmuswahrnehmung in Sprache</t>
-  </si>
-  <si>
     <t>ARA</t>
   </si>
   <si>
@@ -1503,9 +1392,6 @@
     <t>Ästhetische Wertschätzung</t>
   </si>
   <si>
-    <t>Dieser Frage erhebt die Wertschätzung für ästhetische Erfahrungen (über alle Domänen).</t>
-  </si>
-  <si>
     <t>ART</t>
   </si>
   <si>
@@ -1527,9 +1413,6 @@
     <t>JIC</t>
   </si>
   <si>
-    <t xml:space="preserve">Fragebogen zur Kompetenz in Jazzimprovisation </t>
-  </si>
-  <si>
     <t>JIW</t>
   </si>
   <si>
@@ -1551,12 +1434,6 @@
     <t>Flow Short Scale</t>
   </si>
   <si>
-    <t>Fragebogen zum Flowzustand</t>
-  </si>
-  <si>
-    <t>Kurzfragebogen zum Flow</t>
-  </si>
-  <si>
     <t>Jazz Improvisation Self-Assessment</t>
   </si>
   <si>
@@ -1572,12 +1449,6 @@
     <t>Dieser Fragebogen misst Flowerleben.</t>
   </si>
   <si>
-    <t>Are you a John Travolta?</t>
-  </si>
-  <si>
-    <t>Sind Sie ein Travolta?</t>
-  </si>
-  <si>
     <t>BFI</t>
   </si>
   <si>
@@ -1611,21 +1482,12 @@
     <t>This questionnaires asks for aspects of the latest earworm and some general aspects (after Halpern et al.)</t>
   </si>
   <si>
-    <t>Dieser Fragebogen erhebt Aspekte des letzten Ohrwurmerlebens und einige allg. Fragen zu Ohrwürmers (nach Halpern et al).</t>
-  </si>
-  <si>
     <t>IMI</t>
   </si>
   <si>
     <t>Involuntary Musical Imagery Scale (IMIS)</t>
   </si>
   <si>
-    <t>This questionnaires is all about earworms, this nasty little beasts.</t>
-  </si>
-  <si>
-    <t>(Fast) alles was man zu Ohrwürmer so fragen kann.</t>
-  </si>
-  <si>
     <t>http://testing.musikpsychologie.de/seashore</t>
   </si>
   <si>
@@ -1683,12 +1545,6 @@
     <t>https://github.com/klausfrieler/psyquest</t>
   </si>
   <si>
-    <t xml:space="preserve">Die ist eine implementation der Flow Short Scale von Rheinberg et al. </t>
-  </si>
-  <si>
-    <t>Dieser kurze Fragebogen fragt nach Aspekte der Offenheit,</t>
-  </si>
-  <si>
     <t>Assessment of skills and competences in jazz improvisation.</t>
   </si>
   <si>
@@ -1701,15 +1557,6 @@
     <t>Dies ist eine Kurzversion des BFIs.</t>
   </si>
   <si>
-    <t>Dieser Fragebogen misst die Kompetent in der Jazzimprovisation.</t>
-  </si>
-  <si>
-    <t>Dieser Fragebogen misst die Kompetenz in der Jazzimprovisation.</t>
-  </si>
-  <si>
-    <t>Dieser Test miss die Fähigkeit, Unterschiede in Dreiklangsfolgen zu erkennen.</t>
-  </si>
-  <si>
     <t>Dieser Test misst die Sensitivität für Rhythmen in der deutschen Sprache.</t>
   </si>
   <si>
@@ -1719,16 +1566,191 @@
     <t>This test measure the ability to read and process German sentences.</t>
   </si>
   <si>
-    <t>Diese Testprozedur verwendet drei Gruppen von Höraufgaben um anhand der Antwortmuster in fünf bis zehn Minuten zuverlässig zu bestimmen, welches Abhörgerät (z. B. Kopfhörer oder Lautsprecher) von Proband*innen in Internet-Experimenten verwendet wurde. Damit wird eine hohe Zuverlässigkeit in der Diagnostik jenseits von Selbstauskünften ermöglicht.</t>
+    <t>Der Rhythmustest misst die Fähigkeit, kurze musikalische Rhythmen mit 4, 8 oder 16 Ereignissen zu verarbeiten und zu erinnern. Die Teilnehmer hören den Rhythmus und müssen dann diejenige von vier grafischen Darstellungen auswählen, die der Struktur des Rhythmus entspricht.</t>
+  </si>
+  <si>
+    <t>Der Emotion-Discrimination-Test misst die Fähigkeit, in Musik ausgedrückte Emotionen zu unterscheiden. Die Teilnehmer hören zwei Versionen der gleichen kurzen Melodie und müssen entscheiden, welche eine bestimmte emotionale Qualität besser ausdrückt.</t>
+  </si>
+  <si>
+    <t>Dieser Test misst die Fähigkeit, Unterschiede in vierelementigen Dreiklangsfolgen zu erkennen.</t>
+  </si>
+  <si>
+    <t>Jack-&amp;-Jill-Arbeitsgedächtnistest</t>
+  </si>
+  <si>
+    <t>Dieser Test misst die Kapazität des visuell-räumlichen Arbeitsgedächtnisses mittels eines Dual-Task-Paradigmas. Die Schüler müssen für jedes Item wählen, ob zwei Zeichentrickfiguren blaue Bälle in den gleichen oder in unterschiedlichen Händen halten und sich außerdem die Positionen der Bälle merken. Nach jedem Satz von Bildern fordert der Test auf, die Positionen der Bälle in der richtigen Reihenfolge abzurufen.</t>
+  </si>
+  <si>
+    <t>Backward-Digit-Span Arbeitsgedächtnistest </t>
+  </si>
+  <si>
+    <t>Fragebogen zu aktuellen musikalischen Aktivititäten</t>
+  </si>
+  <si>
+    <t>Dieser Selbstauskunftsfragebogen fragt nach den aktuellen musikalischen Aktivitäten der Schüler. Acht binäre Items bewerten verschiedene musikalische Aktivitäten (z. B. Spielen eines Instruments oder Musizieren in einem Ensemble). Zusätzlich bewerten zwei 7-Punkte-Ratingskala-Items die Intensität der aktuellen musikalischen Aktivitäten.</t>
+  </si>
+  <si>
+    <t>Fragebogen zu sportlichen Aktivitäten</t>
+  </si>
+  <si>
+    <t>Der PAQ-C erhebt den Umfang der sportlichen und körperlichen Aktivitäten anhand von fünf Items. Er erfasst quantitative Daten (Häufigkeit statt Intensität der Aktivitäten) über die letzten drei Monate. Dies ist die Version für Kinder (ca. 14-20 Jahre).</t>
+  </si>
+  <si>
+    <t>The Involuntary Musical Imagery Scale (IMIS) is a self-report scale consisted of 15 items that captures and measures multiple aspects of the INMI experience. .</t>
+  </si>
+  <si>
+    <t>Floridou, G. A., Williamson, V. J., Stewart, L., &amp; Müllensiefen, D. (2015). The Involuntary Musical Imagery Scale (IMIS). Psychomusicology: Music, Mind and Brain, 25(1),</t>
+  </si>
+  <si>
+    <t>https://www.gold.ac.uk/music-mind-brain/imis/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Involuntary Musical Imagery Scale (IMIS) ist eine Selbstauskunftsskala, die aus 15 Items besteht und mehrere Aspekte der Orhwurm-Erfahrung erfasst und misst. </t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen erhebt Aspekte des letzten Ohrwurmerlebens und einige allgemeine Fragen zu Ohrwürmers (nach Halpern et al).</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen misst Kompetenz zur Jazzimprovisation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die ist eine Implementation der Flow Short Scale von Rheinberg et al. </t>
+  </si>
+  <si>
+    <r>
+      <t>Rose, D., Müllensiefen, D., Lovatt, P., &amp; Orgs, G. (2020). The Goldsmiths Dance Sophistication Index (Gold-DSI): A psychometric tool to assess individual differences in dance experience. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Psychology of Aesthetics, Creativity, and the Arts.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> Advance online publication. http://dx.doi.org/10.1037/aca0000340</t>
+    </r>
+  </si>
+  <si>
+    <t>https://psycnet.apa.org/fulltext/2020-80492-001.html</t>
+  </si>
+  <si>
+    <t>The Goldsmiths Dance Sophistication Index (Gold-DSI) is a 26-item questionnaire to measure individual differences in participatory and observational dance experience on a continuous scale.</t>
+  </si>
+  <si>
+    <t>Der Goldsmiths Dance Sophistication Index (Gold-DSI) ist ein 26 Punkte umfassender Fragebogen zur Messung individueller Unterschiede in der partizipativen und beobachtenden Tanzerfahrung auf einer kontinuierlichen Skala.</t>
+  </si>
+  <si>
+    <t>Kurzfragebogen zum Flow-Erleben</t>
+  </si>
+  <si>
+    <t>Basisdemografische Angaben</t>
+  </si>
+  <si>
+    <t>Die demografischen Fragen erfassen Alter, Geschlecht, Nationalität, Herkunftsland, Muttersprache und weitere in der Familie gesprochene Sprachen. Außerdem wird nach möglichen Hörbeeinträchtigungen gefragt.</t>
+  </si>
+  <si>
+    <t>Der sozio-ökonomische Status von Schülern wird mit sechs Items erfasst. Der Fragebogen fragt nach dem Bildungsniveau der Eltern und der Berufstätigkeit des Haupteinkommensbeziehers (höchster Lohn).</t>
+  </si>
+  <si>
+    <t>Der TOM-Fragebogen besteht aus 12 Items. Er fragt nach Einstellungen zu musikalischen Fähigkeiten (erworben oder angeboren), ist aber dem "Conception of the Nature of Athletic Ability Questionnaire - Version 2 (CNAAQ-2)" von Biddle et al. (2003) nachempfunden und hat eine hierarchische Skalenstruktur: Begabung, Verbesserung, Lernen, Stabilität, Inkrementalität, Entität.</t>
+  </si>
+  <si>
+    <t>Fragebogen zur Theorie der Musikalität (TOM)</t>
+  </si>
+  <si>
+    <t>Theory of Musicality (TOM)</t>
+  </si>
+  <si>
+    <t>Theory of Intelligence (TOI)</t>
+  </si>
+  <si>
+    <t>Fragebogen zur Theorie der Intelligenz  (TOI)</t>
+  </si>
+  <si>
+    <t>Fragebogen zu Stärken und Schwächen (SDQ)</t>
+  </si>
+  <si>
+    <t>Strengths and Difficulties Questionnaire (SDQ)</t>
+  </si>
+  <si>
+    <t>Der SDQ ist ein kurzer Fragebogen zu Verhaltensschwierigkeiten und Stärken bei Kindern und Jugendlichen. Dies ist die Selbstberichtsversion. Es wurde besonders darauf geachtet, dass die 25 Items des SDQ ein ausgewogenes Verhältnis von positiven und negativen Verhaltensaspekten aufweisen. Die 25 Items bilden fünf Skalen (Verhaltensprobleme, Hyperaktivität, emotionale Symptome, peerbezogene Probleme und prosoziales Verhalten) mit jeweils fünf Items. Die Scores für Hyperaktivität, emotionale Symptome, Verhaltensprobleme und Peer-Probleme können summiert werden, um einen Gesamtschwierigkeitsscore von 0 bis 40 zu generieren; der prosoziale Score geht nicht in umgekehrter Richtung in den Gesamtschwierigkeitsscore ein, da das Fehlen prosozialer Verhaltensweisen konzeptionell anders ist.</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen bewertet das Engagement und die Einstellung von Schülern gegenüber ihrer Schule. Die Skala besteht aus 23 Items und beinhaltet Fragen zu Verhalten, Emotion und Kognition. Das Instrument hat eine hierarchische Subskalenstruktur und umfasst drei Subskalen mit zwei korrespondierenden Subskalen: Behaviorales Engagement (Aufmerksamkeit, Schulkonformität); Emotionales Engagement (Schulzugehörigkeit, Wertschätzung der Schulbildung); Kognitives Engagement (Selbstreguliertes Lernen, Kognitive Strategieverwendung).</t>
+  </si>
+  <si>
+    <t>Dies ist ein Hörtest, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst. Ein 15 Sekunden langer Ausschnitt aus jedem der 25 unveröffentlichten Tracks (fünf für jeden Faktor) wird auf einer 5-Punkte-Ratingskala bewertet, die nach dem Gefallen des Tracks fragt.</t>
+  </si>
+  <si>
+    <t>Dies ist ein Fragebogen, der die musikalischen Vorlieben für jeden der fünf Faktoren des MUSIC-Modells (Rentfrow, Goldberg, &amp; Levitin, 2011) erfasst, dabei wird nach Gefallen von Genres/Stilen gefragt.</t>
+  </si>
+  <si>
+    <t>Der TIPI misst die Persönlichkeit auf den Big-Five-Persönlichkeitsdimensionen (Offenheit, Verträglichkeit, Extraversion, Gewissenhaftigkeit und Neurotizismus) mit zwei Items für jede Dimension.</t>
+  </si>
+  <si>
+    <t>Dieser kurze Fragebogen fragt nach Aspekten der Offenheit,</t>
+  </si>
+  <si>
+    <t>Dieser Fragebogen erhebt die generelle Wertschätzung für ästhetische Erfahrungen (über mehrere ästhetische Domänen).</t>
+  </si>
+  <si>
+    <t>Dies ist eine Re-implementations des klassischen Seashore-Musikalitätstests in der revidierten Fassung von 1966.</t>
+  </si>
+  <si>
+    <t>Diese Testprozedur verwendet drei Gruppen von Höraufgaben, um anhand der Antwortmuster in fünf bis zehn Minuten zuverlässig zu bestimmen, welches Abhörgerät (z. B. Kopfhörer oder Lautsprecher) von Teilnehmern in Internet-Experimenten verwendet wurde. Damit wird eine hohe Zuverlässigkeit in der Diagnostik jenseits von Selbstauskünften ermöglicht.</t>
+  </si>
+  <si>
+    <t>Kurzer klingender Fragebogen zu musikalischen Präferenzen</t>
+  </si>
+  <si>
+    <t>Kurzer Fragebogen zu musikalischen Präferenzen </t>
+  </si>
+  <si>
+    <t>Verstimmungswahrnehmungstest </t>
+  </si>
+  <si>
+    <t>Rhythmusfähigkeitstest</t>
+  </si>
+  <si>
+    <t>Tonvorstellungstest</t>
+  </si>
+  <si>
+    <t>Deriklangsfolgentest</t>
+  </si>
+  <si>
+    <t>Test zur Rhythmuswahrnehmung in der Sprache</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fragebogen zu Kompetenzen in der Jazzimprovisation </t>
+  </si>
+  <si>
+    <t>Fragebogen zum Flow-Zustand</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1849,6 +1871,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF333333"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1869,62 +1910,70 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -2242,9 +2291,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:R139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G62" sqref="G62"/>
+      <selection pane="topRight" activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2270,34 +2319,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="E1" s="16" t="s">
         <v>7</v>
       </c>
       <c r="F1" s="16" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>328</v>
+        <v>296</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="8" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="K1" s="8" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="L1" s="8" t="s">
         <v>31</v>
@@ -2309,7 +2358,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="8" t="s">
-        <v>260</v>
+        <v>243</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>4</v>
@@ -2323,25 +2372,25 @@
     </row>
     <row r="2" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="18" t="s">
-        <v>304</v>
+      <c r="C2" s="25" t="s">
+        <v>393</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>144</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>222</v>
+        <v>141</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>394</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>10</v>
@@ -2353,20 +2402,20 @@
         <v>10</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L2" s="5"/>
       <c r="M2" s="3" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>289</v>
+        <v>272</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q2" s="5"/>
       <c r="R2" s="2" t="s">
@@ -2375,25 +2424,25 @@
     </row>
     <row r="3" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>305</v>
+        <v>284</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>10</v>
@@ -2405,17 +2454,17 @@
         <v>10</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L3" s="5"/>
       <c r="M3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="O3" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P3" s="2" t="s">
         <v>14</v>
@@ -2425,25 +2474,25 @@
     </row>
     <row r="4" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>306</v>
+      <c r="C4" s="25" t="s">
+        <v>409</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>146</v>
-      </c>
-      <c r="G4" s="18" t="s">
-        <v>224</v>
+        <v>143</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>410</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>10</v>
@@ -2455,17 +2504,17 @@
         <v>10</v>
       </c>
       <c r="K4" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L4" s="5"/>
       <c r="M4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="N4" s="5" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="O4" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -2473,7 +2522,7 @@
     </row>
     <row r="5" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>17</v>
@@ -2482,7 +2531,7 @@
         <v>17</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>8</v>
@@ -2491,7 +2540,7 @@
         <v>18</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>10</v>
@@ -2503,20 +2552,20 @@
         <v>10</v>
       </c>
       <c r="K5" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="5" t="s">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="O5" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="Q5" s="5"/>
       <c r="R5" s="2" t="s">
@@ -2525,25 +2574,25 @@
     </row>
     <row r="6" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A6" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>10</v>
@@ -2555,7 +2604,7 @@
         <v>10</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M6" s="3" t="s">
         <v>19</v>
@@ -2565,25 +2614,25 @@
     </row>
     <row r="7" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A7" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>291</v>
+        <v>274</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>10</v>
@@ -2595,7 +2644,7 @@
         <v>10</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="3" t="s">
@@ -2609,25 +2658,25 @@
     </row>
     <row r="8" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A8" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D8" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2688,7 @@
         <v>10</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>19</v>
@@ -2648,25 +2697,25 @@
     </row>
     <row r="9" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A9" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>10</v>
@@ -2678,7 +2727,7 @@
         <v>10</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>19</v>
@@ -2687,25 +2736,25 @@
     </row>
     <row r="10" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A10" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D10" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>147</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>218</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="15" t="s">
-        <v>150</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>228</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>10</v>
@@ -2717,7 +2766,7 @@
         <v>10</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>19</v>
@@ -2726,25 +2775,25 @@
     </row>
     <row r="11" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A11" s="17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D11" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G11" s="19" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>10</v>
@@ -2756,7 +2805,7 @@
         <v>10</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>19</v>
@@ -2765,16 +2814,16 @@
     </row>
     <row r="12" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A12" s="17" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>303</v>
+        <v>283</v>
       </c>
       <c r="D12" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>8</v>
@@ -2783,7 +2832,7 @@
         <v>22</v>
       </c>
       <c r="G12" s="19" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>10</v>
@@ -2795,7 +2844,7 @@
         <v>10</v>
       </c>
       <c r="K12" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="3" t="s">
@@ -2811,25 +2860,25 @@
     </row>
     <row r="13" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="17" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="D13" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G13" s="19" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>10</v>
@@ -2841,47 +2890,47 @@
         <v>10</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N13" s="5" t="s">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P13" s="4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="18" t="s">
-        <v>307</v>
+      <c r="C14" s="25" t="s">
+        <v>395</v>
       </c>
       <c r="D14" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>153</v>
-      </c>
-      <c r="G14" s="18" t="s">
-        <v>232</v>
+        <v>150</v>
+      </c>
+      <c r="G14" s="25" t="s">
+        <v>396</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>10</v>
@@ -2893,23 +2942,23 @@
         <v>10</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P14" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="Q14" s="2" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="R14" s="2" t="s">
         <v>28</v>
@@ -2917,16 +2966,16 @@
     </row>
     <row r="15" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="17" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="D15" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>8</v>
@@ -2935,7 +2984,7 @@
         <v>30</v>
       </c>
       <c r="G15" s="19" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>10</v>
@@ -2947,7 +2996,7 @@
         <v>32</v>
       </c>
       <c r="K15" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L15" s="5">
         <v>3</v>
@@ -2959,35 +3008,35 @@
         <v>34</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P15" s="2" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="5"/>
       <c r="R15" s="5"/>
     </row>
     <row r="16" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="17" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="D16" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E16" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>10</v>
@@ -2999,7 +3048,7 @@
         <v>10</v>
       </c>
       <c r="K16" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L16" s="5"/>
       <c r="M16" s="3" t="s">
@@ -3009,7 +3058,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P16" s="5" t="s">
         <v>37</v>
@@ -3019,25 +3068,25 @@
     </row>
     <row r="17" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>196</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>310</v>
+        <v>188</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>418</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>417</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>155</v>
-      </c>
-      <c r="G17" s="18" t="s">
-        <v>235</v>
+        <v>152</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>419</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>10</v>
@@ -3049,47 +3098,44 @@
         <v>10</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L17" s="5"/>
       <c r="M17" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="O17" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P17" s="2" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="5"/>
       <c r="R17" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A18" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D18" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F18" s="15" t="s">
-        <v>156</v>
+        <v>90</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>10</v>
@@ -3101,11 +3147,11 @@
         <v>10</v>
       </c>
       <c r="K18" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="1"/>
@@ -3115,25 +3161,22 @@
     </row>
     <row r="19" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A19" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D19" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F19" s="15" t="s">
-        <v>157</v>
+        <v>90</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>10</v>
@@ -3145,11 +3188,11 @@
         <v>10</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="1"/>
@@ -3159,25 +3202,22 @@
     </row>
     <row r="20" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A20" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D20" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F20" s="15" t="s">
-        <v>158</v>
+        <v>90</v>
       </c>
       <c r="G20" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>10</v>
@@ -3189,11 +3229,11 @@
         <v>10</v>
       </c>
       <c r="K20" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="1"/>
@@ -3203,25 +3243,22 @@
     </row>
     <row r="21" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D21" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="15" t="s">
-        <v>159</v>
+        <v>90</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>10</v>
@@ -3233,11 +3270,11 @@
         <v>10</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L21" s="5"/>
       <c r="M21" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="1"/>
@@ -3247,25 +3284,22 @@
     </row>
     <row r="22" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A22" s="17" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D22" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>255</v>
+        <v>238</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>10</v>
@@ -3277,11 +3311,11 @@
         <v>10</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="1"/>
@@ -3291,25 +3325,25 @@
     </row>
     <row r="23" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>311</v>
+        <v>287</v>
       </c>
       <c r="D23" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="18" t="s">
-        <v>292</v>
+        <v>103</v>
+      </c>
+      <c r="G23" s="25" t="s">
+        <v>420</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>10</v>
@@ -3321,47 +3355,47 @@
         <v>10</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L23" s="5"/>
       <c r="M23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N23" s="5" t="s">
-        <v>275</v>
+        <v>258</v>
       </c>
       <c r="O23" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P23" s="2" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="5"/>
       <c r="R23" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D24" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G24" s="19" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>10</v>
@@ -3373,7 +3407,7 @@
         <v>10</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L24" s="5"/>
       <c r="M24" s="3" t="s">
@@ -3387,25 +3421,25 @@
     </row>
     <row r="25" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A25" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D25" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F25" s="15" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>10</v>
@@ -3417,7 +3451,7 @@
         <v>10</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L25" s="5"/>
       <c r="M25" s="3" t="s">
@@ -3431,25 +3465,25 @@
     </row>
     <row r="26" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A26" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D26" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="G26" s="18" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>10</v>
@@ -3461,7 +3495,7 @@
         <v>10</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L26" s="5"/>
       <c r="M26" s="3" t="s">
@@ -3475,25 +3509,25 @@
     </row>
     <row r="27" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A27" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D27" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G27" s="18" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>10</v>
@@ -3505,7 +3539,7 @@
         <v>10</v>
       </c>
       <c r="K27" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>13</v>
@@ -3514,25 +3548,25 @@
     </row>
     <row r="28" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A28" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D28" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="G28" s="18" t="s">
-        <v>295</v>
+        <v>277</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>10</v>
@@ -3544,7 +3578,7 @@
         <v>10</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>13</v>
@@ -3553,25 +3587,25 @@
     </row>
     <row r="29" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A29" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D29" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="G29" s="18" t="s">
-        <v>296</v>
+        <v>278</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>10</v>
@@ -3583,7 +3617,7 @@
         <v>10</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>13</v>
@@ -3592,25 +3626,25 @@
     </row>
     <row r="30" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A30" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D30" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G30" s="18" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>10</v>
@@ -3622,7 +3656,7 @@
         <v>10</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M30" s="3" t="s">
         <v>13</v>
@@ -3631,25 +3665,25 @@
     </row>
     <row r="31" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A31" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D31" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>297</v>
+        <v>279</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>10</v>
@@ -3661,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M31" s="3" t="s">
         <v>13</v>
@@ -3670,25 +3704,25 @@
     </row>
     <row r="32" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A32" s="17" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D32" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F32" s="15" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>298</v>
+        <v>280</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>10</v>
@@ -3700,7 +3734,7 @@
         <v>10</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M32" s="3" t="s">
         <v>13</v>
@@ -3709,25 +3743,25 @@
     </row>
     <row r="33" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A33" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>312</v>
+        <v>288</v>
       </c>
       <c r="D33" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>239</v>
+        <v>42</v>
+      </c>
+      <c r="G33" s="25" t="s">
+        <v>411</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>10</v>
@@ -3739,49 +3773,49 @@
         <v>10</v>
       </c>
       <c r="K33" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L33" s="5"/>
       <c r="M33" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="O33" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="R33" s="11" t="s">
         <v>44</v>
-      </c>
-      <c r="N33" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="O33" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="P33" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="R33" s="11" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="C34" s="19" t="s">
-        <v>257</v>
+        <v>240</v>
       </c>
       <c r="D34" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G34" s="19" t="s">
-        <v>240</v>
+        <v>227</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>10</v>
@@ -3793,7 +3827,7 @@
         <v>10</v>
       </c>
       <c r="K34" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L34" s="5"/>
       <c r="M34" s="3"/>
@@ -3805,25 +3839,25 @@
     </row>
     <row r="35" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A35" s="17" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>256</v>
+        <v>239</v>
       </c>
       <c r="D35" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>10</v>
@@ -3835,7 +3869,7 @@
         <v>10</v>
       </c>
       <c r="K35" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L35" s="5"/>
       <c r="M35" s="3"/>
@@ -3847,25 +3881,25 @@
     </row>
     <row r="36" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>313</v>
+        <v>289</v>
       </c>
       <c r="D36" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E36" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>299</v>
+        <v>281</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>10</v>
@@ -3877,47 +3911,47 @@
         <v>10</v>
       </c>
       <c r="K36" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L36" s="5"/>
       <c r="M36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="N36" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="O36" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P36" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q36" s="5"/>
       <c r="R36" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="37" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A37" s="17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D37" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>10</v>
@@ -3929,7 +3963,7 @@
         <v>10</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L37" s="5"/>
       <c r="M37" s="3" t="s">
@@ -3943,25 +3977,25 @@
     </row>
     <row r="38" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A38" s="17" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D38" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>10</v>
@@ -3973,7 +4007,7 @@
         <v>10</v>
       </c>
       <c r="K38" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L38" s="5"/>
       <c r="M38" s="3" t="s">
@@ -3987,25 +4021,25 @@
     </row>
     <row r="39" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A39" s="17" t="s">
-        <v>200</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>314</v>
+        <v>192</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>415</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>416</v>
       </c>
       <c r="D39" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E39" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>10</v>
@@ -4017,39 +4051,39 @@
         <v>10</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L39" s="5"/>
       <c r="M39" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>277</v>
+        <v>260</v>
       </c>
       <c r="O39" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P39" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q39" s="5"/>
       <c r="R39" s="5"/>
     </row>
     <row r="40" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A40" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D40" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>10</v>
@@ -4057,7 +4091,7 @@
       <c r="I40" s="5"/>
       <c r="J40" s="5"/>
       <c r="K40" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L40" s="5"/>
       <c r="M40" s="3"/>
@@ -4069,19 +4103,19 @@
     </row>
     <row r="41" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A41" s="17" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D41" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>10</v>
@@ -4089,7 +4123,7 @@
       <c r="I41" s="5"/>
       <c r="J41" s="5"/>
       <c r="K41" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L41" s="5"/>
       <c r="M41" s="3"/>
@@ -4101,25 +4135,25 @@
     </row>
     <row r="42" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A42" s="17" t="s">
-        <v>201</v>
-      </c>
-      <c r="B42" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>315</v>
+        <v>193</v>
+      </c>
+      <c r="B42" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="C42" s="25" t="s">
+        <v>413</v>
       </c>
       <c r="D42" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E42" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="G42" s="18" t="s">
-        <v>300</v>
+        <v>116</v>
+      </c>
+      <c r="G42" s="25" t="s">
+        <v>412</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>10</v>
@@ -4131,25 +4165,25 @@
         <v>32</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L42" s="5">
         <v>7</v>
       </c>
       <c r="M42" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N42" s="5" t="s">
-        <v>278</v>
+        <v>261</v>
       </c>
       <c r="O42" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P42" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="Q42" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="R42" s="11" t="s">
         <v>9</v>
@@ -4157,19 +4191,19 @@
     </row>
     <row r="43" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A43" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>10</v>
@@ -4179,7 +4213,7 @@
       </c>
       <c r="J43" s="5"/>
       <c r="K43" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L43" s="5"/>
       <c r="M43" s="3"/>
@@ -4191,19 +4225,19 @@
     </row>
     <row r="44" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A44" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D44" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>10</v>
@@ -4213,7 +4247,7 @@
       </c>
       <c r="J44" s="5"/>
       <c r="K44" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L44" s="5"/>
       <c r="M44" s="3"/>
@@ -4225,19 +4259,19 @@
     </row>
     <row r="45" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A45" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D45" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>10</v>
@@ -4247,7 +4281,7 @@
       </c>
       <c r="J45" s="5"/>
       <c r="K45" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L45" s="5"/>
       <c r="M45" s="3"/>
@@ -4259,19 +4293,19 @@
     </row>
     <row r="46" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A46" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D46" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>10</v>
@@ -4281,7 +4315,7 @@
       </c>
       <c r="J46" s="5"/>
       <c r="K46" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L46" s="5"/>
       <c r="M46" s="3"/>
@@ -4293,19 +4327,19 @@
     </row>
     <row r="47" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A47" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D47" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G47" s="19"/>
       <c r="H47" s="2" t="s">
@@ -4316,7 +4350,7 @@
       </c>
       <c r="J47" s="5"/>
       <c r="K47" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L47" s="5"/>
       <c r="M47" s="3"/>
@@ -4328,19 +4362,19 @@
     </row>
     <row r="48" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A48" s="17" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D48" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G48" s="19"/>
       <c r="H48" s="2" t="s">
@@ -4351,7 +4385,7 @@
       </c>
       <c r="J48" s="5"/>
       <c r="K48" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L48" s="5"/>
       <c r="M48" s="3"/>
@@ -4363,25 +4397,25 @@
     </row>
     <row r="49" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A49" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>316</v>
+        <v>290</v>
       </c>
       <c r="D49" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E49" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>173</v>
-      </c>
-      <c r="G49" s="18" t="s">
-        <v>245</v>
+        <v>165</v>
+      </c>
+      <c r="G49" s="25" t="s">
+        <v>423</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>10</v>
@@ -4393,41 +4427,41 @@
         <v>10</v>
       </c>
       <c r="K49" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L49" s="5"/>
       <c r="M49" s="3" t="s">
         <v>19</v>
       </c>
       <c r="N49" s="5" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="O49" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P49" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="Q49" s="5"/>
       <c r="R49" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A50" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D50" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E50" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G50" s="19"/>
       <c r="H50" s="2" t="s">
@@ -4436,7 +4470,7 @@
       <c r="I50" s="5"/>
       <c r="J50" s="5"/>
       <c r="K50" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L50" s="5"/>
       <c r="M50" s="3"/>
@@ -4448,19 +4482,19 @@
     </row>
     <row r="51" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A51" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D51" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G51" s="19"/>
       <c r="H51" s="2" t="s">
@@ -4469,7 +4503,7 @@
       <c r="I51" s="5"/>
       <c r="J51" s="5"/>
       <c r="K51" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L51" s="5"/>
       <c r="M51" s="3"/>
@@ -4481,19 +4515,19 @@
     </row>
     <row r="52" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A52" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D52" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G52" s="19"/>
       <c r="H52" s="2" t="s">
@@ -4502,7 +4536,7 @@
       <c r="I52" s="5"/>
       <c r="J52" s="5"/>
       <c r="K52" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L52" s="5"/>
       <c r="M52" s="3"/>
@@ -4514,19 +4548,19 @@
     </row>
     <row r="53" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A53" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D53" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G53" s="19"/>
       <c r="H53" s="2" t="s">
@@ -4535,7 +4569,7 @@
       <c r="I53" s="5"/>
       <c r="J53" s="5"/>
       <c r="K53" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L53" s="5"/>
       <c r="M53" s="3"/>
@@ -4547,19 +4581,19 @@
     </row>
     <row r="54" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A54" s="17" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D54" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G54" s="19"/>
       <c r="H54" s="2" t="s">
@@ -4568,7 +4602,7 @@
       <c r="I54" s="5"/>
       <c r="J54" s="5"/>
       <c r="K54" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L54" s="5"/>
       <c r="M54" s="3"/>
@@ -4580,25 +4614,25 @@
     </row>
     <row r="55" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A55" s="17" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>317</v>
+        <v>291</v>
       </c>
       <c r="D55" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E55" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G55" s="18" t="s">
-        <v>246</v>
+        <v>232</v>
       </c>
       <c r="H55" s="5" t="s">
         <v>32</v>
@@ -4607,50 +4641,50 @@
         <v>25</v>
       </c>
       <c r="J55" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K55" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L55" s="5"/>
       <c r="M55" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N55" s="5" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="O55" s="9" t="s">
-        <v>261</v>
+        <v>244</v>
       </c>
       <c r="P55" s="2" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="Q55" s="5"/>
       <c r="R55" s="2" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>318</v>
+        <v>292</v>
       </c>
       <c r="D56" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E56" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>175</v>
-      </c>
-      <c r="G56" s="19" t="s">
-        <v>247</v>
+        <v>167</v>
+      </c>
+      <c r="G56" s="25" t="s">
+        <v>388</v>
       </c>
       <c r="H56" s="5" t="s">
         <v>32</v>
@@ -4659,50 +4693,50 @@
         <v>15</v>
       </c>
       <c r="J56" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K56" s="5">
         <v>15</v>
       </c>
       <c r="L56" s="5"/>
       <c r="M56" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N56" s="5" t="s">
-        <v>281</v>
+        <v>264</v>
       </c>
       <c r="O56" s="9" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
       <c r="P56" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Q56" s="5"/>
       <c r="R56" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A57" s="17" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>319</v>
+        <v>56</v>
+      </c>
+      <c r="C57" s="25" t="s">
+        <v>390</v>
       </c>
       <c r="D57" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="G57" s="15" t="s">
-        <v>301</v>
+        <v>391</v>
       </c>
       <c r="H57" s="5" t="s">
         <v>32</v>
@@ -4711,48 +4745,48 @@
         <v>14</v>
       </c>
       <c r="J57" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L57" s="5"/>
       <c r="M57" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N57" s="5" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="O57" s="9" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="P57" s="3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="Q57" s="5"/>
       <c r="R57" s="5"/>
     </row>
     <row r="58" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A58" s="17" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>320</v>
+        <v>293</v>
       </c>
       <c r="D58" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E58" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="G58" s="18" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="H58" s="5" t="s">
         <v>32</v>
@@ -4761,50 +4795,50 @@
         <v>12</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K58" s="5">
         <v>12</v>
       </c>
       <c r="L58" s="5"/>
       <c r="M58" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N58" s="5" t="s">
-        <v>283</v>
+        <v>266</v>
       </c>
       <c r="O58" s="9" t="s">
-        <v>267</v>
+        <v>250</v>
       </c>
       <c r="P58" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="Q58" s="5"/>
       <c r="R58" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>321</v>
+        <v>294</v>
       </c>
       <c r="D59" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E59" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F59" s="15" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G59" s="18" t="s">
-        <v>302</v>
+        <v>282</v>
       </c>
       <c r="H59" s="5" t="s">
         <v>32</v>
@@ -4818,41 +4852,41 @@
       </c>
       <c r="L59" s="5"/>
       <c r="M59" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N59" s="5" t="s">
-        <v>284</v>
+        <v>267</v>
       </c>
       <c r="O59" s="9" t="s">
-        <v>263</v>
+        <v>246</v>
       </c>
       <c r="P59" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="Q59" s="5"/>
       <c r="R59" s="5"/>
     </row>
     <row r="60" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A60" s="17" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="D60" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E60" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F60" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="G60" s="18" t="s">
-        <v>249</v>
+        <v>64</v>
+      </c>
+      <c r="G60" s="25" t="s">
+        <v>421</v>
       </c>
       <c r="H60" s="5" t="s">
         <v>10</v>
@@ -4864,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="K60" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L60" s="5"/>
       <c r="M60" s="3" t="s">
@@ -4872,35 +4906,35 @@
       </c>
       <c r="N60" s="5"/>
       <c r="O60" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P60" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q60" s="5"/>
       <c r="R60" s="5"/>
     </row>
     <row r="61" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A61" s="17" t="s">
-        <v>329</v>
+        <v>297</v>
       </c>
       <c r="B61" s="18" t="s">
-        <v>330</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>322</v>
+        <v>298</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>429</v>
       </c>
       <c r="D61" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E61" s="4" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="15" t="s">
-        <v>332</v>
-      </c>
-      <c r="G61" s="18" t="s">
-        <v>333</v>
+        <v>299</v>
+      </c>
+      <c r="G61" s="25" t="s">
+        <v>422</v>
       </c>
       <c r="H61" s="5" t="s">
         <v>10</v>
@@ -4912,7 +4946,7 @@
         <v>10</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L61" s="5"/>
       <c r="M61" s="3" t="s">
@@ -4920,35 +4954,35 @@
       </c>
       <c r="N61" s="5"/>
       <c r="O61" s="9" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="Q61" s="5"/>
       <c r="R61" s="5"/>
     </row>
     <row r="62" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="B62" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>323</v>
+        <v>65</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>430</v>
       </c>
       <c r="D62" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E62" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F62" s="15" t="s">
-        <v>254</v>
+        <v>237</v>
       </c>
       <c r="G62" s="18" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="H62" s="5" t="s">
         <v>32</v>
@@ -4957,50 +4991,50 @@
         <v>15</v>
       </c>
       <c r="J62" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K62" s="5">
         <v>15</v>
       </c>
       <c r="L62" s="5"/>
       <c r="M62" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N62" s="5" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="O62" s="9" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P62" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="Q62" s="5"/>
       <c r="R62" s="5" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A63" s="17" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>324</v>
+        <v>67</v>
+      </c>
+      <c r="C63" s="25" t="s">
+        <v>431</v>
       </c>
       <c r="D63" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E63" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F63" s="15" t="s">
-        <v>179</v>
-      </c>
-      <c r="G63" s="19" t="s">
-        <v>251</v>
+        <v>171</v>
+      </c>
+      <c r="G63" s="25" t="s">
+        <v>387</v>
       </c>
       <c r="H63" s="5" t="s">
         <v>32</v>
@@ -5009,48 +5043,48 @@
         <v>8</v>
       </c>
       <c r="J63" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K63" s="5">
         <v>8</v>
       </c>
       <c r="L63" s="5"/>
       <c r="M63" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="N63" s="5" t="s">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="O63" s="9" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="P63" s="2" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="Q63" s="5"/>
       <c r="R63" s="5"/>
     </row>
     <row r="64" spans="1:18" ht="21" x14ac:dyDescent="0.35">
       <c r="A64" s="17" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="D64" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E64" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F64" s="15" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="G64" s="19" t="s">
-        <v>252</v>
+        <v>235</v>
       </c>
       <c r="H64" s="5" t="s">
         <v>10</v>
@@ -5062,45 +5096,45 @@
         <v>10</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L64" s="5"/>
       <c r="M64" s="3" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="N64" s="5"/>
       <c r="O64" s="1"/>
       <c r="P64" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="Q64" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="R64" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>326</v>
+        <v>72</v>
+      </c>
+      <c r="C65" s="25" t="s">
+        <v>432</v>
       </c>
       <c r="D65" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E65" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F65" s="15" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="G65" s="20" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
       <c r="H65" s="5" t="s">
         <v>32</v>
@@ -5109,7 +5143,7 @@
         <v>15</v>
       </c>
       <c r="J65" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K65" s="5">
         <v>15</v>
@@ -5119,40 +5153,40 @@
         <v>23</v>
       </c>
       <c r="N65" s="5" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="O65" s="9" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
       <c r="P65" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="Q65" s="5"/>
       <c r="R65" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A66" s="17" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>327</v>
+        <v>74</v>
+      </c>
+      <c r="C66" s="25" t="s">
+        <v>392</v>
       </c>
       <c r="D66" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E66" s="19" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F66" s="15" t="s">
-        <v>180</v>
-      </c>
-      <c r="G66" s="19" t="s">
-        <v>253</v>
+        <v>172</v>
+      </c>
+      <c r="G66" s="25" t="s">
+        <v>236</v>
       </c>
       <c r="H66" s="5" t="s">
         <v>32</v>
@@ -5164,15 +5198,15 @@
         <v>10</v>
       </c>
       <c r="K66" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="L66" s="5"/>
       <c r="M66" s="5"/>
       <c r="N66" s="5" t="s">
-        <v>288</v>
+        <v>271</v>
       </c>
       <c r="O66" s="9" t="s">
-        <v>265</v>
+        <v>248</v>
       </c>
       <c r="P66" s="5"/>
       <c r="Q66" s="5"/>
@@ -5180,629 +5214,641 @@
     </row>
     <row r="67" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A67" s="17" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="B67" s="21" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="C67" s="21" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
       <c r="D67" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="F67" s="15" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="G67" s="14" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="H67" s="13" t="s">
         <v>10</v>
       </c>
       <c r="J67" s="12" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="K67" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="M67" s="3" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="N67" s="9" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
       <c r="O67" s="9" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B68" s="22" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="D68" s="21" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E68" s="22" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
       <c r="F68" s="22" t="s">
-        <v>349</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>350</v>
+        <v>315</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>426</v>
       </c>
       <c r="H68" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N68" s="9" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="O68" s="9" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A69" s="17" t="s">
-        <v>351</v>
+        <v>316</v>
       </c>
       <c r="B69" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>353</v>
+        <v>317</v>
+      </c>
+      <c r="C69" s="25" t="s">
+        <v>433</v>
       </c>
       <c r="D69" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E69" s="22" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>354</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>434</v>
+        <v>318</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>389</v>
       </c>
       <c r="H69" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N69" s="9" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="O69" s="9" t="s">
-        <v>423</v>
+        <v>377</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A70" s="17" t="s">
-        <v>360</v>
+        <v>324</v>
       </c>
       <c r="B70" s="22" t="s">
-        <v>357</v>
+        <v>321</v>
       </c>
       <c r="C70" s="22" t="s">
-        <v>356</v>
+        <v>320</v>
       </c>
       <c r="D70" s="22" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F70" s="24" t="s">
-        <v>437</v>
+        <v>386</v>
       </c>
       <c r="G70" s="22" t="s">
-        <v>359</v>
+        <v>323</v>
       </c>
       <c r="H70" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="O70" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>355</v>
+        <v>319</v>
       </c>
       <c r="B71" s="22" t="s">
-        <v>361</v>
+        <v>325</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>362</v>
+        <v>434</v>
       </c>
       <c r="D71" s="22" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>258</v>
+        <v>241</v>
       </c>
       <c r="F71" s="24" t="s">
-        <v>436</v>
+        <v>385</v>
       </c>
       <c r="G71" s="24" t="s">
-        <v>435</v>
+        <v>384</v>
       </c>
       <c r="H71" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N71" s="9" t="s">
-        <v>420</v>
+        <v>374</v>
       </c>
       <c r="O71" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A72" s="17" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="B72" s="22" t="s">
-        <v>364</v>
-      </c>
-      <c r="C72" s="22" t="s">
-        <v>365</v>
+        <v>327</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>328</v>
       </c>
       <c r="D72" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E72" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F72" s="22" t="s">
-        <v>371</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>366</v>
+        <v>333</v>
+      </c>
+      <c r="G72" s="25" t="s">
+        <v>425</v>
       </c>
       <c r="H72" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N72" s="9" t="s">
-        <v>419</v>
+        <v>373</v>
       </c>
       <c r="O72" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A73" s="17" t="s">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="B73" s="22" t="s">
-        <v>368</v>
+        <v>330</v>
       </c>
       <c r="C73" s="22" t="s">
-        <v>369</v>
+        <v>331</v>
       </c>
       <c r="D73" s="22" t="s">
-        <v>358</v>
+        <v>322</v>
       </c>
       <c r="E73" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="22" t="s">
-        <v>370</v>
+        <v>332</v>
       </c>
       <c r="G73" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="H73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="N73" s="9" t="s">
         <v>372</v>
       </c>
-      <c r="H73" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="N73" s="9" t="s">
-        <v>418</v>
-      </c>
       <c r="O73" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>373</v>
+        <v>335</v>
       </c>
       <c r="B74" s="22" t="s">
-        <v>386</v>
+        <v>345</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>374</v>
+        <v>435</v>
       </c>
       <c r="D74" s="22" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E74" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F74" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G74" s="24" t="s">
-        <v>432</v>
+        <v>380</v>
+      </c>
+      <c r="G74" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="H74" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N74" s="9" t="s">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="O74" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A75" s="17" t="s">
-        <v>375</v>
+        <v>336</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>384</v>
+        <v>343</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>385</v>
+        <v>344</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E75" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="24" t="s">
-        <v>428</v>
-      </c>
-      <c r="G75" s="24" t="s">
-        <v>433</v>
+        <v>380</v>
+      </c>
+      <c r="G75" s="25" t="s">
+        <v>402</v>
       </c>
       <c r="H75" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N75" s="9" t="s">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="O75" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A76" s="17" t="s">
-        <v>376</v>
+        <v>337</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>382</v>
+        <v>436</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E76" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="15" t="s">
-        <v>387</v>
+        <v>346</v>
       </c>
       <c r="G76" s="15" t="s">
-        <v>388</v>
+        <v>347</v>
       </c>
       <c r="H76" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N76" s="9" t="s">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="O76" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A77" s="17" t="s">
-        <v>377</v>
+        <v>338</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>383</v>
+        <v>408</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E77" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="15" t="s">
-        <v>429</v>
+        <v>381</v>
       </c>
       <c r="G77" s="15" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="H77" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N77" s="9" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="O77" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="21" x14ac:dyDescent="0.25">
       <c r="A78" s="17" t="s">
-        <v>378</v>
+        <v>339</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>379</v>
+        <v>340</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E78" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="15" t="s">
-        <v>389</v>
+        <v>406</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>390</v>
+        <v>407</v>
       </c>
       <c r="H78" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N78" s="9" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="O78" s="9" t="s">
-        <v>425</v>
+        <v>379</v>
+      </c>
+      <c r="P78" s="28" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>405</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A79" s="23" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>392</v>
+        <v>349</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>393</v>
+        <v>350</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E79" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="15" t="s">
-        <v>430</v>
+        <v>382</v>
       </c>
       <c r="G79" s="15" t="s">
-        <v>431</v>
+        <v>383</v>
       </c>
       <c r="H79" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="O79" s="9" t="s">
-        <v>424</v>
+        <v>378</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A80" s="23" t="s">
-        <v>391</v>
+        <v>348</v>
       </c>
       <c r="B80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H80" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A81" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D81" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H81" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A82" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C82" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D82" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H82" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A83" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="C80" s="4" t="s">
+      <c r="C83" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D80" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H80" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A81" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="B81" s="4" t="s">
+      <c r="D83" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H83" s="13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A84" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C81" s="4" t="s">
+      <c r="C84" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="D81" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H81" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A82" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="B82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="C82" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H82" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A83" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="C83" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="H83" s="13" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A84" s="23" t="s">
-        <v>391</v>
-      </c>
-      <c r="B84" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>124</v>
-      </c>
       <c r="D84" s="19" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A85" s="23" t="s">
-        <v>394</v>
+        <v>351</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>395</v>
+        <v>352</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>396</v>
+        <v>353</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E85" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F85" s="15" t="s">
-        <v>397</v>
+        <v>354</v>
       </c>
       <c r="G85" s="15" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="H85" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N85" s="9" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="O85" s="9" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="17" t="s">
-        <v>398</v>
+        <v>355</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>399</v>
+        <v>356</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>400</v>
+        <v>357</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E86" s="22" t="s">
         <v>8</v>
       </c>
       <c r="F86" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G86" s="25" t="s">
         <v>401</v>
       </c>
-      <c r="G86" s="22" t="s">
-        <v>402</v>
-      </c>
       <c r="H86" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N86" s="9" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="O86" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="E87" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="15" t="s">
-        <v>405</v>
+      <c r="F87" s="27" t="s">
+        <v>397</v>
       </c>
       <c r="G87" s="15" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="H87" s="13" t="s">
         <v>10</v>
       </c>
       <c r="N87" s="9" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="O87" s="9" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+      <c r="P87" s="26" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G94" s="19"/>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="G95" s="19"/>
     </row>
     <row r="102" spans="7:7" x14ac:dyDescent="0.25">
@@ -5899,7 +5945,7 @@
       <c r="G139" s="19"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>

--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B6DD1-C2C8-4E68-9A4F-86C24D93966F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798657CC-DD26-42C7-B7C0-F90ABA602F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="451">
   <si>
     <t>name</t>
   </si>
@@ -1772,6 +1772,32 @@
   </si>
   <si>
     <t>https://pubmed.ncbi.nlm.nih.gov/21424189/</t>
+  </si>
+  <si>
+    <t>MES</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=MES</t>
+  </si>
+  <si>
+    <t>https://www.frontiersin.org/articles/10.3389/fnbeh.2018.00153/full</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music-Empathizing-Music-Systemizing (MEMS) Inventory (Short Version)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Music-Empathizing-Music-Systemizing (MEMS) Inventar (Kurzversion)
+</t>
+  </si>
+  <si>
+    <t>en.de</t>
+  </si>
+  <si>
+    <t>The Music-Empathizing-Music-Systemizing (ME-MS) Inventory extend Baron-Cohen's cognitive style theory to the domain of music.</t>
+  </si>
+  <si>
+    <t>Das Music-Empathizing-Music-Systemizing Inventar dehnt Baron-Cohens Theorie kognitiver Stile auf das Gebiet der Musik aus.</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +2007,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2051,6 +2077,24 @@
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2368,11 +2412,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
-  <dimension ref="A1:R139"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R79" sqref="R79"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U79" sqref="U79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -4137,7 +4181,7 @@
       <c r="M39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="N39" s="2" t="s">
+      <c r="N39" s="3" t="s">
         <v>260</v>
       </c>
       <c r="O39" s="3" t="s">
@@ -5703,62 +5747,78 @@
         <v>399</v>
       </c>
     </row>
-    <row r="79" spans="1:18" ht="23.25">
-      <c r="A79" s="13" t="s">
-        <v>343</v>
-      </c>
-      <c r="B79" s="5" t="s">
-        <v>344</v>
-      </c>
-      <c r="C79" s="5" t="s">
-        <v>345</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E79" s="12" t="s">
+    <row r="79" spans="1:18" s="26" customFormat="1" ht="63">
+      <c r="A79" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B79" s="25" t="s">
+        <v>446</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>447</v>
+      </c>
+      <c r="D79" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="E79" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="G79" s="5" t="s">
-        <v>377</v>
-      </c>
-      <c r="H79" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N79" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="O79" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="P79" s="23" t="s">
-        <v>441</v>
-      </c>
-      <c r="R79" s="5" t="s">
-        <v>442</v>
+      <c r="F79" s="26" t="s">
+        <v>449</v>
+      </c>
+      <c r="G79" s="26" t="s">
+        <v>450</v>
+      </c>
+      <c r="H79" s="27"/>
+      <c r="M79" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N79" s="28" t="s">
+        <v>444</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>373</v>
+      </c>
+      <c r="P79" s="29" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="23.25">
       <c r="A80" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>90</v>
+      <c r="B80" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>377</v>
       </c>
       <c r="H80" s="12" t="s">
         <v>10</v>
+      </c>
+      <c r="N80" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O80" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P80" s="23" t="s">
+        <v>441</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="23.25">
@@ -5766,10 +5826,10 @@
         <v>343</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>210</v>
@@ -5786,10 +5846,10 @@
         <v>343</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D82" s="9" t="s">
         <v>210</v>
@@ -5806,10 +5866,10 @@
         <v>343</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>210</v>
@@ -5826,10 +5886,10 @@
         <v>343</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>210</v>
@@ -5843,45 +5903,33 @@
     </row>
     <row r="85" spans="1:17" ht="23.25">
       <c r="A85" s="13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" ht="23.25">
+      <c r="A86" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="B85" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="C85" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>431</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E85" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="G85" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H85" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N85" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="O85" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" ht="21">
-      <c r="A86" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>350</v>
-      </c>
-      <c r="C86" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>210</v>
@@ -5890,30 +5938,30 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="G86" s="15" t="s">
-        <v>395</v>
+        <v>348</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>418</v>
       </c>
       <c r="H86" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N86" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="O86" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="21">
       <c r="A87" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>210</v>
@@ -5921,36 +5969,65 @@
       <c r="E87" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="16" t="s">
-        <v>391</v>
-      </c>
-      <c r="G87" s="5" t="s">
-        <v>394</v>
+      <c r="F87" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>395</v>
       </c>
       <c r="H87" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N87" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="O87" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="P87" s="16" t="s">
+    </row>
+    <row r="88" spans="1:17" ht="21">
+      <c r="A88" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="P88" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="Q87" s="5" t="s">
+      <c r="Q88" s="5" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="94" spans="1:17">
-      <c r="G94" s="9"/>
     </row>
     <row r="95" spans="1:17">
       <c r="G95" s="9"/>
     </row>
-    <row r="102" spans="7:7">
-      <c r="G102" s="9"/>
+    <row r="96" spans="1:17">
+      <c r="G96" s="9"/>
     </row>
     <row r="103" spans="7:7">
       <c r="G103" s="9"/>
@@ -5958,8 +6035,8 @@
     <row r="104" spans="7:7">
       <c r="G104" s="9"/>
     </row>
-    <row r="109" spans="7:7">
-      <c r="G109" s="9"/>
+    <row r="105" spans="7:7">
+      <c r="G105" s="9"/>
     </row>
     <row r="110" spans="7:7">
       <c r="G110" s="9"/>
@@ -5985,8 +6062,8 @@
     <row r="117" spans="7:7">
       <c r="G117" s="9"/>
     </row>
-    <row r="121" spans="7:7">
-      <c r="G121" s="9"/>
+    <row r="118" spans="7:7">
+      <c r="G118" s="9"/>
     </row>
     <row r="122" spans="7:7">
       <c r="G122" s="9"/>
@@ -6041,6 +6118,9 @@
     </row>
     <row r="139" spans="7:7">
       <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="7:7">
+      <c r="G140" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -6090,28 +6170,30 @@
     <hyperlink ref="N76" r:id="rId43" xr:uid="{085DF4E6-0857-4F52-B888-AB2AA65C8E11}"/>
     <hyperlink ref="N77" r:id="rId44" xr:uid="{C2D445B9-1683-436A-AA87-7CE4E2D2B129}"/>
     <hyperlink ref="N78" r:id="rId45" xr:uid="{5D55D737-5EEE-4A44-9266-74EFB0F6A55B}"/>
-    <hyperlink ref="N79" r:id="rId46" xr:uid="{719C0F73-D177-4FC7-A032-E81D845F0146}"/>
-    <hyperlink ref="N85" r:id="rId47" xr:uid="{2D5B57D7-4E19-402F-A3D1-0190D1D111E9}"/>
-    <hyperlink ref="N86" r:id="rId48" xr:uid="{2A8A5E7D-6F75-435C-8798-DADA79207756}"/>
-    <hyperlink ref="N87" r:id="rId49" xr:uid="{046E1E83-08DD-4ABD-BE67-51826BD94B40}"/>
+    <hyperlink ref="N80" r:id="rId46" xr:uid="{719C0F73-D177-4FC7-A032-E81D845F0146}"/>
+    <hyperlink ref="N86" r:id="rId47" xr:uid="{2D5B57D7-4E19-402F-A3D1-0190D1D111E9}"/>
+    <hyperlink ref="N87" r:id="rId48" xr:uid="{2A8A5E7D-6F75-435C-8798-DADA79207756}"/>
+    <hyperlink ref="N88" r:id="rId49" xr:uid="{046E1E83-08DD-4ABD-BE67-51826BD94B40}"/>
     <hyperlink ref="O68" r:id="rId50" xr:uid="{14DAF574-A575-4913-97D6-38E4F9A36D4C}"/>
     <hyperlink ref="O69" r:id="rId51" xr:uid="{26C01D2D-D88D-4CED-8216-CFA5AB9F6B5C}"/>
     <hyperlink ref="O70" r:id="rId52" xr:uid="{F233D98D-6C14-4E46-8903-114F3B2E7739}"/>
     <hyperlink ref="O71" r:id="rId53" xr:uid="{EC310FAA-84BF-4E0E-92E5-EE244577AF79}"/>
     <hyperlink ref="O72" r:id="rId54" xr:uid="{1E2C866D-C13F-4B54-A20B-D5E421419C19}"/>
     <hyperlink ref="O73" r:id="rId55" xr:uid="{447A9882-6201-4486-83F3-EF15DC5A23B5}"/>
-    <hyperlink ref="O79" r:id="rId56" xr:uid="{257548C8-8554-4760-850B-FC1770457B9B}"/>
-    <hyperlink ref="O85" r:id="rId57" xr:uid="{9400E53B-43FA-4DE0-A03E-E5942B254DA7}"/>
+    <hyperlink ref="O80" r:id="rId56" xr:uid="{257548C8-8554-4760-850B-FC1770457B9B}"/>
+    <hyperlink ref="O86" r:id="rId57" xr:uid="{9400E53B-43FA-4DE0-A03E-E5942B254DA7}"/>
     <hyperlink ref="O74" r:id="rId58" xr:uid="{D0C3DB44-1D89-43D7-925A-2A8213C2FC99}"/>
     <hyperlink ref="O75" r:id="rId59" xr:uid="{9060BDD3-10ED-486F-919B-7C46AB43CE72}"/>
     <hyperlink ref="O76" r:id="rId60" xr:uid="{57D64F97-E371-41B8-8C86-1DD27711CEED}"/>
     <hyperlink ref="O77" r:id="rId61" xr:uid="{BE31E0FB-6FDD-4A16-B1A6-D967EBBA604D}"/>
     <hyperlink ref="O78" r:id="rId62" xr:uid="{932F5256-5AF7-47C3-93E7-D4FFD6CEE619}"/>
-    <hyperlink ref="O86" r:id="rId63" xr:uid="{4B94D87A-2556-4E8B-BFF8-B4465BDF0633}"/>
-    <hyperlink ref="O87" r:id="rId64" xr:uid="{82BCE4C9-D795-4AB2-9202-309AD9F062A0}"/>
+    <hyperlink ref="O87" r:id="rId63" xr:uid="{4B94D87A-2556-4E8B-BFF8-B4465BDF0633}"/>
+    <hyperlink ref="O88" r:id="rId64" xr:uid="{82BCE4C9-D795-4AB2-9202-309AD9F062A0}"/>
     <hyperlink ref="R14" r:id="rId65" xr:uid="{83B92E27-A4C1-44FF-9FB3-FFFB798C2014}"/>
+    <hyperlink ref="N79" r:id="rId66" xr:uid="{18247FD7-8A34-4BF4-87E7-25ADE7E59731}"/>
+    <hyperlink ref="N39" r:id="rId67" xr:uid="{A113D5AA-DAD2-4191-B317-FAF70C3C58C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId66"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{798657CC-DD26-42C7-B7C0-F90ABA602F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF83CF9-3770-480B-9D29-AB048FA2D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="451">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="458">
   <si>
     <t>name</t>
   </si>
@@ -1101,9 +1101,6 @@
     <t>Der TOI-Fragebogen mit sieben Items fragt nach den Einstellungen der Personen zur Intelligenz. Die zentrale Frage ist, ob die Schüler Intelligenz als etwas Statisches und Unveränderliches (entity view) oder als etwas Fließendes und Veränderliches (incremental view) betrachten.</t>
   </si>
   <si>
-    <t>Das Beatwahrnehmungs-Test erfasst die Fähigkeit der Schüler, einen Beat innerhalb eines kurzen Musikausschnitts zu erkennen und zu bewerten. Jeder Musikausschnitt (Jazz, Rock oder orchestraler Pop) wird zweimal mit hinzugefügten Pieptönen abgespielt. Die Schüler müssen entscheiden, in welcher Version des Ausschnitts die Pieptöne außerhalb des Beats der Musik liegen.</t>
-  </si>
-  <si>
     <t>Dieser Melodieunterscheidungstest misst die Fähigkeit, ähnliche, aber leicht veränderte Melodien voneinander zu unterscheiden. Jedes Item besteht aus drei Versionen der gleichen Melodie. Die drei Versionen liegen in unterschiedlichen Tonarten vor und zusätzlich sind in einer der Versionen einige Noten verändert worden. Die Aufgabe besteht darin, die Version mit den geänderten Noten zu benennen.</t>
   </si>
   <si>
@@ -1798,6 +1795,30 @@
   </si>
   <si>
     <t>Das Music-Empathizing-Music-Systemizing Inventar dehnt Baron-Cohens Theorie kognitiver Stile auf das Gebiet der Musik aus.</t>
+  </si>
+  <si>
+    <t>MSA</t>
+  </si>
+  <si>
+    <t>Musical Scene Analysis Test</t>
+  </si>
+  <si>
+    <t>Musikalische Szenenanalyse Test</t>
+  </si>
+  <si>
+    <t>The MSA records the ability of the students to recognize and evaluate a instrument sample in a musical mix.</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=MSA</t>
+  </si>
+  <si>
+    <t>https://github.com/rhake14/MSA</t>
+  </si>
+  <si>
+    <t>Der Musikalische-Szenenanalyse-Test erfasst die Fähigkeit ein eine kurzes Sample in einem komplexen Mix zu entdecken.</t>
+  </si>
+  <si>
+    <t>Der Beatwahrnehmungs-Test erfasst die Fähigkeit der Schüler, einen Beat innerhalb eines kurzen Musikausschnitts zu erkennen und zu bewerten. Jeder Musikausschnitt (Jazz, Rock oder orchestraler Pop) wird zweimal mit hinzugefügten Pieptönen abgespielt. Die Schüler müssen entscheiden, in welcher Version des Ausschnitts die Pieptöne außerhalb des Beats der Musik liegen.</t>
   </si>
 </sst>
 </file>
@@ -2007,7 +2028,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2095,6 +2116,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2414,9 +2438,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:R140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="U79" sqref="U79"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -2458,7 +2482,7 @@
         <v>213</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="H1" s="6" t="s">
         <v>208</v>
@@ -2482,7 +2506,7 @@
         <v>2</v>
       </c>
       <c r="O1" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="P1" s="6" t="s">
         <v>4</v>
@@ -2502,7 +2526,7 @@
         <v>11</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>210</v>
@@ -2514,7 +2538,7 @@
         <v>141</v>
       </c>
       <c r="G2" s="15" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>10</v>
@@ -2533,10 +2557,10 @@
         <v>70</v>
       </c>
       <c r="N2" s="18" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>134</v>
@@ -2554,7 +2578,7 @@
         <v>12</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>210</v>
@@ -2585,10 +2609,10 @@
         <v>13</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P3" s="1" t="s">
         <v>14</v>
@@ -2604,7 +2628,7 @@
         <v>15</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>210</v>
@@ -2616,7 +2640,7 @@
         <v>143</v>
       </c>
       <c r="G4" s="15" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>10</v>
@@ -2635,10 +2659,10 @@
         <v>16</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
@@ -2683,10 +2707,10 @@
         <v>19</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="O5" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>135</v>
@@ -2716,7 +2740,7 @@
         <v>131</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>10</v>
@@ -2756,7 +2780,7 @@
         <v>144</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>10</v>
@@ -2944,7 +2968,7 @@
         <v>21</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>210</v>
@@ -2990,7 +3014,7 @@
         <v>25</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>210</v>
@@ -3021,10 +3045,10 @@
         <v>26</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P13" s="2" t="s">
         <v>134</v>
@@ -3042,7 +3066,7 @@
         <v>27</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>210</v>
@@ -3054,7 +3078,7 @@
         <v>150</v>
       </c>
       <c r="G14" s="15" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>10</v>
@@ -3073,10 +3097,10 @@
         <v>13</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P14" s="1" t="s">
         <v>75</v>
@@ -3096,7 +3120,7 @@
         <v>29</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>210</v>
@@ -3132,7 +3156,7 @@
         <v>34</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P15" s="1" t="s">
         <v>77</v>
@@ -3148,7 +3172,7 @@
         <v>35</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D16" s="9" t="s">
         <v>210</v>
@@ -3182,7 +3206,7 @@
         <v>36</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P16" s="2" t="s">
         <v>37</v>
@@ -3195,10 +3219,10 @@
         <v>188</v>
       </c>
       <c r="B17" s="15" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D17" s="9" t="s">
         <v>210</v>
@@ -3210,7 +3234,7 @@
         <v>152</v>
       </c>
       <c r="G17" s="15" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>10</v>
@@ -3229,10 +3253,10 @@
         <v>33</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P17" s="1" t="s">
         <v>78</v>
@@ -3259,7 +3283,7 @@
         <v>90</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>10</v>
@@ -3300,7 +3324,7 @@
         <v>90</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>10</v>
@@ -3341,7 +3365,7 @@
         <v>90</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>10</v>
@@ -3382,7 +3406,7 @@
         <v>90</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>10</v>
@@ -3423,7 +3447,7 @@
         <v>90</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>10</v>
@@ -3455,7 +3479,7 @@
         <v>39</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>210</v>
@@ -3467,7 +3491,7 @@
         <v>103</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>10</v>
@@ -3486,10 +3510,10 @@
         <v>13</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P23" s="1" t="s">
         <v>79</v>
@@ -3563,7 +3587,7 @@
         <v>153</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>10</v>
@@ -3651,7 +3675,7 @@
         <v>155</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>10</v>
@@ -3690,7 +3714,7 @@
         <v>156</v>
       </c>
       <c r="G28" s="8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>10</v>
@@ -3729,7 +3753,7 @@
         <v>157</v>
       </c>
       <c r="G29" s="8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>10</v>
@@ -3807,7 +3831,7 @@
         <v>159</v>
       </c>
       <c r="G31" s="8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>10</v>
@@ -3846,7 +3870,7 @@
         <v>160</v>
       </c>
       <c r="G32" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>10</v>
@@ -3873,7 +3897,7 @@
         <v>41</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D33" s="9" t="s">
         <v>210</v>
@@ -3885,7 +3909,7 @@
         <v>42</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>10</v>
@@ -3904,10 +3928,10 @@
         <v>43</v>
       </c>
       <c r="N33" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="O33" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P33" s="1" t="s">
         <v>80</v>
@@ -3924,10 +3948,10 @@
         <v>190</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D34" s="9" t="s">
         <v>210</v>
@@ -3966,10 +3990,10 @@
         <v>190</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D35" s="9" t="s">
         <v>210</v>
@@ -4011,7 +4035,7 @@
         <v>45</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" s="9" t="s">
         <v>210</v>
@@ -4023,7 +4047,7 @@
         <v>46</v>
       </c>
       <c r="G36" s="8" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>10</v>
@@ -4045,7 +4069,7 @@
         <v>47</v>
       </c>
       <c r="O36" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P36" s="1" t="s">
         <v>82</v>
@@ -4148,10 +4172,10 @@
         <v>192</v>
       </c>
       <c r="B39" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="C39" s="15" t="s">
         <v>409</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>410</v>
       </c>
       <c r="D39" s="9" t="s">
         <v>210</v>
@@ -4182,10 +4206,10 @@
         <v>49</v>
       </c>
       <c r="N39" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="O39" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P39" s="1" t="s">
         <v>83</v>
@@ -4262,10 +4286,10 @@
         <v>193</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D42" s="9" t="s">
         <v>210</v>
@@ -4277,7 +4301,7 @@
         <v>116</v>
       </c>
       <c r="G42" s="15" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>10</v>
@@ -4298,10 +4322,10 @@
         <v>49</v>
       </c>
       <c r="N42" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="O42" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P42" s="1" t="s">
         <v>134</v>
@@ -4527,7 +4551,7 @@
         <v>50</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>210</v>
@@ -4539,7 +4563,7 @@
         <v>165</v>
       </c>
       <c r="G49" s="15" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>10</v>
@@ -4558,10 +4582,10 @@
         <v>19</v>
       </c>
       <c r="N49" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="O49" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P49" s="1" t="s">
         <v>85</v>
@@ -4744,19 +4768,19 @@
         <v>52</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D55" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F55" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="8" t="s">
-        <v>232</v>
+      <c r="G55" s="30" t="s">
+        <v>457</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>32</v>
@@ -4775,10 +4799,10 @@
         <v>53</v>
       </c>
       <c r="N55" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="O55" s="3" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="P55" s="1" t="s">
         <v>177</v>
@@ -4796,19 +4820,19 @@
         <v>54</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E56" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>167</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>32</v>
@@ -4827,10 +4851,10 @@
         <v>53</v>
       </c>
       <c r="N56" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="P56" s="19" t="s">
         <v>88</v>
@@ -4848,19 +4872,19 @@
         <v>56</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>168</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>32</v>
@@ -4879,10 +4903,10 @@
         <v>57</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P57" s="1" t="s">
         <v>86</v>
@@ -4898,19 +4922,19 @@
         <v>133</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>169</v>
       </c>
       <c r="G58" s="8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>32</v>
@@ -4929,10 +4953,10 @@
         <v>58</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P58" s="1" t="s">
         <v>136</v>
@@ -4950,19 +4974,19 @@
         <v>60</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E59" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>170</v>
       </c>
       <c r="G59" s="8" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>32</v>
@@ -4979,10 +5003,10 @@
         <v>61</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="P59" s="1" t="s">
         <v>62</v>
@@ -4998,7 +5022,7 @@
         <v>63</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>210</v>
@@ -5010,7 +5034,7 @@
         <v>64</v>
       </c>
       <c r="G60" s="15" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>10</v>
@@ -5030,7 +5054,7 @@
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P60" s="2" t="s">
         <v>87</v>
@@ -5040,13 +5064,13 @@
     </row>
     <row r="61" spans="1:18" ht="21">
       <c r="A61" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="B61" s="8" t="s">
         <v>294</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>295</v>
-      </c>
       <c r="C61" s="15" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D61" s="9" t="s">
         <v>210</v>
@@ -5055,10 +5079,10 @@
         <v>8</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G61" s="15" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>10</v>
@@ -5078,7 +5102,7 @@
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="3" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="P61" s="2" t="s">
         <v>87</v>
@@ -5094,19 +5118,19 @@
         <v>65</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D62" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E62" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G62" s="8" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>32</v>
@@ -5125,10 +5149,10 @@
         <v>53</v>
       </c>
       <c r="N62" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O62" s="3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="P62" s="20" t="s">
         <v>137</v>
@@ -5146,19 +5170,19 @@
         <v>67</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D63" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E63" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>171</v>
       </c>
       <c r="G63" s="15" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>32</v>
@@ -5177,10 +5201,10 @@
         <v>66</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="P63" s="1" t="s">
         <v>176</v>
@@ -5196,19 +5220,19 @@
         <v>68</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D64" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E64" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>69</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>10</v>
@@ -5246,19 +5270,19 @@
         <v>72</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D65" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E65" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F65" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G65" s="10" t="s">
         <v>305</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>306</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>32</v>
@@ -5277,10 +5301,10 @@
         <v>23</v>
       </c>
       <c r="N65" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="O65" s="3" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="P65" s="20" t="s">
         <v>140</v>
@@ -5298,19 +5322,19 @@
         <v>74</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D66" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E66" s="9" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>172</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>32</v>
@@ -5327,10 +5351,10 @@
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="O66" s="3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
@@ -5338,25 +5362,25 @@
     </row>
     <row r="67" spans="1:18" ht="21">
       <c r="A67" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="B67" s="11" t="s">
         <v>297</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="C67" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="D67" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="11" t="s">
         <v>298</v>
       </c>
-      <c r="C67" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="F67" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F67" s="5" t="s">
-        <v>300</v>
-      </c>
       <c r="G67" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="H67" s="12" t="s">
         <v>10</v>
@@ -5368,152 +5392,152 @@
         <v>174</v>
       </c>
       <c r="M67" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="N67" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>302</v>
-      </c>
-      <c r="O67" s="3" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="21">
       <c r="A68" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="C68" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="D68" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="12" t="s">
         <v>309</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="F68" s="12" t="s">
         <v>310</v>
       </c>
-      <c r="F68" s="12" t="s">
-        <v>311</v>
-      </c>
       <c r="G68" s="15" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="H68" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N68" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="O68" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="21">
       <c r="A69" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>312</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="C69" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F69" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="C69" s="15" t="s">
-        <v>427</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>314</v>
-      </c>
       <c r="G69" s="15" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H69" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N69" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="O69" s="3" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="21">
       <c r="A70" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B70" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="D70" s="12" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="D70" s="12" t="s">
+      <c r="E70" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>379</v>
+      </c>
+      <c r="G70" s="12" t="s">
         <v>318</v>
       </c>
-      <c r="E70" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G70" s="12" t="s">
-        <v>319</v>
-      </c>
       <c r="H70" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N70" s="3" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="O70" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="21">
       <c r="A71" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D71" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E71" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G71" s="14" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="H71" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N71" s="3" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="O71" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="21">
       <c r="A72" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>322</v>
       </c>
-      <c r="B72" s="12" t="s">
-        <v>323</v>
-      </c>
       <c r="C72" s="17" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D72" s="12" t="s">
         <v>210</v>
@@ -5522,62 +5546,62 @@
         <v>8</v>
       </c>
       <c r="F72" s="12" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G72" s="15" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="H72" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="O72" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="21">
       <c r="A73" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>324</v>
       </c>
-      <c r="B73" s="12" t="s">
+      <c r="C73" s="12" t="s">
         <v>325</v>
       </c>
-      <c r="C73" s="12" t="s">
-        <v>326</v>
-      </c>
       <c r="D73" s="12" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="12" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G73" s="12" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H73" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="O73" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="21">
       <c r="A74" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D74" s="12" t="s">
         <v>210</v>
@@ -5586,36 +5610,36 @@
         <v>8</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G74" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H74" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N74" s="3" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="O74" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P74" s="21" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="21">
       <c r="A75" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C75" s="5" t="s">
         <v>338</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>339</v>
       </c>
       <c r="D75" s="5" t="s">
         <v>210</v>
@@ -5624,36 +5648,36 @@
         <v>8</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H75" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N75" s="3" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="O75" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P75" s="21" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="Q75" s="5" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="21">
       <c r="A76" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D76" s="5" t="s">
         <v>210</v>
@@ -5662,30 +5686,30 @@
         <v>8</v>
       </c>
       <c r="F76" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G76" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="G76" s="5" t="s">
-        <v>342</v>
-      </c>
       <c r="H76" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="O76" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="21">
       <c r="A77" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D77" s="5" t="s">
         <v>210</v>
@@ -5694,30 +5718,30 @@
         <v>8</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H77" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="O77" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="21">
       <c r="A78" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="C78" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D78" s="5" t="s">
         <v>210</v>
@@ -5726,72 +5750,72 @@
         <v>8</v>
       </c>
       <c r="F78" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="G78" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="G78" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="H78" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="O78" s="3" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="P78" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q78" s="5" t="s">
         <v>398</v>
-      </c>
-      <c r="Q78" s="5" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="79" spans="1:18" s="26" customFormat="1" ht="63">
       <c r="A79" s="24" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B79" s="25" t="s">
+        <v>445</v>
+      </c>
+      <c r="C79" s="25" t="s">
         <v>446</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="D79" s="26" t="s">
         <v>447</v>
-      </c>
-      <c r="D79" s="26" t="s">
-        <v>448</v>
       </c>
       <c r="E79" s="27" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="26" t="s">
+        <v>448</v>
+      </c>
+      <c r="G79" s="26" t="s">
         <v>449</v>
-      </c>
-      <c r="G79" s="26" t="s">
-        <v>450</v>
       </c>
       <c r="H79" s="27"/>
       <c r="M79" s="1" t="s">
         <v>13</v>
       </c>
       <c r="N79" s="28" t="s">
+        <v>443</v>
+      </c>
+      <c r="O79" s="28" t="s">
+        <v>372</v>
+      </c>
+      <c r="P79" s="29" t="s">
         <v>444</v>
-      </c>
-      <c r="O79" s="28" t="s">
-        <v>373</v>
-      </c>
-      <c r="P79" s="29" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="80" spans="1:18" ht="23.25">
       <c r="A80" s="13" t="s">
+        <v>342</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
         <v>344</v>
-      </c>
-      <c r="C80" s="5" t="s">
-        <v>345</v>
       </c>
       <c r="D80" s="5" t="s">
         <v>210</v>
@@ -5800,30 +5824,30 @@
         <v>8</v>
       </c>
       <c r="F80" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G80" s="5" t="s">
         <v>376</v>
       </c>
-      <c r="G80" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="H80" s="12" t="s">
         <v>10</v>
       </c>
       <c r="N80" s="3" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="O80" s="3" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="P80" s="23" t="s">
+        <v>440</v>
+      </c>
+      <c r="R80" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="R80" s="5" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" ht="23.25">
+    </row>
+    <row r="81" spans="1:18" ht="23.25">
       <c r="A81" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>117</v>
@@ -5841,9 +5865,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:17" ht="23.25">
+    <row r="82" spans="1:18" ht="23.25">
       <c r="A82" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>118</v>
@@ -5861,9 +5885,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:17" ht="23.25">
+    <row r="83" spans="1:18" ht="23.25">
       <c r="A83" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>119</v>
@@ -5881,9 +5905,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:17" ht="23.25">
+    <row r="84" spans="1:18" ht="23.25">
       <c r="A84" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>120</v>
@@ -5901,9 +5925,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:17" ht="23.25">
+    <row r="85" spans="1:18" ht="23.25">
       <c r="A85" s="13" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>121</v>
@@ -5921,15 +5945,15 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:17" ht="23.25">
+    <row r="86" spans="1:18" ht="23.25">
       <c r="A86" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="D86" s="5" t="s">
         <v>210</v>
@@ -5938,30 +5962,30 @@
         <v>8</v>
       </c>
       <c r="F86" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G86" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N86" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="O86" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="21">
+      <c r="A87" s="7" t="s">
         <v>348</v>
       </c>
-      <c r="G86" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="H86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N86" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="O86" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="21">
-      <c r="A87" s="7" t="s">
+      <c r="B87" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C87" s="5" t="s">
         <v>350</v>
-      </c>
-      <c r="C87" s="5" t="s">
-        <v>351</v>
       </c>
       <c r="D87" s="5" t="s">
         <v>210</v>
@@ -5970,30 +5994,30 @@
         <v>8</v>
       </c>
       <c r="F87" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G87" s="15" t="s">
+        <v>394</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="O87" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18" ht="21">
+      <c r="A88" s="7" t="s">
         <v>352</v>
       </c>
-      <c r="G87" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N87" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="88" spans="1:17" ht="21">
-      <c r="A88" s="7" t="s">
+      <c r="B88" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="B88" s="5" t="s">
-        <v>354</v>
-      </c>
       <c r="C88" s="5" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D88" s="5" t="s">
         <v>210</v>
@@ -6002,31 +6026,79 @@
         <v>8</v>
       </c>
       <c r="F88" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="G88" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="N88" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O88" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P88" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="G88" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>357</v>
-      </c>
-      <c r="O88" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="P88" s="16" t="s">
+      <c r="Q88" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="Q88" s="5" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17">
+    </row>
+    <row r="89" spans="1:18" ht="21">
+      <c r="A89" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="B89" s="30" t="s">
+        <v>451</v>
+      </c>
+      <c r="C89" s="30" t="s">
+        <v>452</v>
+      </c>
+      <c r="D89" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="G89" s="30" t="s">
+        <v>456</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I89" s="2">
+        <v>25</v>
+      </c>
+      <c r="J89" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="K89" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="2"/>
+      <c r="R89" s="1"/>
+    </row>
+    <row r="95" spans="1:18">
       <c r="G95" s="9"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:18">
       <c r="G96" s="9"/>
     </row>
     <row r="103" spans="7:7">
@@ -6192,8 +6264,10 @@
     <hyperlink ref="R14" r:id="rId65" xr:uid="{83B92E27-A4C1-44FF-9FB3-FFFB798C2014}"/>
     <hyperlink ref="N79" r:id="rId66" xr:uid="{18247FD7-8A34-4BF4-87E7-25ADE7E59731}"/>
     <hyperlink ref="N39" r:id="rId67" xr:uid="{A113D5AA-DAD2-4191-B317-FAF70C3C58C0}"/>
+    <hyperlink ref="O89" r:id="rId68" xr:uid="{7F630C54-F0C0-4538-9138-0B92066BAC21}"/>
+    <hyperlink ref="N89" r:id="rId69" xr:uid="{6A004FC8-88CE-4E6C-9D03-7A09C5D6964F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId68"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF83CF9-3770-480B-9D29-AB048FA2D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7635B3-F528-44A0-8B9E-8A5D933EF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="476">
   <si>
     <t>name</t>
   </si>
@@ -1820,14 +1820,90 @@
   <si>
     <t>Der Beatwahrnehmungs-Test erfasst die Fähigkeit der Schüler, einen Beat innerhalb eines kurzen Musikausschnitts zu erkennen und zu bewerten. Jeder Musikausschnitt (Jazz, Rock oder orchestraler Pop) wird zweimal mit hinzugefügten Pieptönen abgespielt. Die Schüler müssen entscheiden, in welcher Version des Ausschnitts die Pieptöne außerhalb des Beats der Musik liegen.</t>
   </si>
+  <si>
+    <t>BDT</t>
+  </si>
+  <si>
+    <t>Beat Drop Test</t>
+  </si>
+  <si>
+    <t>Beat-Drop-Test</t>
+  </si>
+  <si>
+    <t>The BDT records the ability of the students to maintain an internal beat when it is missing in a musical stimulus.</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=BDT</t>
+  </si>
+  <si>
+    <t>https://github.com/klausfrieler/BDT</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.3758/s13414-022-02592-2</t>
+  </si>
+  <si>
+    <t>Cinelyte, U., Cannon, J., Patel, A. D., &amp; Müllensiefen, D. (2022). Testing beat perception without sensory cues to the beat: The Beat-Drop Alignment Test (BDAT). Attention, Perception, &amp; Psychophysics. https://doi.org/10.3758/s13414-022-02592-2</t>
+  </si>
+  <si>
+    <t>Der Beat-Drop-Test erfasst die Fähigkeit der Schüler, innerlich einen Beat fortzuführen, wenn dieser im Stimulus fehlt.</t>
+  </si>
+  <si>
+    <t>MET</t>
+  </si>
+  <si>
+    <t>Music Engagement Test</t>
+  </si>
+  <si>
+    <t>Fragebogen Musikalisches Engagement</t>
+  </si>
+  <si>
+    <t>The MET measures engagement with music.</t>
+  </si>
+  <si>
+    <t>7-point rating scale</t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=MET</t>
+  </si>
+  <si>
+    <t>http://www.davidmgreenberg.com/wp-content/uploads/2018/11/Greenberg-Rentfrow-escom-2015-Rules-of-engagement-The-structure-of-musical-engagement-and-its-personality-underpinnings-1.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenberg &amp; Rentfrow (2015). Rules of engagement: The structure of musical engagement and its personality underpinnings. IMCPC 10, Manchester
+</t>
+  </si>
+  <si>
+    <t>Der MET misst das Engagement mit Musik.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <fonts count="29">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2025,27 +2101,36 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2054,52 +2139,34 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2108,17 +2175,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2436,108 +2513,108 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
-  <dimension ref="A1:R140"/>
+  <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G55" sqref="G55"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G92" sqref="G92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
-    <col min="2" max="3" width="31.5" style="5" customWidth="1"/>
-    <col min="4" max="5" width="13.875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="34.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="23" style="5" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="5" customWidth="1"/>
-    <col min="9" max="10" width="20.5" style="5" customWidth="1"/>
-    <col min="11" max="11" width="14.625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="20.5" style="5" customWidth="1"/>
-    <col min="13" max="13" width="23.125" style="5" customWidth="1"/>
-    <col min="14" max="14" width="22.5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="31.375" style="5" customWidth="1"/>
-    <col min="16" max="16" width="19.5" style="5" customWidth="1"/>
-    <col min="17" max="18" width="18.5" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="11" style="5"/>
+    <col min="1" max="1" width="13.625" style="4" customWidth="1"/>
+    <col min="2" max="3" width="31.5" style="4" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="10" width="20.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="20.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="23.125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="22.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="31.375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="19.5" style="4" customWidth="1"/>
+    <col min="17" max="18" width="18.5" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="7" customFormat="1" ht="21">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:18" s="6" customFormat="1" ht="21">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="21">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>141</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="14" t="s">
         <v>387</v>
       </c>
       <c r="H2" s="1" t="s">
@@ -2556,7 +2633,7 @@
       <c r="M2" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="N2" s="18" t="s">
+      <c r="N2" s="4" t="s">
         <v>271</v>
       </c>
       <c r="O2" s="3" t="s">
@@ -2571,25 +2648,25 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="21">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>180</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>214</v>
       </c>
       <c r="H3" s="1" t="s">
@@ -2621,25 +2698,25 @@
       <c r="R3" s="2"/>
     </row>
     <row r="4" spans="1:18" ht="21">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>181</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>402</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="14" t="s">
         <v>403</v>
       </c>
       <c r="H4" s="1" t="s">
@@ -2669,7 +2746,7 @@
       <c r="R4" s="2"/>
     </row>
     <row r="5" spans="1:18" ht="21">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -2678,16 +2755,16 @@
       <c r="C5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="7" t="s">
         <v>215</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -2721,7 +2798,7 @@
       </c>
     </row>
     <row r="6" spans="1:18" ht="21">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2730,16 +2807,16 @@
       <c r="C6" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="7" t="s">
         <v>272</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -2757,11 +2834,11 @@
       <c r="M6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O6" s="7"/>
+      <c r="O6" s="6"/>
       <c r="Q6" s="2"/>
     </row>
     <row r="7" spans="1:18" ht="21">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -2770,16 +2847,16 @@
       <c r="C7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="7" t="s">
         <v>273</v>
       </c>
       <c r="H7" s="1" t="s">
@@ -2799,13 +2876,13 @@
         <v>19</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="7"/>
+      <c r="O7" s="6"/>
       <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="1"/>
     </row>
     <row r="8" spans="1:18" ht="21">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -2814,16 +2891,16 @@
       <c r="C8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H8" s="1" t="s">
@@ -2841,10 +2918,10 @@
       <c r="M8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O8" s="7"/>
+      <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:18" ht="21">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -2853,16 +2930,16 @@
       <c r="C9" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F9" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>217</v>
       </c>
       <c r="H9" s="1" t="s">
@@ -2880,10 +2957,10 @@
       <c r="M9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O9" s="7"/>
+      <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:18" ht="21">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2892,16 +2969,16 @@
       <c r="C10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="G10" s="8" t="s">
+      <c r="G10" s="7" t="s">
         <v>218</v>
       </c>
       <c r="H10" s="1" t="s">
@@ -2919,10 +2996,10 @@
       <c r="M10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O10" s="7"/>
+      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:18" ht="21">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -2931,16 +3008,16 @@
       <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F11" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="G11" s="8" t="s">
         <v>219</v>
       </c>
       <c r="H11" s="1" t="s">
@@ -2958,28 +3035,28 @@
       <c r="M11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O11" s="7"/>
+      <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:18" ht="21">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>183</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="8" t="s">
+      <c r="C12" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="D12" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="F12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="G12" s="8" t="s">
         <v>220</v>
       </c>
       <c r="H12" s="1" t="s">
@@ -2999,7 +3076,7 @@
         <v>23</v>
       </c>
       <c r="N12" s="2"/>
-      <c r="O12" s="7"/>
+      <c r="O12" s="6"/>
       <c r="P12" s="1" t="s">
         <v>24</v>
       </c>
@@ -3007,25 +3084,25 @@
       <c r="R12" s="2"/>
     </row>
     <row r="13" spans="1:18" ht="21">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>184</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="8" t="s">
         <v>221</v>
       </c>
       <c r="H13" s="1" t="s">
@@ -3054,30 +3131,30 @@
         <v>134</v>
       </c>
       <c r="Q13" s="2"/>
-      <c r="R13" s="18" t="s">
+      <c r="R13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:18" ht="21">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>185</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="14" t="s">
         <v>388</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="D14" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>150</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>389</v>
       </c>
       <c r="H14" s="1" t="s">
@@ -3113,25 +3190,25 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="21">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="F15" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="G15" s="8" t="s">
         <v>222</v>
       </c>
       <c r="H15" s="1" t="s">
@@ -3165,25 +3242,25 @@
       <c r="R15" s="2"/>
     </row>
     <row r="16" spans="1:18" ht="21">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>187</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="G16" s="8" t="s">
         <v>223</v>
       </c>
       <c r="H16" s="1" t="s">
@@ -3215,25 +3292,25 @@
       <c r="R16" s="2"/>
     </row>
     <row r="17" spans="1:18" ht="21">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="14" t="s">
         <v>411</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>412</v>
       </c>
       <c r="H17" s="1" t="s">
@@ -3267,7 +3344,7 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="21">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -3276,13 +3353,13 @@
       <c r="C18" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H18" s="1" t="s">
@@ -3302,13 +3379,13 @@
         <v>97</v>
       </c>
       <c r="N18" s="1"/>
-      <c r="O18" s="7"/>
+      <c r="O18" s="6"/>
       <c r="P18" s="1"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="3"/>
     </row>
     <row r="19" spans="1:18" ht="21">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -3317,13 +3394,13 @@
       <c r="C19" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H19" s="1" t="s">
@@ -3343,13 +3420,13 @@
         <v>97</v>
       </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="7"/>
+      <c r="O19" s="6"/>
       <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="3"/>
     </row>
     <row r="20" spans="1:18" ht="21">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -3358,13 +3435,13 @@
       <c r="C20" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H20" s="1" t="s">
@@ -3384,13 +3461,13 @@
         <v>97</v>
       </c>
       <c r="N20" s="1"/>
-      <c r="O20" s="7"/>
+      <c r="O20" s="6"/>
       <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="3"/>
     </row>
     <row r="21" spans="1:18" ht="21">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -3399,13 +3476,13 @@
       <c r="C21" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H21" s="1" t="s">
@@ -3425,13 +3502,13 @@
         <v>97</v>
       </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="7"/>
+      <c r="O21" s="6"/>
       <c r="P21" s="1"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="3"/>
     </row>
     <row r="22" spans="1:18" ht="21">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>188</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -3440,13 +3517,13 @@
       <c r="C22" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="8" t="s">
         <v>237</v>
       </c>
       <c r="H22" s="1" t="s">
@@ -3466,31 +3543,31 @@
         <v>97</v>
       </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="7"/>
+      <c r="O22" s="6"/>
       <c r="P22" s="1"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="3"/>
     </row>
     <row r="23" spans="1:18" ht="21">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C23" s="8" t="s">
+      <c r="C23" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="14" t="s">
         <v>413</v>
       </c>
       <c r="H23" s="1" t="s">
@@ -3524,7 +3601,7 @@
       </c>
     </row>
     <row r="24" spans="1:18" ht="21">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B24" s="2" t="s">
@@ -3533,16 +3610,16 @@
       <c r="C24" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="D24" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="G24" s="8" t="s">
         <v>224</v>
       </c>
       <c r="H24" s="1" t="s">
@@ -3562,13 +3639,13 @@
         <v>13</v>
       </c>
       <c r="N24" s="2"/>
-      <c r="O24" s="7"/>
+      <c r="O24" s="6"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="3"/>
     </row>
     <row r="25" spans="1:18" ht="21">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B25" s="2" t="s">
@@ -3577,16 +3654,16 @@
       <c r="C25" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>274</v>
       </c>
       <c r="H25" s="1" t="s">
@@ -3606,13 +3683,13 @@
         <v>13</v>
       </c>
       <c r="N25" s="2"/>
-      <c r="O25" s="7"/>
+      <c r="O25" s="6"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="3"/>
     </row>
     <row r="26" spans="1:18" ht="21">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -3621,16 +3698,16 @@
       <c r="C26" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="D26" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="G26" s="8" t="s">
+      <c r="G26" s="7" t="s">
         <v>225</v>
       </c>
       <c r="H26" s="1" t="s">
@@ -3650,13 +3727,13 @@
         <v>13</v>
       </c>
       <c r="N26" s="2"/>
-      <c r="O26" s="7"/>
+      <c r="O26" s="6"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="3"/>
     </row>
     <row r="27" spans="1:18" ht="21">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -3665,16 +3742,16 @@
       <c r="C27" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="7" t="s">
         <v>275</v>
       </c>
       <c r="H27" s="1" t="s">
@@ -3692,10 +3769,10 @@
       <c r="M27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O27" s="7"/>
+      <c r="O27" s="6"/>
     </row>
     <row r="28" spans="1:18" ht="21">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -3704,16 +3781,16 @@
       <c r="C28" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D28" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>276</v>
       </c>
       <c r="H28" s="1" t="s">
@@ -3731,10 +3808,10 @@
       <c r="M28" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O28" s="7"/>
+      <c r="O28" s="6"/>
     </row>
     <row r="29" spans="1:18" ht="21">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -3743,16 +3820,16 @@
       <c r="C29" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="G29" s="8" t="s">
+      <c r="G29" s="7" t="s">
         <v>277</v>
       </c>
       <c r="H29" s="1" t="s">
@@ -3770,10 +3847,10 @@
       <c r="M29" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O29" s="7"/>
+      <c r="O29" s="6"/>
     </row>
     <row r="30" spans="1:18" ht="21">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B30" s="2" t="s">
@@ -3782,16 +3859,16 @@
       <c r="C30" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>158</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="7" t="s">
         <v>226</v>
       </c>
       <c r="H30" s="1" t="s">
@@ -3809,10 +3886,10 @@
       <c r="M30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O30" s="7"/>
+      <c r="O30" s="6"/>
     </row>
     <row r="31" spans="1:18" ht="21">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B31" s="2" t="s">
@@ -3821,16 +3898,16 @@
       <c r="C31" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="G31" s="8" t="s">
+      <c r="G31" s="7" t="s">
         <v>278</v>
       </c>
       <c r="H31" s="1" t="s">
@@ -3848,10 +3925,10 @@
       <c r="M31" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O31" s="7"/>
+      <c r="O31" s="6"/>
     </row>
     <row r="32" spans="1:18" ht="21">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>189</v>
       </c>
       <c r="B32" s="2" t="s">
@@ -3860,16 +3937,16 @@
       <c r="C32" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D32" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G32" s="8" t="s">
+      <c r="G32" s="7" t="s">
         <v>279</v>
       </c>
       <c r="H32" s="1" t="s">
@@ -3887,10 +3964,10 @@
       <c r="M32" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O32" s="7"/>
+      <c r="O32" s="6"/>
     </row>
     <row r="33" spans="1:18" ht="21">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>190</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -3899,16 +3976,16 @@
       <c r="C33" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="14" t="s">
         <v>404</v>
       </c>
       <c r="H33" s="1" t="s">
@@ -3944,25 +4021,25 @@
       </c>
     </row>
     <row r="34" spans="1:18" ht="21">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="C34" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="D34" s="9" t="s">
+      <c r="D34" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="4" t="s">
         <v>161</v>
       </c>
-      <c r="G34" s="9" t="s">
+      <c r="G34" s="8" t="s">
         <v>227</v>
       </c>
       <c r="H34" s="1" t="s">
@@ -3980,31 +4057,31 @@
       <c r="L34" s="2"/>
       <c r="M34" s="1"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="7"/>
+      <c r="O34" s="6"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="3"/>
     </row>
     <row r="35" spans="1:18" ht="21">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="5" t="s">
+      <c r="G35" s="4" t="s">
         <v>228</v>
       </c>
       <c r="H35" s="1" t="s">
@@ -4022,31 +4099,31 @@
       <c r="L35" s="2"/>
       <c r="M35" s="1"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="7"/>
+      <c r="O35" s="6"/>
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
       <c r="R35" s="3"/>
     </row>
     <row r="36" spans="1:18" ht="21">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C36" s="8" t="s">
+      <c r="C36" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="D36" s="9" t="s">
+      <c r="D36" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="G36" s="8" t="s">
+      <c r="G36" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H36" s="1" t="s">
@@ -4080,7 +4157,7 @@
       </c>
     </row>
     <row r="37" spans="1:18" ht="21">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B37" s="2" t="s">
@@ -4089,16 +4166,16 @@
       <c r="C37" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="G37" s="8" t="s">
+      <c r="G37" s="7" t="s">
         <v>229</v>
       </c>
       <c r="H37" s="1" t="s">
@@ -4118,13 +4195,13 @@
         <v>13</v>
       </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="7"/>
+      <c r="O37" s="6"/>
       <c r="P37" s="1"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="3"/>
     </row>
     <row r="38" spans="1:18" ht="21">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>191</v>
       </c>
       <c r="B38" s="2" t="s">
@@ -4133,16 +4210,16 @@
       <c r="C38" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D38" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="8" t="s">
+      <c r="G38" s="7" t="s">
         <v>230</v>
       </c>
       <c r="H38" s="1" t="s">
@@ -4162,31 +4239,31 @@
         <v>13</v>
       </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="7"/>
+      <c r="O38" s="6"/>
       <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="3"/>
     </row>
     <row r="39" spans="1:18" ht="21">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="14" t="s">
         <v>408</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="14" t="s">
         <v>409</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="G39" s="8" t="s">
+      <c r="G39" s="7" t="s">
         <v>231</v>
       </c>
       <c r="H39" s="1" t="s">
@@ -4218,7 +4295,7 @@
       <c r="R39" s="2"/>
     </row>
     <row r="40" spans="1:18" ht="21">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B40" s="2" t="s">
@@ -4227,7 +4304,7 @@
       <c r="C40" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="D40" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E40" s="2" t="s">
@@ -4244,13 +4321,13 @@
       <c r="L40" s="2"/>
       <c r="M40" s="1"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="7"/>
+      <c r="O40" s="6"/>
       <c r="P40" s="1"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
     </row>
     <row r="41" spans="1:18" ht="21">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>192</v>
       </c>
       <c r="B41" s="2" t="s">
@@ -4259,7 +4336,7 @@
       <c r="C41" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -4276,31 +4353,31 @@
       <c r="L41" s="2"/>
       <c r="M41" s="1"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="7"/>
+      <c r="O41" s="6"/>
       <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
     </row>
     <row r="42" spans="1:18" ht="21">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="14" t="s">
         <v>407</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="14" t="s">
         <v>406</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D42" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="14" t="s">
         <v>405</v>
       </c>
       <c r="H42" s="1" t="s">
@@ -4338,7 +4415,7 @@
       </c>
     </row>
     <row r="43" spans="1:18" ht="21">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B43" s="2" t="s">
@@ -4347,7 +4424,7 @@
       <c r="C43" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D43" s="9" t="s">
+      <c r="D43" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -4366,13 +4443,13 @@
       <c r="L43" s="2"/>
       <c r="M43" s="1"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="7"/>
+      <c r="O43" s="6"/>
       <c r="P43" s="1"/>
       <c r="Q43" s="1"/>
       <c r="R43" s="3"/>
     </row>
     <row r="44" spans="1:18" ht="21">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B44" s="2" t="s">
@@ -4381,7 +4458,7 @@
       <c r="C44" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="D44" s="9" t="s">
+      <c r="D44" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E44" s="2" t="s">
@@ -4400,13 +4477,13 @@
       <c r="L44" s="2"/>
       <c r="M44" s="1"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="7"/>
+      <c r="O44" s="6"/>
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
       <c r="R44" s="3"/>
     </row>
     <row r="45" spans="1:18" ht="21">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B45" s="2" t="s">
@@ -4415,7 +4492,7 @@
       <c r="C45" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="D45" s="9" t="s">
+      <c r="D45" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -4434,13 +4511,13 @@
       <c r="L45" s="2"/>
       <c r="M45" s="1"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="7"/>
+      <c r="O45" s="6"/>
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
       <c r="R45" s="3"/>
     </row>
     <row r="46" spans="1:18" ht="21">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B46" s="2" t="s">
@@ -4449,7 +4526,7 @@
       <c r="C46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="D46" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E46" s="2" t="s">
@@ -4468,13 +4545,13 @@
       <c r="L46" s="2"/>
       <c r="M46" s="1"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="7"/>
+      <c r="O46" s="6"/>
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
       <c r="R46" s="3"/>
     </row>
     <row r="47" spans="1:18" ht="21">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B47" s="2" t="s">
@@ -4483,13 +4560,13 @@
       <c r="C47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="D47" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G47" s="9"/>
+      <c r="G47" s="8"/>
       <c r="H47" s="1" t="s">
         <v>10</v>
       </c>
@@ -4503,13 +4580,13 @@
       <c r="L47" s="2"/>
       <c r="M47" s="1"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="7"/>
+      <c r="O47" s="6"/>
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
       <c r="R47" s="3"/>
     </row>
     <row r="48" spans="1:18" ht="21">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>193</v>
       </c>
       <c r="B48" s="2" t="s">
@@ -4518,13 +4595,13 @@
       <c r="C48" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="D48" s="9" t="s">
+      <c r="D48" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G48" s="9"/>
+      <c r="G48" s="8"/>
       <c r="H48" s="1" t="s">
         <v>10</v>
       </c>
@@ -4538,13 +4615,13 @@
       <c r="L48" s="2"/>
       <c r="M48" s="1"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="7"/>
+      <c r="O48" s="6"/>
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
       <c r="R48" s="3"/>
     </row>
     <row r="49" spans="1:18" ht="21">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B49" s="2" t="s">
@@ -4553,16 +4630,16 @@
       <c r="C49" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="D49" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="4" t="s">
         <v>165</v>
       </c>
-      <c r="G49" s="15" t="s">
+      <c r="G49" s="14" t="s">
         <v>416</v>
       </c>
       <c r="H49" s="1" t="s">
@@ -4596,7 +4673,7 @@
       </c>
     </row>
     <row r="50" spans="1:18" ht="21">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B50" s="2" t="s">
@@ -4605,13 +4682,13 @@
       <c r="C50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="D50" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G50" s="9"/>
+      <c r="G50" s="8"/>
       <c r="H50" s="1" t="s">
         <v>10</v>
       </c>
@@ -4623,13 +4700,13 @@
       <c r="L50" s="2"/>
       <c r="M50" s="1"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="7"/>
+      <c r="O50" s="6"/>
       <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="3"/>
     </row>
     <row r="51" spans="1:18" ht="21">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B51" s="2" t="s">
@@ -4638,13 +4715,13 @@
       <c r="C51" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="D51" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G51" s="9"/>
+      <c r="G51" s="8"/>
       <c r="H51" s="1" t="s">
         <v>10</v>
       </c>
@@ -4656,13 +4733,13 @@
       <c r="L51" s="2"/>
       <c r="M51" s="1"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="7"/>
+      <c r="O51" s="6"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="3"/>
     </row>
     <row r="52" spans="1:18" ht="21">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B52" s="2" t="s">
@@ -4671,13 +4748,13 @@
       <c r="C52" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="D52" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G52" s="9"/>
+      <c r="G52" s="8"/>
       <c r="H52" s="1" t="s">
         <v>10</v>
       </c>
@@ -4689,13 +4766,13 @@
       <c r="L52" s="2"/>
       <c r="M52" s="1"/>
       <c r="N52" s="2"/>
-      <c r="O52" s="7"/>
+      <c r="O52" s="6"/>
       <c r="P52" s="1"/>
       <c r="Q52" s="2"/>
       <c r="R52" s="3"/>
     </row>
     <row r="53" spans="1:18" ht="21">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B53" s="2" t="s">
@@ -4704,13 +4781,13 @@
       <c r="C53" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D53" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G53" s="9"/>
+      <c r="G53" s="8"/>
       <c r="H53" s="1" t="s">
         <v>10</v>
       </c>
@@ -4722,13 +4799,13 @@
       <c r="L53" s="2"/>
       <c r="M53" s="1"/>
       <c r="N53" s="2"/>
-      <c r="O53" s="7"/>
+      <c r="O53" s="6"/>
       <c r="P53" s="1"/>
       <c r="Q53" s="2"/>
       <c r="R53" s="3"/>
     </row>
     <row r="54" spans="1:18" ht="21">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>194</v>
       </c>
       <c r="B54" s="2" t="s">
@@ -4737,13 +4814,13 @@
       <c r="C54" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D54" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="G54" s="9"/>
+      <c r="G54" s="8"/>
       <c r="H54" s="1" t="s">
         <v>10</v>
       </c>
@@ -4755,31 +4832,31 @@
       <c r="L54" s="2"/>
       <c r="M54" s="1"/>
       <c r="N54" s="2"/>
-      <c r="O54" s="7"/>
+      <c r="O54" s="6"/>
       <c r="P54" s="1"/>
       <c r="Q54" s="2"/>
       <c r="R54" s="3"/>
     </row>
     <row r="55" spans="1:18" ht="21">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>195</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C55" s="17" t="s">
+      <c r="C55" s="16" t="s">
         <v>431</v>
       </c>
-      <c r="D55" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="D55" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G55" s="30" t="s">
+      <c r="G55" s="27" t="s">
         <v>457</v>
       </c>
       <c r="H55" s="2" t="s">
@@ -4788,7 +4865,7 @@
       <c r="I55" s="2">
         <v>25</v>
       </c>
-      <c r="J55" s="9" t="s">
+      <c r="J55" s="8" t="s">
         <v>207</v>
       </c>
       <c r="K55" s="2" t="s">
@@ -4813,276 +4890,280 @@
       </c>
     </row>
     <row r="56" spans="1:18" ht="21">
-      <c r="A56" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>432</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E56" s="9" t="s">
+      <c r="A56" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>459</v>
+      </c>
+      <c r="C56" s="28" t="s">
+        <v>460</v>
+      </c>
+      <c r="D56" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E56" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F56" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="G56" s="15" t="s">
-        <v>381</v>
+      <c r="F56" s="4" t="s">
+        <v>461</v>
+      </c>
+      <c r="G56" s="30" t="s">
+        <v>466</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I56" s="2">
-        <v>15</v>
-      </c>
-      <c r="J56" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="J56" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K56" s="2">
-        <v>15</v>
+      <c r="K56" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="L56" s="2"/>
       <c r="M56" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N56" s="2" t="s">
-        <v>263</v>
+      <c r="N56" s="3" t="s">
+        <v>462</v>
       </c>
       <c r="O56" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="P56" s="19" t="s">
-        <v>88</v>
+        <v>463</v>
+      </c>
+      <c r="P56" t="s">
+        <v>465</v>
       </c>
       <c r="Q56" s="2"/>
-      <c r="R56" s="2" t="s">
-        <v>55</v>
+      <c r="R56" s="29" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="21">
-      <c r="A57" s="7" t="s">
-        <v>197</v>
+      <c r="A57" s="6" t="s">
+        <v>196</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C57" s="17" t="s">
-        <v>383</v>
-      </c>
-      <c r="D57" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E57" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>432</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E57" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F57" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="G57" s="5" t="s">
-        <v>384</v>
+      <c r="F57" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="G57" s="14" t="s">
+        <v>381</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I57" s="2">
-        <v>14</v>
-      </c>
-      <c r="J57" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J57" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>174</v>
+      <c r="K57" s="2">
+        <v>15</v>
       </c>
       <c r="L57" s="2"/>
       <c r="M57" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="N57" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="O57" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="P57" s="1" t="s">
-        <v>86</v>
+        <v>244</v>
+      </c>
+      <c r="P57" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
+      <c r="R57" s="2" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="58" spans="1:18" ht="21">
-      <c r="A58" s="7" t="s">
-        <v>198</v>
+      <c r="A58" s="6" t="s">
+        <v>197</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C58" s="17" t="s">
-        <v>433</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E58" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="D58" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E58" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F58" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="G58" s="8" t="s">
-        <v>232</v>
+      <c r="F58" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="G58" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I58" s="2">
-        <v>12</v>
-      </c>
-      <c r="J58" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="J58" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K58" s="2">
-        <v>12</v>
+      <c r="K58" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="L58" s="2"/>
       <c r="M58" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N58" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="O58" s="3" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P58" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="Q58" s="2"/>
-      <c r="R58" s="1" t="s">
-        <v>59</v>
-      </c>
+      <c r="R58" s="2"/>
     </row>
     <row r="59" spans="1:18" ht="21">
-      <c r="A59" s="7" t="s">
-        <v>199</v>
+      <c r="A59" s="6" t="s">
+        <v>198</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>290</v>
-      </c>
-      <c r="D59" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E59" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="D59" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E59" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F59" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="G59" s="8" t="s">
-        <v>281</v>
+      <c r="F59" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>232</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I59" s="2">
-        <v>4</v>
-      </c>
-      <c r="J59" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="J59" s="8" t="s">
+        <v>207</v>
+      </c>
       <c r="K59" s="2">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L59" s="2"/>
       <c r="M59" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N59" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="O59" s="3" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P59" s="1" t="s">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
+      <c r="R59" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="60" spans="1:18" ht="21">
-      <c r="A60" s="7" t="s">
-        <v>200</v>
+      <c r="A60" s="6" t="s">
+        <v>199</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C60" s="8" t="s">
-        <v>421</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F60" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="G60" s="15" t="s">
-        <v>414</v>
+        <v>60</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="D60" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>281</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I60" s="2">
-        <v>25</v>
-      </c>
-      <c r="J60" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K60" s="2" t="s">
-        <v>174</v>
+        <v>4</v>
+      </c>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2">
+        <v>4</v>
       </c>
       <c r="L60" s="2"/>
       <c r="M60" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="N60" s="2"/>
+        <v>61</v>
+      </c>
+      <c r="N60" s="2" t="s">
+        <v>266</v>
+      </c>
       <c r="O60" s="3" t="s">
-        <v>241</v>
-      </c>
-      <c r="P60" s="2" t="s">
-        <v>87</v>
+        <v>245</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="Q60" s="2"/>
       <c r="R60" s="2"/>
     </row>
     <row r="61" spans="1:18" ht="21">
-      <c r="A61" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C61" s="15" t="s">
-        <v>422</v>
-      </c>
-      <c r="D61" s="9" t="s">
+      <c r="A61" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F61" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="G61" s="15" t="s">
-        <v>415</v>
+      <c r="F61" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G61" s="14" t="s">
+        <v>414</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>10</v>
@@ -5111,1091 +5192,1178 @@
       <c r="R61" s="2"/>
     </row>
     <row r="62" spans="1:18" ht="21">
-      <c r="A62" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C62" s="15" t="s">
-        <v>423</v>
-      </c>
-      <c r="D62" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E62" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="F62" s="5" t="s">
-        <v>236</v>
-      </c>
-      <c r="G62" s="8" t="s">
-        <v>233</v>
+      <c r="A62" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="B62" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="D62" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F62" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="14" t="s">
+        <v>415</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I62" s="2">
-        <v>15</v>
-      </c>
-      <c r="J62" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K62" s="2">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="J62" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K62" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="L62" s="2"/>
       <c r="M62" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="N62" s="2" t="s">
-        <v>267</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="N62" s="2"/>
       <c r="O62" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="P62" s="20" t="s">
-        <v>137</v>
+        <v>241</v>
+      </c>
+      <c r="P62" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="Q62" s="2"/>
-      <c r="R62" s="2" t="s">
-        <v>175</v>
-      </c>
+      <c r="R62" s="2"/>
     </row>
     <row r="63" spans="1:18" ht="21">
-      <c r="A63" s="7" t="s">
-        <v>202</v>
+      <c r="A63" s="6" t="s">
+        <v>201</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C63" s="15" t="s">
-        <v>424</v>
-      </c>
-      <c r="D63" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E63" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>423</v>
+      </c>
+      <c r="D63" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E63" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F63" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="G63" s="15" t="s">
-        <v>380</v>
+      <c r="F63" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>233</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I63" s="2">
-        <v>8</v>
-      </c>
-      <c r="J63" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="J63" s="8" t="s">
         <v>207</v>
       </c>
       <c r="K63" s="2">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="L63" s="2"/>
       <c r="M63" s="1" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="N63" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="O63" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="P63" s="1" t="s">
-        <v>176</v>
+        <v>250</v>
+      </c>
+      <c r="P63" s="17" t="s">
+        <v>137</v>
       </c>
       <c r="Q63" s="2"/>
-      <c r="R63" s="2"/>
+      <c r="R63" s="2" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="64" spans="1:18" ht="21">
-      <c r="A64" s="7" t="s">
-        <v>203</v>
+      <c r="A64" s="6" t="s">
+        <v>202</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="D64" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E64" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="D64" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F64" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>234</v>
+      <c r="F64" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="G64" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="I64" s="2">
-        <v>16</v>
-      </c>
-      <c r="J64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K64" s="2" t="s">
-        <v>174</v>
+        <v>8</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K64" s="2">
+        <v>8</v>
       </c>
       <c r="L64" s="2"/>
       <c r="M64" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="N64" s="2"/>
-      <c r="O64" s="7"/>
-      <c r="P64" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q64" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="R64" s="2" t="s">
-        <v>89</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="O64" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="P64" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" s="2"/>
     </row>
     <row r="65" spans="1:18" ht="21">
-      <c r="A65" s="7" t="s">
-        <v>204</v>
+      <c r="A65" s="6" t="s">
+        <v>203</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="15" t="s">
-        <v>425</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E65" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F65" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>305</v>
+      <c r="F65" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G65" s="8" t="s">
+        <v>234</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="I65" s="2">
-        <v>15</v>
-      </c>
-      <c r="J65" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="K65" s="2">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>174</v>
       </c>
       <c r="L65" s="2"/>
       <c r="M65" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="N65" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="O65" s="3" t="s">
-        <v>248</v>
-      </c>
-      <c r="P65" s="20" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q65" s="2"/>
+        <v>71</v>
+      </c>
+      <c r="N65" s="2"/>
+      <c r="O65" s="6"/>
+      <c r="P65" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q65" s="17" t="s">
+        <v>139</v>
+      </c>
       <c r="R65" s="2" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="21">
-      <c r="A66" s="7" t="s">
-        <v>205</v>
+      <c r="A66" s="6" t="s">
+        <v>204</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C66" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="D66" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E66" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F66" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G66" s="15" t="s">
-        <v>235</v>
+      <c r="F66" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>305</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>32</v>
       </c>
       <c r="I66" s="2">
+        <v>15</v>
+      </c>
+      <c r="J66" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="K66" s="2">
+        <v>15</v>
+      </c>
+      <c r="L66" s="2"/>
+      <c r="M66" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="O66" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="P66" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" ht="21">
+      <c r="A67" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="G67" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I67" s="2">
         <v>12</v>
       </c>
-      <c r="J66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K66" s="2" t="s">
+      <c r="J67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
-      <c r="N66" s="2" t="s">
+      <c r="L67" s="2"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O67" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="P66" s="2"/>
-      <c r="Q66" s="2"/>
-      <c r="R66" s="2"/>
-    </row>
-    <row r="67" spans="1:18" ht="21">
-      <c r="A67" s="7" t="s">
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+      <c r="R67" s="2"/>
+    </row>
+    <row r="68" spans="1:18" ht="21">
+      <c r="A68" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B67" s="11" t="s">
+      <c r="B68" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="C67" s="17" t="s">
+      <c r="C68" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="D67" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E67" s="11" t="s">
+      <c r="D68" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F68" s="4" t="s">
         <v>299</v>
       </c>
-      <c r="G67" s="4" t="s">
+      <c r="G68" s="4" t="s">
         <v>420</v>
       </c>
-      <c r="H67" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="J67" s="9" t="s">
+      <c r="H68" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J68" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K67" s="5" t="s">
+      <c r="K68" s="4" t="s">
         <v>174</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M68" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N68" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="O68" s="3" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="21">
-      <c r="A68" s="7" t="s">
+    <row r="69" spans="1:18" ht="21">
+      <c r="A69" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B68" s="12" t="s">
+      <c r="B69" s="11" t="s">
         <v>307</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C69" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="D68" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E68" s="12" t="s">
+      <c r="D69" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E69" s="11" t="s">
         <v>309</v>
       </c>
-      <c r="F68" s="12" t="s">
+      <c r="F69" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G69" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="H68" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N68" s="3" t="s">
+      <c r="H69" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N69" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O69" s="3" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="21">
-      <c r="A69" s="7" t="s">
+    <row r="70" spans="1:18" ht="21">
+      <c r="A70" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B69" s="12" t="s">
+      <c r="B70" s="11" t="s">
         <v>312</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C70" s="14" t="s">
         <v>426</v>
       </c>
-      <c r="D69" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E69" s="12" t="s">
+      <c r="D70" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E70" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F69" s="12" t="s">
+      <c r="F70" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G70" s="14" t="s">
         <v>382</v>
       </c>
-      <c r="H69" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N69" s="3" t="s">
+      <c r="H70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N70" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O70" s="3" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="21">
-      <c r="A70" s="7" t="s">
+    <row r="71" spans="1:18" ht="21">
+      <c r="A71" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B70" s="12" t="s">
+      <c r="B71" s="11" t="s">
         <v>316</v>
       </c>
-      <c r="C70" s="12" t="s">
+      <c r="C71" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="D70" s="12" t="s">
+      <c r="D71" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="E70" s="12" t="s">
+      <c r="E71" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="F70" s="14" t="s">
+      <c r="F71" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="G70" s="12" t="s">
+      <c r="G71" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="H70" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N70" s="3" t="s">
+      <c r="H71" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N71" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="O70" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" ht="21">
-      <c r="A71" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="G71" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="H71" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N71" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="O71" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="21">
-      <c r="A72" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="C72" s="17" t="s">
-        <v>435</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="12" t="s">
-        <v>327</v>
-      </c>
-      <c r="G72" s="15" t="s">
-        <v>418</v>
-      </c>
-      <c r="H72" s="12" t="s">
+      <c r="A72" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>427</v>
+      </c>
+      <c r="D72" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F72" s="13" t="s">
+        <v>378</v>
+      </c>
+      <c r="G72" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="H72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N72" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="O72" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="21">
-      <c r="A73" s="7" t="s">
-        <v>323</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="E73" s="12" t="s">
+      <c r="A73" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="C73" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="D73" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F73" s="12" t="s">
-        <v>326</v>
-      </c>
-      <c r="G73" s="12" t="s">
-        <v>328</v>
-      </c>
-      <c r="H73" s="12" t="s">
+      <c r="F73" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="G73" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="H73" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N73" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="O73" s="3" t="s">
         <v>371</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="21">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="C74" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E74" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G74" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="H74" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N74" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="O74" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18" ht="21">
+      <c r="A75" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B74" s="12" t="s">
+      <c r="B75" s="11" t="s">
         <v>339</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>428</v>
       </c>
-      <c r="D74" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="E74" s="12" t="s">
+      <c r="D75" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F74" s="14" t="s">
+      <c r="F75" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="G74" s="15" t="s">
+      <c r="G75" s="14" t="s">
         <v>395</v>
       </c>
-      <c r="H74" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N74" s="3" t="s">
+      <c r="H75" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N75" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="O74" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="P74" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="Q74" s="5" t="s">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="75" spans="1:18" ht="21">
-      <c r="A75" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E75" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="G75" s="15" t="s">
-        <v>395</v>
-      </c>
-      <c r="H75" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N75" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="O75" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="P75" s="21" t="s">
-        <v>438</v>
-      </c>
-      <c r="Q75" s="5" t="s">
-        <v>436</v>
+      <c r="P75" s="18" t="s">
+        <v>437</v>
+      </c>
+      <c r="Q75" s="4" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="21">
-      <c r="A76" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="B76" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="C76" s="5" t="s">
-        <v>429</v>
-      </c>
-      <c r="D76" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" s="12" t="s">
+      <c r="A76" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E76" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="G76" s="5" t="s">
-        <v>341</v>
-      </c>
-      <c r="H76" s="12" t="s">
+      <c r="F76" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="G76" s="14" t="s">
+        <v>395</v>
+      </c>
+      <c r="H76" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N76" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="O76" s="3" t="s">
         <v>372</v>
       </c>
+      <c r="P76" s="18" t="s">
+        <v>438</v>
+      </c>
+      <c r="Q76" s="4" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="77" spans="1:18" ht="21">
-      <c r="A77" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>336</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>401</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E77" s="12" t="s">
+      <c r="A77" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>429</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>374</v>
-      </c>
-      <c r="G77" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="H77" s="12" t="s">
+      <c r="F77" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G77" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H77" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N77" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="O77" s="3" t="s">
         <v>372</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="21">
-      <c r="A78" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="B78" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="C78" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E78" s="12" t="s">
+      <c r="A78" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E78" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F78" s="5" t="s">
-        <v>399</v>
-      </c>
-      <c r="G78" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="H78" s="12" t="s">
+      <c r="F78" s="4" t="s">
+        <v>374</v>
+      </c>
+      <c r="G78" s="4" t="s">
+        <v>396</v>
+      </c>
+      <c r="H78" s="11" t="s">
         <v>10</v>
       </c>
       <c r="N78" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O78" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="P78" s="22" t="s">
+    </row>
+    <row r="79" spans="1:18" ht="21">
+      <c r="A79" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="G79" s="4" t="s">
+        <v>400</v>
+      </c>
+      <c r="H79" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N79" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="O79" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P79" s="19" t="s">
         <v>397</v>
       </c>
-      <c r="Q78" s="5" t="s">
+      <c r="Q79" s="4" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="26" customFormat="1" ht="63">
-      <c r="A79" s="24" t="s">
+    <row r="80" spans="1:18" s="23" customFormat="1" ht="63">
+      <c r="A80" s="21" t="s">
         <v>442</v>
       </c>
-      <c r="B79" s="25" t="s">
+      <c r="B80" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="C79" s="25" t="s">
+      <c r="C80" s="22" t="s">
         <v>446</v>
       </c>
-      <c r="D79" s="26" t="s">
+      <c r="D80" s="23" t="s">
         <v>447</v>
       </c>
-      <c r="E79" s="27" t="s">
+      <c r="E80" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="F79" s="26" t="s">
+      <c r="F80" s="23" t="s">
         <v>448</v>
       </c>
-      <c r="G79" s="26" t="s">
+      <c r="G80" s="23" t="s">
         <v>449</v>
       </c>
-      <c r="H79" s="27"/>
-      <c r="M79" s="1" t="s">
+      <c r="H80" s="24"/>
+      <c r="M80" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N79" s="28" t="s">
+      <c r="N80" s="25" t="s">
         <v>443</v>
       </c>
-      <c r="O79" s="28" t="s">
+      <c r="O80" s="25" t="s">
         <v>372</v>
       </c>
-      <c r="P79" s="29" t="s">
+      <c r="P80" s="26" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="80" spans="1:18" ht="23.25">
-      <c r="A80" s="13" t="s">
+    <row r="81" spans="1:18" ht="23.25">
+      <c r="A81" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="B81" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C81" s="4" t="s">
         <v>344</v>
       </c>
-      <c r="D80" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E80" s="12" t="s">
+      <c r="D81" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E81" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F81" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="G80" s="5" t="s">
+      <c r="G81" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="H80" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N80" s="3" t="s">
+      <c r="H81" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N81" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="O80" s="3" t="s">
+      <c r="O81" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="P80" s="23" t="s">
+      <c r="P81" s="20" t="s">
         <v>440</v>
       </c>
-      <c r="R80" s="5" t="s">
+      <c r="R81" s="4" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="23.25">
-      <c r="A81" s="13" t="s">
+    <row r="82" spans="1:18" ht="23.25">
+      <c r="A82" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H81" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="82" spans="1:18" ht="23.25">
-      <c r="A82" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H82" s="12" t="s">
+      <c r="H82" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:18" ht="23.25">
-      <c r="A83" s="13" t="s">
+      <c r="A83" s="12" t="s">
         <v>342</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D83" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H83" s="12" t="s">
+      <c r="H83" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="84" spans="1:18" ht="23.25">
-      <c r="A84" s="13" t="s">
+      <c r="A84" s="12" t="s">
         <v>342</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="D84" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="D84" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H84" s="12" t="s">
+      <c r="H84" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:18" ht="23.25">
-      <c r="A85" s="13" t="s">
+      <c r="A85" s="12" t="s">
         <v>342</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="D85" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="D85" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H85" s="12" t="s">
+      <c r="H85" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="86" spans="1:18" ht="23.25">
-      <c r="A86" s="13" t="s">
+      <c r="A86" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D86" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H86" s="11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18" ht="23.25">
+      <c r="A87" s="12" t="s">
         <v>345</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B87" s="4" t="s">
         <v>346</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C87" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="D86" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E86" s="12" t="s">
+      <c r="D87" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E87" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F87" s="4" t="s">
         <v>347</v>
       </c>
-      <c r="G86" s="5" t="s">
+      <c r="G87" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="H86" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N86" s="3" t="s">
+      <c r="H87" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N87" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O87" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="21">
-      <c r="A87" s="7" t="s">
+    <row r="88" spans="1:18" ht="21">
+      <c r="A88" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="B88" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C88" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D87" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E87" s="12" t="s">
+      <c r="D88" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E88" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F88" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="G87" s="15" t="s">
+      <c r="G88" s="14" t="s">
         <v>394</v>
       </c>
-      <c r="H87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N87" s="3" t="s">
+      <c r="H88" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N88" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="O87" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="88" spans="1:18" ht="21">
-      <c r="A88" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="B88" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="C88" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F88" s="16" t="s">
-        <v>390</v>
-      </c>
-      <c r="G88" s="5" t="s">
-        <v>393</v>
-      </c>
-      <c r="H88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="N88" s="3" t="s">
-        <v>356</v>
       </c>
       <c r="O88" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="P88" s="16" t="s">
+    </row>
+    <row r="89" spans="1:18" ht="21">
+      <c r="A89" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="E89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="H89" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="O89" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="P89" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="Q88" s="5" t="s">
+      <c r="Q89" s="4" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="89" spans="1:18" ht="21">
-      <c r="A89" s="7" t="s">
+    <row r="90" spans="1:18" ht="21">
+      <c r="A90" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B89" s="30" t="s">
+      <c r="B90" s="27" t="s">
         <v>451</v>
       </c>
-      <c r="C89" s="30" t="s">
+      <c r="C90" s="27" t="s">
         <v>452</v>
       </c>
-      <c r="D89" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="D90" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="E90" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F90" s="4" t="s">
         <v>453</v>
       </c>
-      <c r="G89" s="30" t="s">
+      <c r="G90" s="27" t="s">
         <v>456</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H90" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I90" s="2">
         <v>25</v>
       </c>
-      <c r="J89" s="9" t="s">
+      <c r="J90" s="8" t="s">
         <v>207</v>
       </c>
-      <c r="K89" s="2" t="s">
+      <c r="K90" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="L89" s="2"/>
-      <c r="M89" s="1" t="s">
+      <c r="L90" s="2"/>
+      <c r="M90" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="N89" s="3" t="s">
+      <c r="N90" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="O89" s="3" t="s">
+      <c r="O90" s="3" t="s">
         <v>455</v>
       </c>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="2"/>
-      <c r="R89" s="1"/>
-    </row>
-    <row r="95" spans="1:18">
-      <c r="G95" s="9"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="2"/>
+      <c r="R90" s="1"/>
+    </row>
+    <row r="91" spans="1:18" s="23" customFormat="1" ht="128.25">
+      <c r="A91" s="21" t="s">
+        <v>467</v>
+      </c>
+      <c r="B91" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>469</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>447</v>
+      </c>
+      <c r="E91" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>470</v>
+      </c>
+      <c r="G91" s="23" t="s">
+        <v>475</v>
+      </c>
+      <c r="H91" s="24"/>
+      <c r="M91" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="N91" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="O91" s="25" t="s">
+        <v>372</v>
+      </c>
+      <c r="P91" s="31" t="s">
+        <v>474</v>
+      </c>
+      <c r="R91" s="23" t="s">
+        <v>473</v>
+      </c>
     </row>
     <row r="96" spans="1:18">
-      <c r="G96" s="9"/>
-    </row>
-    <row r="103" spans="7:7">
-      <c r="G103" s="9"/>
+      <c r="G96" s="8"/>
+    </row>
+    <row r="97" spans="7:7">
+      <c r="G97" s="8"/>
     </row>
     <row r="104" spans="7:7">
-      <c r="G104" s="9"/>
+      <c r="G104" s="8"/>
     </row>
     <row r="105" spans="7:7">
-      <c r="G105" s="9"/>
-    </row>
-    <row r="110" spans="7:7">
-      <c r="G110" s="9"/>
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="7:7">
+      <c r="G106" s="8"/>
     </row>
     <row r="111" spans="7:7">
-      <c r="G111" s="9"/>
+      <c r="G111" s="8"/>
     </row>
     <row r="112" spans="7:7">
-      <c r="G112" s="9"/>
+      <c r="G112" s="8"/>
     </row>
     <row r="113" spans="7:7">
-      <c r="G113" s="9"/>
+      <c r="G113" s="8"/>
     </row>
     <row r="114" spans="7:7">
-      <c r="G114" s="9"/>
+      <c r="G114" s="8"/>
     </row>
     <row r="115" spans="7:7">
-      <c r="G115" s="9"/>
+      <c r="G115" s="8"/>
     </row>
     <row r="116" spans="7:7">
-      <c r="G116" s="9"/>
+      <c r="G116" s="8"/>
     </row>
     <row r="117" spans="7:7">
-      <c r="G117" s="9"/>
+      <c r="G117" s="8"/>
     </row>
     <row r="118" spans="7:7">
-      <c r="G118" s="9"/>
-    </row>
-    <row r="122" spans="7:7">
-      <c r="G122" s="9"/>
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="7:7">
+      <c r="G119" s="8"/>
     </row>
     <row r="123" spans="7:7">
-      <c r="G123" s="9"/>
+      <c r="G123" s="8"/>
     </row>
     <row r="124" spans="7:7">
-      <c r="G124" s="9"/>
+      <c r="G124" s="8"/>
     </row>
     <row r="125" spans="7:7">
-      <c r="G125" s="9"/>
+      <c r="G125" s="8"/>
     </row>
     <row r="126" spans="7:7">
-      <c r="G126" s="9"/>
+      <c r="G126" s="8"/>
     </row>
     <row r="127" spans="7:7">
-      <c r="G127" s="9"/>
+      <c r="G127" s="8"/>
     </row>
     <row r="128" spans="7:7">
-      <c r="G128" s="9"/>
+      <c r="G128" s="8"/>
     </row>
     <row r="129" spans="7:7">
-      <c r="G129" s="9"/>
+      <c r="G129" s="8"/>
     </row>
     <row r="130" spans="7:7">
-      <c r="G130" s="9"/>
+      <c r="G130" s="8"/>
     </row>
     <row r="131" spans="7:7">
-      <c r="G131" s="9"/>
+      <c r="G131" s="8"/>
     </row>
     <row r="132" spans="7:7">
-      <c r="G132" s="9"/>
+      <c r="G132" s="8"/>
     </row>
     <row r="133" spans="7:7">
-      <c r="G133" s="9"/>
+      <c r="G133" s="8"/>
     </row>
     <row r="134" spans="7:7">
-      <c r="G134" s="9"/>
+      <c r="G134" s="8"/>
     </row>
     <row r="135" spans="7:7">
-      <c r="G135" s="9"/>
+      <c r="G135" s="8"/>
     </row>
     <row r="136" spans="7:7">
-      <c r="G136" s="9"/>
+      <c r="G136" s="8"/>
     </row>
     <row r="137" spans="7:7">
-      <c r="G137" s="9"/>
+      <c r="G137" s="8"/>
     </row>
     <row r="138" spans="7:7">
-      <c r="G138" s="9"/>
+      <c r="G138" s="8"/>
     </row>
     <row r="139" spans="7:7">
-      <c r="G139" s="9"/>
+      <c r="G139" s="8"/>
     </row>
     <row r="140" spans="7:7">
-      <c r="G140" s="9"/>
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="7:7">
+      <c r="G141" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="21" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>
@@ -6218,56 +6386,60 @@
     <hyperlink ref="O39" r:id="rId19" xr:uid="{44CAB423-567B-4F9A-B424-F4A45325DDB2}"/>
     <hyperlink ref="O42" r:id="rId20" xr:uid="{2F441EEB-5162-4DC9-A095-E6A33F4B96A7}"/>
     <hyperlink ref="O49" r:id="rId21" xr:uid="{EC443C3A-7836-4460-83D0-5C73F759181A}"/>
-    <hyperlink ref="O55" r:id="rId22" xr:uid="{AA15EF38-43FE-4806-AD37-C00D4F12DA14}"/>
-    <hyperlink ref="O58" r:id="rId23" xr:uid="{70FB95CD-A9C5-4BE0-AEE3-E3338FA20098}"/>
-    <hyperlink ref="O62" r:id="rId24" xr:uid="{177009B3-D672-4BC0-8A69-947FBF783793}"/>
-    <hyperlink ref="O65" r:id="rId25" xr:uid="{117C7FE1-97AB-4954-AE8D-1AD48BD864F8}"/>
-    <hyperlink ref="O56" r:id="rId26" xr:uid="{FBEBC241-67BD-40C0-8CA9-ABBB5A964CDF}"/>
-    <hyperlink ref="O57" r:id="rId27" xr:uid="{E3AFAD2B-9AE4-4D18-8B98-449BA7D471F3}"/>
-    <hyperlink ref="O59" r:id="rId28" xr:uid="{4AB2DAB5-6B75-435A-9541-C298B0E18588}"/>
-    <hyperlink ref="O63" r:id="rId29" xr:uid="{FE3E304A-8501-47E8-BCC9-30FD14B226DF}"/>
-    <hyperlink ref="O66" r:id="rId30" xr:uid="{D6486464-2243-4229-B25B-05676D833C2D}"/>
-    <hyperlink ref="O60" r:id="rId31" xr:uid="{601B5599-7C00-4021-ABB4-2A5CB3D4982A}"/>
-    <hyperlink ref="O61" r:id="rId32" xr:uid="{82C7F15A-0905-474E-B047-A7BB4379FCA8}"/>
-    <hyperlink ref="N67" r:id="rId33" xr:uid="{BF935FA2-E37D-4CA8-8536-DD8CA66BE7FD}"/>
-    <hyperlink ref="O67" r:id="rId34" xr:uid="{B6A64B24-F697-4591-8B4B-26653811AD6E}"/>
-    <hyperlink ref="N68" r:id="rId35" xr:uid="{7AA65321-1918-4211-99D0-DDDD2957D86A}"/>
-    <hyperlink ref="N69" r:id="rId36" xr:uid="{1CF38881-58BD-4F74-9AF9-0748346A41AB}"/>
-    <hyperlink ref="N70" r:id="rId37" xr:uid="{73252989-590E-46C6-A34D-FFBEE619DE18}"/>
-    <hyperlink ref="N71" r:id="rId38" xr:uid="{7785D349-BF49-4491-8D31-044A9762A2E5}"/>
-    <hyperlink ref="N72" r:id="rId39" xr:uid="{7C1629DE-0279-4F05-BBF3-048BAF41A4BC}"/>
-    <hyperlink ref="N73" r:id="rId40" xr:uid="{F1CD9645-60C6-4569-9CB5-EEDE71AE2A83}"/>
-    <hyperlink ref="N74" r:id="rId41" xr:uid="{85CFDEAB-3345-4554-9E19-D2435FE6B424}"/>
-    <hyperlink ref="N75" r:id="rId42" xr:uid="{9A265FA2-F389-4520-A5F4-DA4BAE1B5417}"/>
-    <hyperlink ref="N76" r:id="rId43" xr:uid="{085DF4E6-0857-4F52-B888-AB2AA65C8E11}"/>
-    <hyperlink ref="N77" r:id="rId44" xr:uid="{C2D445B9-1683-436A-AA87-7CE4E2D2B129}"/>
-    <hyperlink ref="N78" r:id="rId45" xr:uid="{5D55D737-5EEE-4A44-9266-74EFB0F6A55B}"/>
-    <hyperlink ref="N80" r:id="rId46" xr:uid="{719C0F73-D177-4FC7-A032-E81D845F0146}"/>
-    <hyperlink ref="N86" r:id="rId47" xr:uid="{2D5B57D7-4E19-402F-A3D1-0190D1D111E9}"/>
-    <hyperlink ref="N87" r:id="rId48" xr:uid="{2A8A5E7D-6F75-435C-8798-DADA79207756}"/>
-    <hyperlink ref="N88" r:id="rId49" xr:uid="{046E1E83-08DD-4ABD-BE67-51826BD94B40}"/>
-    <hyperlink ref="O68" r:id="rId50" xr:uid="{14DAF574-A575-4913-97D6-38E4F9A36D4C}"/>
-    <hyperlink ref="O69" r:id="rId51" xr:uid="{26C01D2D-D88D-4CED-8216-CFA5AB9F6B5C}"/>
-    <hyperlink ref="O70" r:id="rId52" xr:uid="{F233D98D-6C14-4E46-8903-114F3B2E7739}"/>
-    <hyperlink ref="O71" r:id="rId53" xr:uid="{EC310FAA-84BF-4E0E-92E5-EE244577AF79}"/>
-    <hyperlink ref="O72" r:id="rId54" xr:uid="{1E2C866D-C13F-4B54-A20B-D5E421419C19}"/>
-    <hyperlink ref="O73" r:id="rId55" xr:uid="{447A9882-6201-4486-83F3-EF15DC5A23B5}"/>
-    <hyperlink ref="O80" r:id="rId56" xr:uid="{257548C8-8554-4760-850B-FC1770457B9B}"/>
-    <hyperlink ref="O86" r:id="rId57" xr:uid="{9400E53B-43FA-4DE0-A03E-E5942B254DA7}"/>
-    <hyperlink ref="O74" r:id="rId58" xr:uid="{D0C3DB44-1D89-43D7-925A-2A8213C2FC99}"/>
-    <hyperlink ref="O75" r:id="rId59" xr:uid="{9060BDD3-10ED-486F-919B-7C46AB43CE72}"/>
-    <hyperlink ref="O76" r:id="rId60" xr:uid="{57D64F97-E371-41B8-8C86-1DD27711CEED}"/>
-    <hyperlink ref="O77" r:id="rId61" xr:uid="{BE31E0FB-6FDD-4A16-B1A6-D967EBBA604D}"/>
-    <hyperlink ref="O78" r:id="rId62" xr:uid="{932F5256-5AF7-47C3-93E7-D4FFD6CEE619}"/>
-    <hyperlink ref="O87" r:id="rId63" xr:uid="{4B94D87A-2556-4E8B-BFF8-B4465BDF0633}"/>
-    <hyperlink ref="O88" r:id="rId64" xr:uid="{82BCE4C9-D795-4AB2-9202-309AD9F062A0}"/>
+    <hyperlink ref="O56" r:id="rId22" xr:uid="{AA15EF38-43FE-4806-AD37-C00D4F12DA14}"/>
+    <hyperlink ref="O59" r:id="rId23" xr:uid="{70FB95CD-A9C5-4BE0-AEE3-E3338FA20098}"/>
+    <hyperlink ref="O63" r:id="rId24" xr:uid="{177009B3-D672-4BC0-8A69-947FBF783793}"/>
+    <hyperlink ref="O66" r:id="rId25" xr:uid="{117C7FE1-97AB-4954-AE8D-1AD48BD864F8}"/>
+    <hyperlink ref="O57" r:id="rId26" xr:uid="{FBEBC241-67BD-40C0-8CA9-ABBB5A964CDF}"/>
+    <hyperlink ref="O58" r:id="rId27" xr:uid="{E3AFAD2B-9AE4-4D18-8B98-449BA7D471F3}"/>
+    <hyperlink ref="O60" r:id="rId28" xr:uid="{4AB2DAB5-6B75-435A-9541-C298B0E18588}"/>
+    <hyperlink ref="O64" r:id="rId29" xr:uid="{FE3E304A-8501-47E8-BCC9-30FD14B226DF}"/>
+    <hyperlink ref="O67" r:id="rId30" xr:uid="{D6486464-2243-4229-B25B-05676D833C2D}"/>
+    <hyperlink ref="O61" r:id="rId31" xr:uid="{601B5599-7C00-4021-ABB4-2A5CB3D4982A}"/>
+    <hyperlink ref="O62" r:id="rId32" xr:uid="{82C7F15A-0905-474E-B047-A7BB4379FCA8}"/>
+    <hyperlink ref="N68" r:id="rId33" xr:uid="{BF935FA2-E37D-4CA8-8536-DD8CA66BE7FD}"/>
+    <hyperlink ref="O68" r:id="rId34" xr:uid="{B6A64B24-F697-4591-8B4B-26653811AD6E}"/>
+    <hyperlink ref="N69" r:id="rId35" xr:uid="{7AA65321-1918-4211-99D0-DDDD2957D86A}"/>
+    <hyperlink ref="N70" r:id="rId36" xr:uid="{1CF38881-58BD-4F74-9AF9-0748346A41AB}"/>
+    <hyperlink ref="N71" r:id="rId37" xr:uid="{73252989-590E-46C6-A34D-FFBEE619DE18}"/>
+    <hyperlink ref="N72" r:id="rId38" xr:uid="{7785D349-BF49-4491-8D31-044A9762A2E5}"/>
+    <hyperlink ref="N73" r:id="rId39" xr:uid="{7C1629DE-0279-4F05-BBF3-048BAF41A4BC}"/>
+    <hyperlink ref="N74" r:id="rId40" xr:uid="{F1CD9645-60C6-4569-9CB5-EEDE71AE2A83}"/>
+    <hyperlink ref="N75" r:id="rId41" xr:uid="{85CFDEAB-3345-4554-9E19-D2435FE6B424}"/>
+    <hyperlink ref="N76" r:id="rId42" xr:uid="{9A265FA2-F389-4520-A5F4-DA4BAE1B5417}"/>
+    <hyperlink ref="N77" r:id="rId43" xr:uid="{085DF4E6-0857-4F52-B888-AB2AA65C8E11}"/>
+    <hyperlink ref="N78" r:id="rId44" xr:uid="{C2D445B9-1683-436A-AA87-7CE4E2D2B129}"/>
+    <hyperlink ref="N79" r:id="rId45" xr:uid="{5D55D737-5EEE-4A44-9266-74EFB0F6A55B}"/>
+    <hyperlink ref="N81" r:id="rId46" xr:uid="{719C0F73-D177-4FC7-A032-E81D845F0146}"/>
+    <hyperlink ref="N87" r:id="rId47" xr:uid="{2D5B57D7-4E19-402F-A3D1-0190D1D111E9}"/>
+    <hyperlink ref="N88" r:id="rId48" xr:uid="{2A8A5E7D-6F75-435C-8798-DADA79207756}"/>
+    <hyperlink ref="N89" r:id="rId49" xr:uid="{046E1E83-08DD-4ABD-BE67-51826BD94B40}"/>
+    <hyperlink ref="O69" r:id="rId50" xr:uid="{14DAF574-A575-4913-97D6-38E4F9A36D4C}"/>
+    <hyperlink ref="O70" r:id="rId51" xr:uid="{26C01D2D-D88D-4CED-8216-CFA5AB9F6B5C}"/>
+    <hyperlink ref="O71" r:id="rId52" xr:uid="{F233D98D-6C14-4E46-8903-114F3B2E7739}"/>
+    <hyperlink ref="O72" r:id="rId53" xr:uid="{EC310FAA-84BF-4E0E-92E5-EE244577AF79}"/>
+    <hyperlink ref="O73" r:id="rId54" xr:uid="{1E2C866D-C13F-4B54-A20B-D5E421419C19}"/>
+    <hyperlink ref="O74" r:id="rId55" xr:uid="{447A9882-6201-4486-83F3-EF15DC5A23B5}"/>
+    <hyperlink ref="O81" r:id="rId56" xr:uid="{257548C8-8554-4760-850B-FC1770457B9B}"/>
+    <hyperlink ref="O87" r:id="rId57" xr:uid="{9400E53B-43FA-4DE0-A03E-E5942B254DA7}"/>
+    <hyperlink ref="O75" r:id="rId58" xr:uid="{D0C3DB44-1D89-43D7-925A-2A8213C2FC99}"/>
+    <hyperlink ref="O76" r:id="rId59" xr:uid="{9060BDD3-10ED-486F-919B-7C46AB43CE72}"/>
+    <hyperlink ref="O77" r:id="rId60" xr:uid="{57D64F97-E371-41B8-8C86-1DD27711CEED}"/>
+    <hyperlink ref="O78" r:id="rId61" xr:uid="{BE31E0FB-6FDD-4A16-B1A6-D967EBBA604D}"/>
+    <hyperlink ref="O79" r:id="rId62" xr:uid="{932F5256-5AF7-47C3-93E7-D4FFD6CEE619}"/>
+    <hyperlink ref="O88" r:id="rId63" xr:uid="{4B94D87A-2556-4E8B-BFF8-B4465BDF0633}"/>
+    <hyperlink ref="O89" r:id="rId64" xr:uid="{82BCE4C9-D795-4AB2-9202-309AD9F062A0}"/>
     <hyperlink ref="R14" r:id="rId65" xr:uid="{83B92E27-A4C1-44FF-9FB3-FFFB798C2014}"/>
-    <hyperlink ref="N79" r:id="rId66" xr:uid="{18247FD7-8A34-4BF4-87E7-25ADE7E59731}"/>
+    <hyperlink ref="N80" r:id="rId66" xr:uid="{18247FD7-8A34-4BF4-87E7-25ADE7E59731}"/>
     <hyperlink ref="N39" r:id="rId67" xr:uid="{A113D5AA-DAD2-4191-B317-FAF70C3C58C0}"/>
-    <hyperlink ref="O89" r:id="rId68" xr:uid="{7F630C54-F0C0-4538-9138-0B92066BAC21}"/>
-    <hyperlink ref="N89" r:id="rId69" xr:uid="{6A004FC8-88CE-4E6C-9D03-7A09C5D6964F}"/>
+    <hyperlink ref="O90" r:id="rId68" xr:uid="{7F630C54-F0C0-4538-9138-0B92066BAC21}"/>
+    <hyperlink ref="N90" r:id="rId69" xr:uid="{6A004FC8-88CE-4E6C-9D03-7A09C5D6964F}"/>
+    <hyperlink ref="O55" r:id="rId70" xr:uid="{9B5A2A2F-2254-4CAE-9CBF-DA3418C2A3F0}"/>
+    <hyperlink ref="N56" r:id="rId71" xr:uid="{C30C6E6E-DEC6-4718-8BC0-AE5994F0E38D}"/>
+    <hyperlink ref="R56" r:id="rId72" xr:uid="{A61E19DF-7EFD-4303-9CA2-36D60E0608D2}"/>
+    <hyperlink ref="N91" r:id="rId73" xr:uid="{70712F6E-4E52-4699-953D-CADBD150BA3D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId70"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7635B3-F528-44A0-8B9E-8A5D933EF074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D74D8A25-E7FC-4A19-9E96-15A2AC2F8E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{490B3B89-1FDC-3A47-B429-BAF23A587403}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="485">
   <si>
     <t>name</t>
   </si>
@@ -1875,14 +1875,48 @@
   <si>
     <t>Der MET misst das Engagement mit Musik.</t>
   </si>
+  <si>
+    <t>SAA</t>
+  </si>
+  <si>
+    <t>Singing Ability Test</t>
+  </si>
+  <si>
+    <t>Singfähigkeitstest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This test measure the singing ability </t>
+  </si>
+  <si>
+    <t>http://testing.musikpsychologie.de/dots_demo_demo/?test=SAA</t>
+  </si>
+  <si>
+    <t>https://github.com/sebsilas/SAA</t>
+  </si>
+  <si>
+    <t>Silas, S., Müllensiefen, D., &amp; Kopiez, R. (2023). Singing Ability Assessment: Development and validation of an open-source test environment for singing data. Behaviour Research Methods. In review.</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>Dieser Test misst Gesangsfähigkeiten.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -2081,6 +2115,12 @@
       <color theme="1"/>
       <name val="Inherit"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF1F2328"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2101,72 +2141,72 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2175,27 +2215,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2515,9 +2562,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F4A50E-0F21-814A-93E2-91983839DCA8}">
   <dimension ref="A1:R141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G92" sqref="G92"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -6263,6 +6310,44 @@
         <v>473</v>
       </c>
     </row>
+    <row r="92" spans="1:18" ht="21">
+      <c r="A92" s="6" t="s">
+        <v>476</v>
+      </c>
+      <c r="B92" s="32" t="s">
+        <v>477</v>
+      </c>
+      <c r="C92" s="32" t="s">
+        <v>478</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E92" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="F92" s="32" t="s">
+        <v>479</v>
+      </c>
+      <c r="G92" s="34" t="s">
+        <v>484</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M92" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="N92" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="O92" s="3" t="s">
+        <v>481</v>
+      </c>
+      <c r="P92" s="33" t="s">
+        <v>482</v>
+      </c>
+    </row>
     <row r="96" spans="1:18">
       <c r="G96" s="8"/>
     </row>
@@ -6363,7 +6448,7 @@
       <c r="G141" s="8"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="21" type="noConversion"/>
+  <phoneticPr fontId="22" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="R17" r:id="rId1" xr:uid="{C72C4340-8EFA-9F4E-BD08-539B76505C50}"/>
     <hyperlink ref="R23" r:id="rId2" xr:uid="{BCB215EC-5FC7-584B-8854-B6AEC003D70A}"/>
@@ -6438,8 +6523,10 @@
     <hyperlink ref="N56" r:id="rId71" xr:uid="{C30C6E6E-DEC6-4718-8BC0-AE5994F0E38D}"/>
     <hyperlink ref="R56" r:id="rId72" xr:uid="{A61E19DF-7EFD-4303-9CA2-36D60E0608D2}"/>
     <hyperlink ref="N91" r:id="rId73" xr:uid="{70712F6E-4E52-4699-953D-CADBD150BA3D}"/>
+    <hyperlink ref="N92" r:id="rId74" xr:uid="{09CBFFF0-7E96-480F-8922-716790B63667}"/>
+    <hyperlink ref="O92" r:id="rId75" xr:uid="{EEF64EFD-D046-46E3-AC2D-4C264E12157D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId74"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rk/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F824D5-E9BD-7241-8A5F-F68D76421352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEF8FA-3629-48BB-BA0E-B27BACF09D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="31580" windowHeight="19080" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1050" uniqueCount="506">
   <si>
     <t>name</t>
   </si>
@@ -2079,6 +2079,12 @@
   </si>
   <si>
     <t>https://link.springer.com/article/10.3758/s13428-022-01859-8</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.3758/s13428-023-02279-y</t>
+  </si>
+  <si>
+    <t>https://journals.sagepub.com/doi/10.1177/20592043241257654</t>
   </si>
 </sst>
 </file>
@@ -2433,9 +2439,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 – 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2473,7 +2479,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 – 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2579,7 +2585,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 – 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2721,7 +2727,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2731,25 +2737,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A167" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="P90" sqref="P90"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="R70" sqref="R70"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.625" style="1" customWidth="1"/>
     <col min="2" max="3" width="31.5" style="1" customWidth="1"/>
-    <col min="4" max="5" width="13.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="13.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="34.625" style="1" customWidth="1"/>
     <col min="7" max="7" width="23" style="1" customWidth="1"/>
     <col min="8" max="8" width="13.5" style="1" customWidth="1"/>
     <col min="9" max="10" width="20.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="23.1640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="23.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="22.5" style="1" customWidth="1"/>
-    <col min="15" max="15" width="31.33203125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="31.375" style="1" customWidth="1"/>
     <col min="16" max="16" width="19.5" style="1" customWidth="1"/>
     <col min="17" max="18" width="18.5" style="1" customWidth="1"/>
     <col min="19" max="1024" width="11" style="1"/>
@@ -5850,6 +5856,9 @@
       <c r="P70" s="27" t="s">
         <v>497</v>
       </c>
+      <c r="R70" s="22" t="s">
+        <v>505</v>
+      </c>
     </row>
     <row r="71" spans="1:18" ht="21">
       <c r="A71" s="3" t="s">
@@ -6157,7 +6166,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="13" customFormat="1" ht="68">
+    <row r="80" spans="1:18" s="13" customFormat="1" ht="63">
       <c r="A80" s="11" t="s">
         <v>422</v>
       </c>
@@ -6194,7 +6203,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="81" spans="1:18" ht="24">
+    <row r="81" spans="1:18" ht="23.25">
       <c r="A81" s="17" t="s">
         <v>430</v>
       </c>
@@ -6232,7 +6241,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="82" spans="1:18" ht="24">
+    <row r="82" spans="1:18" ht="23.25">
       <c r="A82" s="17" t="s">
         <v>430</v>
       </c>
@@ -6252,7 +6261,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="83" spans="1:18" ht="24">
+    <row r="83" spans="1:18" ht="23.25">
       <c r="A83" s="17" t="s">
         <v>430</v>
       </c>
@@ -6272,7 +6281,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:18" ht="24">
+    <row r="84" spans="1:18" ht="23.25">
       <c r="A84" s="17" t="s">
         <v>430</v>
       </c>
@@ -6292,7 +6301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:18" ht="24">
+    <row r="85" spans="1:18" ht="23.25">
       <c r="A85" s="17" t="s">
         <v>430</v>
       </c>
@@ -6312,7 +6321,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:18" ht="24">
+    <row r="86" spans="1:18" ht="23.25">
       <c r="A86" s="17" t="s">
         <v>430</v>
       </c>
@@ -6332,7 +6341,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:18" ht="24">
+    <row r="87" spans="1:18" ht="23.25">
       <c r="A87" s="17" t="s">
         <v>438</v>
       </c>
@@ -6483,9 +6492,11 @@
         <v>499</v>
       </c>
       <c r="Q90" s="4"/>
-      <c r="R90" s="4"/>
-    </row>
-    <row r="91" spans="1:18" s="13" customFormat="1" ht="135">
+      <c r="R90" s="22" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18" s="13" customFormat="1" ht="128.25">
       <c r="A91" s="11" t="s">
         <v>464</v>
       </c>
@@ -6744,6 +6755,8 @@
     <hyperlink ref="N92" r:id="rId76" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
     <hyperlink ref="O92" r:id="rId77" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
     <hyperlink ref="R67" r:id="rId78" xr:uid="{FFB76916-3071-074B-99E1-093CC194DFE2}"/>
+    <hyperlink ref="R90" r:id="rId79" xr:uid="{F03C0612-F214-49AA-88B4-EFB9A3110C88}"/>
+    <hyperlink ref="R70" r:id="rId80" xr:uid="{BF99CB95-8732-461D-BBA6-6F0D17CAFA88}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/data/dots_test_def.xlsx
+++ b/data/dots_test_def.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\projects\science\DOTS\development\dots_home\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71CEF8FA-3629-48BB-BA0E-B27BACF09D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5C8E5C9-C417-421B-B5CA-0F798D9B47A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="3285" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -1080,9 +1080,6 @@
     <t>Harrison, P. M. C., &amp; Muellensiefen, D. (2018). Development and Validation of the Computerised Adaptive Beat Alignment Test (CA-BAT). Scientific Reports, 8, 12395. https://doi.org/10.1038/s41598-018-30318-3</t>
   </si>
   <si>
-    <t>https://www.nature.com/articles/s41598-018-30318-3</t>
-  </si>
-  <si>
     <t>BDT</t>
   </si>
   <si>
@@ -1335,9 +1332,6 @@
     <t>Larrouy-Maestri, P., Harrison, P. M., &amp; Muellensiefen, D. (2019). The mistuning perception test: A new measurement instrument. Behavior Research Methods, 51(2), 663-675.</t>
   </si>
   <si>
-    <t>https://link.springer.com/article/10.3758/s13428-019-01225-6</t>
-  </si>
-  <si>
     <t>RAT</t>
   </si>
   <si>
@@ -2085,6 +2079,12 @@
   </si>
   <si>
     <t>https://journals.sagepub.com/doi/10.1177/20592043241257654</t>
+  </si>
+  <si>
+    <t>https://www.nature.com/articles/s41598-018-30318-8</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.3758/s13428-019-01225-1</t>
   </si>
 </sst>
 </file>
@@ -2737,9 +2737,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMJ141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
       <pane xSplit="1" topLeftCell="M1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R70" sqref="R70"/>
+      <selection pane="topRight" activeCell="R63" sqref="R63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2862,7 +2862,7 @@
         <v>29</v>
       </c>
       <c r="P2" s="4" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4" t="s">
@@ -3014,7 +3014,7 @@
         <v>29</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="Q5" s="4"/>
       <c r="R5" s="4" t="s">
@@ -4519,11 +4519,11 @@
         <v>29</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="23" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="U39" s="24"/>
     </row>
@@ -5118,19 +5118,19 @@
         <v>240</v>
       </c>
       <c r="Q55" s="4"/>
-      <c r="R55" s="4" t="s">
-        <v>241</v>
+      <c r="R55" s="22" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="56" spans="1:18" ht="21">
       <c r="A56" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B56" s="4" t="s">
+      <c r="C56" s="4" t="s">
         <v>243</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>244</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>21</v>
@@ -5139,10 +5139,10 @@
         <v>233</v>
       </c>
       <c r="F56" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="G56" s="4" t="s">
         <v>245</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>246</v>
       </c>
       <c r="H56" s="4" t="s">
         <v>103</v>
@@ -5161,28 +5161,28 @@
         <v>237</v>
       </c>
       <c r="N56" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="O56" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="O56" s="5" t="s">
+      <c r="P56" s="1" t="s">
         <v>248</v>
-      </c>
-      <c r="P56" s="1" t="s">
-        <v>249</v>
       </c>
       <c r="Q56" s="4"/>
       <c r="R56" s="7" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="57" spans="1:18" ht="21">
       <c r="A57" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="4" t="s">
+      <c r="C57" s="4" t="s">
         <v>252</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>253</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>21</v>
@@ -5191,10 +5191,10 @@
         <v>233</v>
       </c>
       <c r="F57" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="G57" s="4" t="s">
         <v>254</v>
-      </c>
-      <c r="G57" s="4" t="s">
-        <v>255</v>
       </c>
       <c r="H57" s="4" t="s">
         <v>103</v>
@@ -5213,28 +5213,28 @@
         <v>237</v>
       </c>
       <c r="N57" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="O57" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="O57" s="5" t="s">
+      <c r="P57" s="4" t="s">
         <v>257</v>
-      </c>
-      <c r="P57" s="4" t="s">
-        <v>258</v>
       </c>
       <c r="Q57" s="4"/>
       <c r="R57" s="4" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="58" spans="1:18" ht="21">
       <c r="A58" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B58" s="4" t="s">
+      <c r="C58" s="4" t="s">
         <v>261</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>262</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>21</v>
@@ -5243,10 +5243,10 @@
         <v>233</v>
       </c>
       <c r="F58" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="G58" s="1" t="s">
         <v>263</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>264</v>
       </c>
       <c r="H58" s="4" t="s">
         <v>103</v>
@@ -5262,31 +5262,31 @@
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="N58" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="N58" s="4" t="s">
+      <c r="O58" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="O58" s="5" t="s">
-        <v>267</v>
-      </c>
       <c r="P58" s="4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="Q58" s="4"/>
       <c r="R58" s="23" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59" spans="1:18" ht="21">
       <c r="A59" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="C59" s="4" t="s">
         <v>269</v>
-      </c>
-      <c r="C59" s="4" t="s">
-        <v>270</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>21</v>
@@ -5295,10 +5295,10 @@
         <v>233</v>
       </c>
       <c r="F59" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="G59" s="4" t="s">
         <v>271</v>
-      </c>
-      <c r="G59" s="4" t="s">
-        <v>272</v>
       </c>
       <c r="H59" s="4" t="s">
         <v>103</v>
@@ -5314,31 +5314,31 @@
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="N59" s="4" t="s">
         <v>273</v>
       </c>
-      <c r="N59" s="4" t="s">
+      <c r="O59" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="O59" s="5" t="s">
+      <c r="P59" s="4" t="s">
         <v>275</v>
-      </c>
-      <c r="P59" s="4" t="s">
-        <v>276</v>
       </c>
       <c r="Q59" s="4"/>
       <c r="R59" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="60" spans="1:18" ht="21">
       <c r="A60" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>278</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="C60" s="4" t="s">
         <v>279</v>
-      </c>
-      <c r="C60" s="4" t="s">
-        <v>280</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>21</v>
@@ -5347,10 +5347,10 @@
         <v>233</v>
       </c>
       <c r="F60" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="G60" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="G60" s="4" t="s">
-        <v>282</v>
       </c>
       <c r="H60" s="4" t="s">
         <v>103</v>
@@ -5364,31 +5364,31 @@
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="N60" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="N60" s="4" t="s">
+      <c r="O60" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="P60" s="4" t="s">
         <v>284</v>
-      </c>
-      <c r="O60" s="5" t="s">
-        <v>267</v>
-      </c>
-      <c r="P60" s="4" t="s">
-        <v>285</v>
       </c>
       <c r="Q60" s="4"/>
       <c r="R60" s="4" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="61" spans="1:18" ht="21">
       <c r="A61" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>286</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="C61" s="4" t="s">
         <v>287</v>
-      </c>
-      <c r="C61" s="4" t="s">
-        <v>288</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>21</v>
@@ -5397,10 +5397,10 @@
         <v>22</v>
       </c>
       <c r="F61" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="G61" s="4" t="s">
         <v>289</v>
-      </c>
-      <c r="G61" s="4" t="s">
-        <v>290</v>
       </c>
       <c r="H61" s="4" t="s">
         <v>25</v>
@@ -5423,22 +5423,22 @@
         <v>29</v>
       </c>
       <c r="P61" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="Q61" s="4"/>
       <c r="R61" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="62" spans="1:18" ht="21">
       <c r="A62" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="C62" s="4" t="s">
         <v>294</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>295</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>21</v>
@@ -5447,10 +5447,10 @@
         <v>22</v>
       </c>
       <c r="F62" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="G62" s="4" t="s">
         <v>296</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>297</v>
       </c>
       <c r="H62" s="4" t="s">
         <v>25</v>
@@ -5473,22 +5473,22 @@
         <v>29</v>
       </c>
       <c r="P62" s="4" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="Q62" s="4"/>
       <c r="R62" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="63" spans="1:18" ht="21">
       <c r="A63" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>298</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="C63" s="4" t="s">
         <v>299</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>300</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>21</v>
@@ -5497,10 +5497,10 @@
         <v>233</v>
       </c>
       <c r="F63" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="G63" s="4" t="s">
         <v>301</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>302</v>
       </c>
       <c r="H63" s="4" t="s">
         <v>103</v>
@@ -5519,28 +5519,28 @@
         <v>237</v>
       </c>
       <c r="N63" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="O63" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="O63" s="5" t="s">
+      <c r="P63" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="P63" s="8" t="s">
-        <v>305</v>
-      </c>
       <c r="Q63" s="4"/>
-      <c r="R63" s="4" t="s">
-        <v>306</v>
+      <c r="R63" s="22" t="s">
+        <v>505</v>
       </c>
     </row>
     <row r="64" spans="1:18" ht="21">
       <c r="A64" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="C64" s="4" t="s">
         <v>307</v>
-      </c>
-      <c r="B64" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="C64" s="4" t="s">
-        <v>309</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>21</v>
@@ -5549,10 +5549,10 @@
         <v>233</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G64" s="4" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="H64" s="4" t="s">
         <v>103</v>
@@ -5568,33 +5568,33 @@
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="N64" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="O64" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="N64" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="O64" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="P64" s="4" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="Q64" s="4" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="R64" s="6" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="65" spans="1:18" ht="21">
       <c r="A65" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C65" s="4" t="s">
         <v>315</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>316</v>
-      </c>
-      <c r="C65" s="4" t="s">
-        <v>317</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>21</v>
@@ -5603,10 +5603,10 @@
         <v>233</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H65" s="4" t="s">
         <v>25</v>
@@ -5622,29 +5622,29 @@
       </c>
       <c r="L65" s="4"/>
       <c r="M65" s="4" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="N65" s="4"/>
       <c r="O65" s="3"/>
       <c r="P65" s="4" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="Q65" s="8" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="R65" s="4" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="66" spans="1:18" ht="21">
       <c r="A66" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B66" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>21</v>
@@ -5653,10 +5653,10 @@
         <v>233</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H66" s="4" t="s">
         <v>103</v>
@@ -5675,28 +5675,28 @@
         <v>78</v>
       </c>
       <c r="N66" s="4" t="s">
+        <v>326</v>
+      </c>
+      <c r="O66" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="P66" s="8" t="s">
         <v>328</v>
-      </c>
-      <c r="O66" s="5" t="s">
-        <v>329</v>
-      </c>
-      <c r="P66" s="8" t="s">
-        <v>330</v>
       </c>
       <c r="Q66" s="4"/>
       <c r="R66" s="4" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="67" spans="1:18" ht="21">
       <c r="A67" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>332</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="C67" s="4" t="s">
-        <v>334</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>21</v>
@@ -5705,10 +5705,10 @@
         <v>233</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G67" s="4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H67" s="4" t="s">
         <v>103</v>
@@ -5725,42 +5725,42 @@
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
       <c r="N67" s="4" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="O67" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="P67" s="26" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="Q67" s="26" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="R67" s="28" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
     </row>
     <row r="68" spans="1:18" ht="21">
       <c r="A68" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="D68" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="C68" s="4" t="s">
+      <c r="F68" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D68" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="4" t="s">
+      <c r="G68" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="H68" s="4" t="s">
         <v>25</v>
@@ -5772,65 +5772,65 @@
         <v>26</v>
       </c>
       <c r="M68" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="N68" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="O68" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="N68" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="O68" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="P68" s="27" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="R68" s="27" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
     </row>
     <row r="69" spans="1:18" ht="21">
       <c r="A69" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="C69" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="D69" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="4" t="s">
         <v>349</v>
       </c>
-      <c r="C69" s="1" t="s">
+      <c r="F69" s="4" t="s">
         <v>350</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E69" s="4" t="s">
+      <c r="G69" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="F69" s="4" t="s">
+      <c r="H69" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N69" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="G69" s="4" t="s">
+      <c r="O69" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H69" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N69" s="5" t="s">
-        <v>354</v>
-      </c>
-      <c r="O69" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="P69" s="27" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="70" spans="1:18" ht="21">
       <c r="A70" s="3" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C70" s="26" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>21</v>
@@ -5839,100 +5839,100 @@
         <v>233</v>
       </c>
       <c r="F70" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="G70" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="H70" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" s="5" t="s">
         <v>358</v>
       </c>
-      <c r="G70" s="4" t="s">
+      <c r="O70" s="5" t="s">
         <v>359</v>
       </c>
-      <c r="H70" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N70" s="5" t="s">
-        <v>360</v>
-      </c>
-      <c r="O70" s="5" t="s">
-        <v>361</v>
-      </c>
       <c r="P70" s="27" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="R70" s="22" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
     </row>
     <row r="71" spans="1:18" ht="21">
       <c r="A71" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>362</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="D71" s="4" t="s">
         <v>363</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="E71" s="4" t="s">
         <v>233</v>
       </c>
       <c r="F71" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="G71" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="H71" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N71" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="G71" s="4" t="s">
+      <c r="O71" s="5" t="s">
         <v>367</v>
-      </c>
-      <c r="H71" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N71" s="5" t="s">
-        <v>368</v>
-      </c>
-      <c r="O71" s="5" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="72" spans="1:18" ht="21">
       <c r="A72" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>370</v>
       </c>
-      <c r="B72" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>372</v>
-      </c>
       <c r="D72" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>233</v>
       </c>
       <c r="F72" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="H72" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N72" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="G72" s="4" t="s">
-        <v>374</v>
-      </c>
-      <c r="H72" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N72" s="5" t="s">
-        <v>375</v>
-      </c>
       <c r="O72" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="73" spans="1:18" ht="21">
       <c r="A73" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="C73" s="4" t="s">
         <v>376</v>
-      </c>
-      <c r="B73" s="4" t="s">
-        <v>377</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>378</v>
       </c>
       <c r="D73" s="4" t="s">
         <v>21</v>
@@ -5941,62 +5941,62 @@
         <v>22</v>
       </c>
       <c r="F73" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N73" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="G73" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="H73" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N73" s="5" t="s">
-        <v>381</v>
-      </c>
       <c r="O73" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="74" spans="1:18" ht="21">
       <c r="A74" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="C74" s="4" t="s">
         <v>382</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>383</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>384</v>
-      </c>
       <c r="D74" s="4" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F74" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="H74" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N74" s="5" t="s">
         <v>385</v>
       </c>
-      <c r="G74" s="4" t="s">
-        <v>386</v>
-      </c>
-      <c r="H74" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N74" s="5" t="s">
-        <v>387</v>
-      </c>
       <c r="O74" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="75" spans="1:18" ht="21">
       <c r="A75" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="C75" s="1" t="s">
         <v>388</v>
-      </c>
-      <c r="B75" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>390</v>
       </c>
       <c r="D75" s="4" t="s">
         <v>21</v>
@@ -6005,36 +6005,36 @@
         <v>22</v>
       </c>
       <c r="F75" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N75" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="G75" s="4" t="s">
+      <c r="O75" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="H75" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N75" s="5" t="s">
+      <c r="P75" s="9" t="s">
         <v>393</v>
       </c>
-      <c r="O75" s="5" t="s">
+      <c r="R75" s="1" t="s">
         <v>394</v>
-      </c>
-      <c r="P75" s="9" t="s">
-        <v>395</v>
-      </c>
-      <c r="R75" s="1" t="s">
-        <v>396</v>
       </c>
     </row>
     <row r="76" spans="1:18" ht="21">
       <c r="A76" s="3" t="s">
+        <v>395</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C76" s="1" t="s">
         <v>397</v>
-      </c>
-      <c r="B76" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>399</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>21</v>
@@ -6043,36 +6043,36 @@
         <v>22</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G76" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="H76" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N76" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="O76" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="H76" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N76" s="5" t="s">
+      <c r="P76" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="R76" s="1" t="s">
         <v>400</v>
-      </c>
-      <c r="O76" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="P76" s="9" t="s">
-        <v>401</v>
-      </c>
-      <c r="R76" s="1" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:18" ht="21">
       <c r="A77" s="3" t="s">
+        <v>401</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C77" s="1" t="s">
         <v>403</v>
-      </c>
-      <c r="B77" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>405</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>21</v>
@@ -6081,30 +6081,30 @@
         <v>22</v>
       </c>
       <c r="F77" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="H77" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N77" s="5" t="s">
         <v>406</v>
       </c>
-      <c r="G77" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="H77" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N77" s="5" t="s">
-        <v>408</v>
-      </c>
       <c r="O77" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:18" ht="21">
       <c r="A78" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C78" s="1" t="s">
         <v>409</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>411</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>21</v>
@@ -6113,30 +6113,30 @@
         <v>22</v>
       </c>
       <c r="F78" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="H78" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N78" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="G78" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="H78" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N78" s="5" t="s">
-        <v>414</v>
-      </c>
       <c r="O78" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:18" ht="21">
       <c r="A79" s="3" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D79" s="1" t="s">
         <v>21</v>
@@ -6145,73 +6145,73 @@
         <v>22</v>
       </c>
       <c r="F79" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="H79" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N79" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="G79" s="1" t="s">
+      <c r="O79" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="P79" s="10" t="s">
         <v>418</v>
       </c>
-      <c r="H79" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N79" s="5" t="s">
+      <c r="R79" s="1" t="s">
         <v>419</v>
-      </c>
-      <c r="O79" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="P79" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="R79" s="1" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="80" spans="1:18" s="13" customFormat="1" ht="63">
       <c r="A80" s="11" t="s">
+        <v>420</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>421</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>422</v>
       </c>
-      <c r="B80" s="12" t="s">
+      <c r="D80" s="13" t="s">
         <v>423</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>424</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>425</v>
       </c>
       <c r="E80" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F80" s="13" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G80" s="13" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="H80" s="14"/>
       <c r="M80" s="4" t="s">
         <v>37</v>
       </c>
       <c r="N80" s="15" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="O80" s="15" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="P80" s="16"/>
       <c r="R80" s="13" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="81" spans="1:18" ht="23.25">
       <c r="A81" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>430</v>
-      </c>
-      <c r="B81" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>432</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>21</v>
@@ -6220,30 +6220,30 @@
         <v>22</v>
       </c>
       <c r="F81" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="H81" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N81" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="G81" s="1" t="s">
+      <c r="O81" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="P81" s="18" t="s">
         <v>434</v>
       </c>
-      <c r="H81" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N81" s="5" t="s">
+      <c r="R81" s="1" t="s">
         <v>435</v>
-      </c>
-      <c r="O81" s="5" t="s">
-        <v>369</v>
-      </c>
-      <c r="P81" s="18" t="s">
-        <v>436</v>
-      </c>
-      <c r="R81" s="1" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="82" spans="1:18" ht="23.25">
       <c r="A82" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B82" s="4" t="s">
         <v>225</v>
@@ -6263,7 +6263,7 @@
     </row>
     <row r="83" spans="1:18" ht="23.25">
       <c r="A83" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B83" s="4" t="s">
         <v>226</v>
@@ -6283,7 +6283,7 @@
     </row>
     <row r="84" spans="1:18" ht="23.25">
       <c r="A84" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B84" s="4" t="s">
         <v>227</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="85" spans="1:18" ht="23.25">
       <c r="A85" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B85" s="4" t="s">
         <v>228</v>
@@ -6323,7 +6323,7 @@
     </row>
     <row r="86" spans="1:18" ht="23.25">
       <c r="A86" s="17" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B86" s="4" t="s">
         <v>229</v>
@@ -6343,13 +6343,13 @@
     </row>
     <row r="87" spans="1:18" ht="23.25">
       <c r="A87" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>438</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>440</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>21</v>
@@ -6358,30 +6358,30 @@
         <v>22</v>
       </c>
       <c r="F87" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="H87" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N87" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="G87" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="H87" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N87" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="O87" s="5" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="88" spans="1:18" ht="21">
       <c r="A88" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="C88" s="1" t="s">
         <v>444</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C88" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="D88" s="1" t="s">
         <v>21</v>
@@ -6390,30 +6390,30 @@
         <v>22</v>
       </c>
       <c r="F88" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="G88" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="H88" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N88" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="G88" s="4" t="s">
-        <v>448</v>
-      </c>
-      <c r="H88" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N88" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="O88" s="5" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="89" spans="1:18" ht="21">
       <c r="A89" s="3" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>21</v>
@@ -6422,37 +6422,37 @@
         <v>22</v>
       </c>
       <c r="F89" s="19" t="s">
+        <v>450</v>
+      </c>
+      <c r="G89" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="N89" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="G89" s="1" t="s">
+      <c r="O89" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="P89" s="19" t="s">
         <v>453</v>
-      </c>
-      <c r="H89" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="N89" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="O89" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="P89" s="19" t="s">
-        <v>455</v>
       </c>
       <c r="Q89" s="22"/>
       <c r="R89" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
     </row>
     <row r="90" spans="1:18" ht="21">
       <c r="A90" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>456</v>
+      </c>
+      <c r="C90" s="4" t="s">
         <v>457</v>
-      </c>
-      <c r="B90" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>459</v>
       </c>
       <c r="D90" s="4" t="s">
         <v>21</v>
@@ -6461,10 +6461,10 @@
         <v>233</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="H90" s="4" t="s">
         <v>103</v>
@@ -6483,67 +6483,67 @@
         <v>237</v>
       </c>
       <c r="N90" s="5" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="O90" s="5" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="P90" s="26" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="Q90" s="4"/>
       <c r="R90" s="22" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="91" spans="1:18" s="13" customFormat="1" ht="128.25">
       <c r="A91" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>463</v>
+      </c>
+      <c r="C91" s="12" t="s">
         <v>464</v>
       </c>
-      <c r="B91" s="12" t="s">
-        <v>465</v>
-      </c>
-      <c r="C91" s="12" t="s">
-        <v>466</v>
-      </c>
       <c r="D91" s="13" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E91" s="14" t="s">
         <v>22</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="H91" s="14"/>
       <c r="M91" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="N91" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="O91" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="P91" s="20" t="s">
         <v>469</v>
       </c>
-      <c r="N91" s="15" t="s">
+      <c r="R91" s="13" t="s">
         <v>470</v>
-      </c>
-      <c r="O91" s="15" t="s">
-        <v>394</v>
-      </c>
-      <c r="P91" s="20" t="s">
-        <v>471</v>
-      </c>
-      <c r="R91" s="13" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="92" spans="1:18" ht="21">
       <c r="A92" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B92" s="4" t="s">
+        <v>472</v>
+      </c>
+      <c r="C92" s="4" t="s">
         <v>473</v>
-      </c>
-      <c r="B92" s="4" t="s">
-        <v>474</v>
-      </c>
-      <c r="C92" s="4" t="s">
-        <v>475</v>
       </c>
       <c r="D92" s="4" t="s">
         <v>21</v>
@@ -6552,28 +6552,28 @@
         <v>233</v>
       </c>
       <c r="F92" s="4" t="s">
+        <v>474</v>
+      </c>
+      <c r="G92" s="4" t="s">
+        <v>475</v>
+      </c>
+      <c r="H92" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="M92" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="G92" s="4" t="s">
+      <c r="N92" s="5" t="s">
         <v>477</v>
       </c>
-      <c r="H92" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="M92" s="1" t="s">
+      <c r="O92" s="5" t="s">
         <v>478</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="P92" s="21" t="s">
         <v>479</v>
       </c>
-      <c r="O92" s="5" t="s">
-        <v>480</v>
-      </c>
-      <c r="P92" s="21" t="s">
-        <v>481</v>
-      </c>
       <c r="R92" s="25" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="96" spans="1:18">
@@ -6757,6 +6757,8 @@
     <hyperlink ref="R67" r:id="rId78" xr:uid="{FFB76916-3071-074B-99E1-093CC194DFE2}"/>
     <hyperlink ref="R90" r:id="rId79" xr:uid="{F03C0612-F214-49AA-88B4-EFB9A3110C88}"/>
     <hyperlink ref="R70" r:id="rId80" xr:uid="{BF99CB95-8732-461D-BBA6-6F0D17CAFA88}"/>
+    <hyperlink ref="R55" r:id="rId81" xr:uid="{448C4D42-C0A1-4722-8FE4-D98BC3811EC5}"/>
+    <hyperlink ref="R63" r:id="rId82" xr:uid="{46EABFE7-A6DC-474E-939A-50AFAA4C570B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78749999999999998" bottom="0.78749999999999998" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
